--- a/data/interim/crosswalk.xlsx
+++ b/data/interim/crosswalk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/LocalWork/DataVisualizations/asbestos-dashboard/asbestos-dashboard-data/data/interim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B4C810-3683-1B4C-BF1F-BFF23D06A3C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBA506B-FE45-A547-B082-4DCDE0451CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1510" uniqueCount="925">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1510" uniqueCount="924">
   <si>
     <t>facility_name</t>
   </si>
@@ -2414,9 +2414,6 @@
   </si>
   <si>
     <t>Olney Charter High School</t>
-  </si>
-  <si>
-    <t>Olney West High School</t>
   </si>
   <si>
     <t>Overbrook Educational Ctr</t>
@@ -3168,8 +3165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B755"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A454" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A468" sqref="A468"/>
+    <sheetView tabSelected="1" topLeftCell="A634" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B648" sqref="B648"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8359,36 +8356,36 @@
         <v>797</v>
       </c>
       <c r="B648" t="s">
-        <v>798</v>
+        <v>703</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
+        <v>798</v>
+      </c>
+      <c r="B649" t="s">
         <v>799</v>
-      </c>
-      <c r="B649" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B650" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B651" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B652" t="s">
         <v>271</v>
@@ -8396,87 +8393,87 @@
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
+        <v>803</v>
+      </c>
+      <c r="B653" t="s">
         <v>804</v>
-      </c>
-      <c r="B653" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
+        <v>805</v>
+      </c>
+      <c r="B654" t="s">
         <v>806</v>
-      </c>
-      <c r="B654" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
+        <v>807</v>
+      </c>
+      <c r="B655" t="s">
         <v>808</v>
-      </c>
-      <c r="B655" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B656" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
+        <v>810</v>
+      </c>
+      <c r="B657" t="s">
         <v>811</v>
-      </c>
-      <c r="B657" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B658" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
+        <v>813</v>
+      </c>
+      <c r="B659" t="s">
         <v>814</v>
-      </c>
-      <c r="B659" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
+        <v>815</v>
+      </c>
+      <c r="B660" t="s">
         <v>816</v>
-      </c>
-      <c r="B660" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
+        <v>817</v>
+      </c>
+      <c r="B661" t="s">
         <v>818</v>
-      </c>
-      <c r="B661" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B662" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B663" t="s">
         <v>519</v>
@@ -8484,15 +8481,15 @@
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
+        <v>821</v>
+      </c>
+      <c r="B664" t="s">
         <v>822</v>
-      </c>
-      <c r="B664" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B665" t="s">
         <v>35</v>
@@ -8500,7 +8497,7 @@
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B666" t="s">
         <v>37</v>
@@ -8508,7 +8505,7 @@
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B667" t="s">
         <v>3</v>
@@ -8516,7 +8513,7 @@
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B668" t="s">
         <v>81</v>
@@ -8524,7 +8521,7 @@
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B669" t="s">
         <v>708</v>
@@ -8532,7 +8529,7 @@
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B670" t="s">
         <v>523</v>
@@ -8540,7 +8537,7 @@
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B671" t="s">
         <v>44</v>
@@ -8548,7 +8545,7 @@
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B672" t="s">
         <v>5</v>
@@ -8556,7 +8553,7 @@
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B673" t="s">
         <v>72</v>
@@ -8564,7 +8561,7 @@
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B674" t="s">
         <v>140</v>
@@ -8572,7 +8569,7 @@
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B675" t="s">
         <v>179</v>
@@ -8580,7 +8577,7 @@
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B676" t="s">
         <v>698</v>
@@ -8588,7 +8585,7 @@
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B677" t="s">
         <v>374</v>
@@ -8596,7 +8593,7 @@
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B678" t="s">
         <v>190</v>
@@ -8604,7 +8601,7 @@
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B679" t="s">
         <v>575</v>
@@ -8612,7 +8609,7 @@
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B680" t="s">
         <v>543</v>
@@ -8620,7 +8617,7 @@
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B681" t="s">
         <v>452</v>
@@ -8628,7 +8625,7 @@
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B682" t="s">
         <v>509</v>
@@ -8636,7 +8633,7 @@
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B683" t="s">
         <v>599</v>
@@ -8644,7 +8641,7 @@
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B684" t="s">
         <v>49</v>
@@ -8652,31 +8649,31 @@
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
+        <v>843</v>
+      </c>
+      <c r="B685" t="s">
         <v>844</v>
-      </c>
-      <c r="B685" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
+        <v>845</v>
+      </c>
+      <c r="B686" t="s">
         <v>846</v>
-      </c>
-      <c r="B686" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B687" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B688" t="s">
         <v>13</v>
@@ -8684,31 +8681,31 @@
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B689" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B690" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B691" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B692" t="s">
         <v>728</v>
@@ -8716,7 +8713,7 @@
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B693" t="s">
         <v>691</v>
@@ -8724,7 +8721,7 @@
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B694" t="s">
         <v>209</v>
@@ -8732,31 +8729,31 @@
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
+        <v>855</v>
+      </c>
+      <c r="B695" t="s">
         <v>856</v>
-      </c>
-      <c r="B695" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
+        <v>857</v>
+      </c>
+      <c r="B696" t="s">
         <v>858</v>
-      </c>
-      <c r="B696" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
+        <v>859</v>
+      </c>
+      <c r="B697" t="s">
         <v>860</v>
-      </c>
-      <c r="B697" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B698" t="s">
         <v>69</v>
@@ -8772,7 +8769,7 @@
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B700" t="s">
         <v>45</v>
@@ -8780,15 +8777,15 @@
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
+        <v>863</v>
+      </c>
+      <c r="B701" t="s">
         <v>864</v>
-      </c>
-      <c r="B701" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B702" t="s">
         <v>617</v>
@@ -8796,7 +8793,7 @@
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B703" t="s">
         <v>51</v>
@@ -8804,7 +8801,7 @@
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B704" t="s">
         <v>51</v>
@@ -8812,31 +8809,31 @@
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
+        <v>868</v>
+      </c>
+      <c r="B705" t="s">
         <v>869</v>
-      </c>
-      <c r="B705" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B706" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B707" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B708" t="s">
         <v>732</v>
@@ -8844,7 +8841,7 @@
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B709" t="s">
         <v>69</v>
@@ -8852,7 +8849,7 @@
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B710" t="s">
         <v>3</v>
@@ -8860,47 +8857,47 @@
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
+        <v>875</v>
+      </c>
+      <c r="B711" t="s">
         <v>876</v>
-      </c>
-      <c r="B711" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
+        <v>877</v>
+      </c>
+      <c r="B712" t="s">
         <v>878</v>
-      </c>
-      <c r="B712" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B713" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
+        <v>880</v>
+      </c>
+      <c r="B714" t="s">
         <v>881</v>
-      </c>
-      <c r="B714" t="s">
-        <v>882</v>
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B715" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B716" t="s">
         <v>749</v>
@@ -8908,23 +8905,23 @@
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B717" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B718" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B719" t="s">
         <v>76</v>
@@ -8932,23 +8929,23 @@
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
+        <v>887</v>
+      </c>
+      <c r="B720" t="s">
         <v>888</v>
-      </c>
-      <c r="B720" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B721" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B722" t="s">
         <v>51</v>
@@ -8956,31 +8953,31 @@
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B723" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B724" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B725" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B726" t="s">
         <v>69</v>
@@ -8988,15 +8985,15 @@
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B727" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B728" t="s">
         <v>57</v>
@@ -9004,7 +9001,7 @@
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B729" t="s">
         <v>7</v>
@@ -9012,7 +9009,7 @@
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B730" t="s">
         <v>51</v>
@@ -9020,15 +9017,15 @@
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B731" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B732" t="s">
         <v>69</v>
@@ -9036,7 +9033,7 @@
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B733" t="s">
         <v>479</v>
@@ -9044,23 +9041,23 @@
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B734" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B735" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A736" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B736" t="s">
         <v>115</v>
@@ -9068,7 +9065,7 @@
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A737" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B737" t="s">
         <v>728</v>
@@ -9076,7 +9073,7 @@
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A738" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B738" t="s">
         <v>190</v>
@@ -9084,7 +9081,7 @@
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B739" t="s">
         <v>51</v>
@@ -9092,7 +9089,7 @@
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B740" t="s">
         <v>7</v>
@@ -9100,7 +9097,7 @@
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B741" t="s">
         <v>57</v>
@@ -9108,7 +9105,7 @@
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B742" t="s">
         <v>57</v>
@@ -9116,15 +9113,15 @@
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B743" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B744" t="s">
         <v>153</v>
@@ -9132,47 +9129,47 @@
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
+        <v>913</v>
+      </c>
+      <c r="B745" t="s">
         <v>914</v>
-      </c>
-      <c r="B745" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B746" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B747" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B748" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B749" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A750" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B750" t="s">
         <v>64</v>
@@ -9180,7 +9177,7 @@
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B751" t="s">
         <v>728</v>
@@ -9188,7 +9185,7 @@
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A752" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B752" t="s">
         <v>34</v>
@@ -9196,7 +9193,7 @@
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B753" t="s">
         <v>71</v>
@@ -9212,7 +9209,7 @@
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B755" t="s">
         <v>587</v>

--- a/data/interim/crosswalk.xlsx
+++ b/data/interim/crosswalk.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/LocalWork/DataVisualizations/asbestos-dashboard/asbestos-dashboard-data/data/interim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBA506B-FE45-A547-B082-4DCDE0451CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5521B0-AC17-8941-A8C8-C36406ED2EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1510" uniqueCount="924">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="926">
   <si>
     <t>facility_name</t>
   </si>
@@ -2792,6 +2792,12 @@
   </si>
   <si>
     <t>BIRNEY ES</t>
+  </si>
+  <si>
+    <t>MCDANIEL ES</t>
+  </si>
+  <si>
+    <t>Delaplaine McDaniel School</t>
   </si>
 </sst>
 </file>
@@ -3163,10 +3169,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B755"/>
+  <dimension ref="A1:B756"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A634" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B648" sqref="B648"/>
+    <sheetView tabSelected="1" topLeftCell="A751" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A756" sqref="A756:B756"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9215,6 +9221,14 @@
         <v>587</v>
       </c>
     </row>
+    <row r="756" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A756" t="s">
+        <v>924</v>
+      </c>
+      <c r="B756" t="s">
+        <v>925</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/interim/crosswalk.xlsx
+++ b/data/interim/crosswalk.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/LocalWork/DataVisualizations/asbestos-dashboard/asbestos-dashboard-data/data/interim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5521B0-AC17-8941-A8C8-C36406ED2EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECD0777-3B06-E345-858A-CD95808B0814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="926">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="929">
   <si>
     <t>facility_name</t>
   </si>
@@ -2798,6 +2798,15 @@
   </si>
   <si>
     <t>Delaplaine McDaniel School</t>
+  </si>
+  <si>
+    <t>Richard R Wright Elementary School</t>
+  </si>
+  <si>
+    <t>FS Edmonds School</t>
+  </si>
+  <si>
+    <t>PIERCE ES @ PRATT BUILDING</t>
   </si>
 </sst>
 </file>
@@ -3169,10 +3178,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B756"/>
+  <dimension ref="A1:B759"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A751" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A756" sqref="A756:B756"/>
+    <sheetView tabSelected="1" topLeftCell="A747" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B759" sqref="B759"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9229,6 +9238,30 @@
         <v>925</v>
       </c>
     </row>
+    <row r="757" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A757" t="s">
+        <v>926</v>
+      </c>
+      <c r="B757" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A758" t="s">
+        <v>927</v>
+      </c>
+      <c r="B758" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A759" t="s">
+        <v>928</v>
+      </c>
+      <c r="B759" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/interim/crosswalk.xlsx
+++ b/data/interim/crosswalk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/LocalWork/DataVisualizations/asbestos-dashboard/asbestos-dashboard-data/data/interim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECD0777-3B06-E345-858A-CD95808B0814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086ECDFC-6283-F544-84FC-4304C26D51A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="929">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="930">
   <si>
     <t>facility_name</t>
   </si>
@@ -2807,6 +2807,9 @@
   </si>
   <si>
     <t>PIERCE ES @ PRATT BUILDING</t>
+  </si>
+  <si>
+    <t>PSD Cassidy Elementary School</t>
   </si>
 </sst>
 </file>
@@ -3178,10 +3181,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B759"/>
+  <dimension ref="A1:B760"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A747" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B759" sqref="B759"/>
+    <sheetView tabSelected="1" topLeftCell="A157" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B174" sqref="B174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4576,15 +4579,15 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>205</v>
+        <v>929</v>
       </c>
       <c r="B174" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B175" t="s">
         <v>206</v>
@@ -4592,15 +4595,15 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B176" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B177" t="s">
         <v>209</v>
@@ -4608,7 +4611,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B178" t="s">
         <v>209</v>
@@ -4616,15 +4619,15 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B179" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B180" t="s">
         <v>213</v>
@@ -4632,7 +4635,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B181" t="s">
         <v>213</v>
@@ -4640,7 +4643,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B182" t="s">
         <v>213</v>
@@ -4648,7 +4651,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B183" t="s">
         <v>213</v>
@@ -4656,7 +4659,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B184" t="s">
         <v>213</v>
@@ -4664,15 +4667,15 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B185" t="s">
-        <v>5</v>
+        <v>213</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B186" t="s">
         <v>5</v>
@@ -4680,7 +4683,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B187" t="s">
         <v>5</v>
@@ -4688,15 +4691,15 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B188" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B189" t="s">
         <v>30</v>
@@ -4704,7 +4707,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B190" t="s">
         <v>30</v>
@@ -4712,7 +4715,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B191" t="s">
         <v>30</v>
@@ -4720,7 +4723,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B192" t="s">
         <v>30</v>
@@ -4728,15 +4731,15 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B193" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B194" t="s">
         <v>49</v>
@@ -4744,15 +4747,15 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B195" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B196" t="s">
         <v>24</v>
@@ -4760,15 +4763,15 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B197" t="s">
-        <v>232</v>
+        <v>24</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B198" t="s">
         <v>232</v>
@@ -4776,7 +4779,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B199" t="s">
         <v>232</v>
@@ -4784,7 +4787,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B200" t="s">
         <v>232</v>
@@ -4792,7 +4795,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B201" t="s">
         <v>232</v>
@@ -4800,7 +4803,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B202" t="s">
         <v>232</v>
@@ -4808,15 +4811,15 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B203" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B204" t="s">
         <v>239</v>
@@ -4824,15 +4827,15 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B205" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B206" t="s">
         <v>242</v>
@@ -4840,15 +4843,15 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B207" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B208" t="s">
         <v>245</v>
@@ -4856,7 +4859,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B209" t="s">
         <v>245</v>
@@ -4864,7 +4867,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B210" t="s">
         <v>245</v>
@@ -4872,15 +4875,15 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B211" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B212" t="s">
         <v>250</v>
@@ -4888,7 +4891,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B213" t="s">
         <v>250</v>
@@ -4896,7 +4899,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B214" t="s">
         <v>250</v>
@@ -4904,7 +4907,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B215" t="s">
         <v>250</v>
@@ -4912,7 +4915,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B216" t="s">
         <v>250</v>
@@ -4920,15 +4923,15 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B217" t="s">
-        <v>2</v>
+        <v>250</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B218" t="s">
         <v>2</v>
@@ -4936,7 +4939,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B219" t="s">
         <v>2</v>
@@ -4944,7 +4947,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B220" t="s">
         <v>2</v>
@@ -4952,7 +4955,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B221" t="s">
         <v>2</v>
@@ -4960,15 +4963,15 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B222" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B223" t="s">
         <v>14</v>
@@ -4976,7 +4979,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B224" t="s">
         <v>14</v>
@@ -4984,7 +4987,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B225" t="s">
         <v>14</v>
@@ -4992,7 +4995,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B226" t="s">
         <v>14</v>
@@ -5000,15 +5003,15 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B227" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B228" t="s">
         <v>70</v>
@@ -5016,7 +5019,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B229" t="s">
         <v>70</v>
@@ -5024,7 +5027,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B230" t="s">
         <v>70</v>
@@ -5032,15 +5035,15 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B231" t="s">
-        <v>271</v>
+        <v>70</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B232" t="s">
         <v>271</v>
@@ -5048,7 +5051,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B233" t="s">
         <v>271</v>
@@ -5056,7 +5059,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B234" t="s">
         <v>271</v>
@@ -5064,7 +5067,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B235" t="s">
         <v>271</v>
@@ -5072,15 +5075,15 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B236" t="s">
-        <v>15</v>
+        <v>271</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B237" t="s">
         <v>15</v>
@@ -5088,7 +5091,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B238" t="s">
         <v>15</v>
@@ -5096,7 +5099,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B239" t="s">
         <v>15</v>
@@ -5104,15 +5107,15 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B240" t="s">
-        <v>281</v>
+        <v>15</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B241" t="s">
         <v>281</v>
@@ -5120,7 +5123,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B242" t="s">
         <v>281</v>
@@ -5128,15 +5131,15 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B243" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B244" t="s">
         <v>285</v>
@@ -5144,7 +5147,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B245" t="s">
         <v>285</v>
@@ -5152,15 +5155,15 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B246" t="s">
-        <v>48</v>
+        <v>285</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B247" t="s">
         <v>48</v>
@@ -5168,7 +5171,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B248" t="s">
         <v>48</v>
@@ -5176,15 +5179,15 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B249" t="s">
-        <v>292</v>
+        <v>48</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B250" t="s">
         <v>292</v>
@@ -5192,7 +5195,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B251" t="s">
         <v>292</v>
@@ -5200,7 +5203,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B252" t="s">
         <v>292</v>
@@ -5208,7 +5211,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B253" t="s">
         <v>292</v>
@@ -5216,7 +5219,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B254" t="s">
         <v>292</v>
@@ -5224,7 +5227,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B255" t="s">
         <v>292</v>
@@ -5232,7 +5235,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B256" t="s">
         <v>292</v>
@@ -5240,7 +5243,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B257" t="s">
         <v>292</v>
@@ -5248,7 +5251,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B258" t="s">
         <v>292</v>
@@ -5256,7 +5259,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B259" t="s">
         <v>292</v>
@@ -5264,7 +5267,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B260" t="s">
         <v>292</v>
@@ -5272,7 +5275,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B261" t="s">
         <v>292</v>
@@ -5280,15 +5283,15 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B262" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B263" t="s">
         <v>306</v>
@@ -5296,15 +5299,15 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B264" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B265" t="s">
         <v>309</v>
@@ -5312,7 +5315,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B266" t="s">
         <v>309</v>
@@ -5320,7 +5323,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B267" t="s">
         <v>309</v>
@@ -5328,7 +5331,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B268" t="s">
         <v>309</v>
@@ -5336,7 +5339,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B269" t="s">
         <v>309</v>
@@ -5344,23 +5347,23 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B270" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B271" t="s">
-        <v>29</v>
+        <v>316</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B272" t="s">
         <v>29</v>
@@ -5368,7 +5371,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B273" t="s">
         <v>29</v>
@@ -5376,7 +5379,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B274" t="s">
         <v>29</v>
@@ -5384,7 +5387,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B275" t="s">
         <v>29</v>
@@ -5392,7 +5395,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B276" t="s">
         <v>29</v>
@@ -5400,7 +5403,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B277" t="s">
         <v>29</v>
@@ -5408,23 +5411,23 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B278" t="s">
-        <v>325</v>
+        <v>29</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B279" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B280" t="s">
         <v>327</v>
@@ -5432,7 +5435,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B281" t="s">
         <v>327</v>
@@ -5440,15 +5443,15 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B282" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B283" t="s">
         <v>331</v>
@@ -5456,15 +5459,15 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B284" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B285" t="s">
         <v>334</v>
@@ -5472,7 +5475,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B286" t="s">
         <v>334</v>
@@ -5480,7 +5483,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B287" t="s">
         <v>334</v>
@@ -5488,7 +5491,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B288" t="s">
         <v>334</v>
@@ -5496,7 +5499,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B289" t="s">
         <v>334</v>
@@ -5504,15 +5507,15 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B290" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B291" t="s">
         <v>341</v>
@@ -5520,15 +5523,15 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B292" t="s">
-        <v>61</v>
+        <v>341</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B293" t="s">
         <v>61</v>
@@ -5536,7 +5539,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B294" t="s">
         <v>61</v>
@@ -5544,31 +5547,31 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B295" t="s">
-        <v>347</v>
+        <v>61</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B296" t="s">
-        <v>44</v>
+        <v>347</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B297" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B298" t="s">
         <v>72</v>
@@ -5576,15 +5579,15 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B299" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B300" t="s">
         <v>10</v>
@@ -5592,7 +5595,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B301" t="s">
         <v>10</v>
@@ -5600,7 +5603,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B302" t="s">
         <v>10</v>
@@ -5608,15 +5611,15 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B303" t="s">
-        <v>356</v>
+        <v>10</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B304" t="s">
         <v>356</v>
@@ -5624,23 +5627,23 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B305" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B306" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B307" t="s">
         <v>361</v>
@@ -5648,7 +5651,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B308" t="s">
         <v>361</v>
@@ -5656,7 +5659,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B309" t="s">
         <v>361</v>
@@ -5664,15 +5667,15 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B310" t="s">
-        <v>68</v>
+        <v>361</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B311" t="s">
         <v>68</v>
@@ -5680,7 +5683,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B312" t="s">
         <v>68</v>
@@ -5688,7 +5691,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B313" t="s">
         <v>68</v>
@@ -5696,15 +5699,15 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B314" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B315" t="s">
         <v>55</v>
@@ -5712,7 +5715,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B316" t="s">
         <v>55</v>
@@ -5720,7 +5723,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B317" t="s">
         <v>55</v>
@@ -5728,15 +5731,15 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B318" t="s">
-        <v>374</v>
+        <v>55</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B319" t="s">
         <v>374</v>
@@ -5744,7 +5747,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B320" t="s">
         <v>374</v>
@@ -5752,15 +5755,15 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B321" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B322" t="s">
         <v>378</v>
@@ -5768,15 +5771,15 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B323" t="s">
-        <v>35</v>
+        <v>378</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B324" t="s">
         <v>35</v>
@@ -5784,7 +5787,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B325" t="s">
         <v>35</v>
@@ -5792,7 +5795,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B326" t="s">
         <v>35</v>
@@ -5800,7 +5803,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B327" t="s">
         <v>35</v>
@@ -5808,15 +5811,15 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B328" t="s">
-        <v>386</v>
+        <v>35</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B329" t="s">
         <v>386</v>
@@ -5824,7 +5827,7 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B330" t="s">
         <v>386</v>
@@ -5832,7 +5835,7 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B331" t="s">
         <v>386</v>
@@ -5840,15 +5843,15 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B332" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B333" t="s">
         <v>391</v>
@@ -5856,15 +5859,15 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B334" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B335" t="s">
         <v>394</v>
@@ -5872,15 +5875,15 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B336" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B337" t="s">
         <v>397</v>
@@ -5888,7 +5891,7 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B338" t="s">
         <v>397</v>
@@ -5896,15 +5899,15 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B339" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B340" t="s">
         <v>401</v>
@@ -5912,7 +5915,7 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B341" t="s">
         <v>401</v>
@@ -5920,7 +5923,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B342" t="s">
         <v>401</v>
@@ -5928,7 +5931,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B343" t="s">
         <v>401</v>
@@ -5936,7 +5939,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B344" t="s">
         <v>401</v>
@@ -5944,15 +5947,15 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B345" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B346" t="s">
         <v>408</v>
@@ -5960,7 +5963,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B347" t="s">
         <v>408</v>
@@ -5968,7 +5971,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B348" t="s">
         <v>408</v>
@@ -5976,15 +5979,15 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B349" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B350" t="s">
         <v>413</v>
@@ -5992,7 +5995,7 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B351" t="s">
         <v>413</v>
@@ -6000,7 +6003,7 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B352" t="s">
         <v>413</v>
@@ -6008,15 +6011,15 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B353" t="s">
-        <v>66</v>
+        <v>413</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B354" t="s">
         <v>66</v>
@@ -6024,7 +6027,7 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B355" t="s">
         <v>66</v>
@@ -6032,7 +6035,7 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B356" t="s">
         <v>66</v>
@@ -6040,7 +6043,7 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B357" t="s">
         <v>66</v>
@@ -6048,7 +6051,7 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B358" t="s">
         <v>66</v>
@@ -6056,7 +6059,7 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B359" t="s">
         <v>66</v>
@@ -6064,15 +6067,15 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B360" t="s">
-        <v>425</v>
+        <v>66</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B361" t="s">
         <v>425</v>
@@ -6080,7 +6083,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B362" t="s">
         <v>425</v>
@@ -6088,15 +6091,15 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B363" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B364" t="s">
         <v>429</v>
@@ -6104,7 +6107,7 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B365" t="s">
         <v>429</v>
@@ -6112,15 +6115,15 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B366" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B367" t="s">
         <v>433</v>
@@ -6128,7 +6131,7 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B368" t="s">
         <v>433</v>
@@ -6136,7 +6139,7 @@
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B369" t="s">
         <v>433</v>
@@ -6144,15 +6147,15 @@
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B370" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B371" t="s">
         <v>438</v>
@@ -6160,7 +6163,7 @@
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B372" t="s">
         <v>438</v>
@@ -6168,7 +6171,7 @@
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B373" t="s">
         <v>438</v>
@@ -6176,15 +6179,15 @@
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B374" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B375" t="s">
         <v>443</v>
@@ -6192,7 +6195,7 @@
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B376" t="s">
         <v>443</v>
@@ -6200,7 +6203,7 @@
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B377" t="s">
         <v>443</v>
@@ -6208,7 +6211,7 @@
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B378" t="s">
         <v>443</v>
@@ -6216,7 +6219,7 @@
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B379" t="s">
         <v>443</v>
@@ -6224,7 +6227,7 @@
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B380" t="s">
         <v>443</v>
@@ -6232,7 +6235,7 @@
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B381" t="s">
         <v>443</v>
@@ -6240,15 +6243,15 @@
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B382" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B383" t="s">
         <v>452</v>
@@ -6256,7 +6259,7 @@
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B384" t="s">
         <v>452</v>
@@ -6264,15 +6267,15 @@
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B385" t="s">
-        <v>43</v>
+        <v>452</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B386" t="s">
         <v>43</v>
@@ -6280,7 +6283,7 @@
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B387" t="s">
         <v>43</v>
@@ -6288,7 +6291,7 @@
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B388" t="s">
         <v>43</v>
@@ -6296,7 +6299,7 @@
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B389" t="s">
         <v>43</v>
@@ -6304,7 +6307,7 @@
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B390" t="s">
         <v>43</v>
@@ -6312,7 +6315,7 @@
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B391" t="s">
         <v>43</v>
@@ -6320,15 +6323,15 @@
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B392" t="s">
-        <v>463</v>
+        <v>43</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B393" t="s">
         <v>463</v>
@@ -6336,7 +6339,7 @@
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B394" t="s">
         <v>463</v>
@@ -6344,7 +6347,7 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B395" t="s">
         <v>463</v>
@@ -6352,23 +6355,23 @@
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B396" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B397" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B398" t="s">
         <v>470</v>
@@ -6376,7 +6379,7 @@
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B399" t="s">
         <v>470</v>
@@ -6384,7 +6387,7 @@
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B400" t="s">
         <v>470</v>
@@ -6392,7 +6395,7 @@
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B401" t="s">
         <v>470</v>
@@ -6400,7 +6403,7 @@
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B402" t="s">
         <v>470</v>
@@ -6408,15 +6411,15 @@
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B403" t="s">
-        <v>37</v>
+        <v>470</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B404" t="s">
         <v>37</v>
@@ -6424,15 +6427,15 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B405" t="s">
-        <v>479</v>
+        <v>37</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B406" t="s">
         <v>479</v>
@@ -6440,7 +6443,7 @@
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B407" t="s">
         <v>479</v>
@@ -6448,7 +6451,7 @@
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B408" t="s">
         <v>479</v>
@@ -6456,7 +6459,7 @@
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B409" t="s">
         <v>479</v>
@@ -6464,15 +6467,15 @@
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B410" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B411" t="s">
         <v>485</v>
@@ -6480,15 +6483,15 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B412" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B413" t="s">
         <v>488</v>
@@ -6496,7 +6499,7 @@
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B414" t="s">
         <v>488</v>
@@ -6504,15 +6507,15 @@
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B415" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B416" t="s">
         <v>492</v>
@@ -6520,15 +6523,15 @@
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B417" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B418" t="s">
         <v>495</v>
@@ -6536,7 +6539,7 @@
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B419" t="s">
         <v>495</v>
@@ -6544,15 +6547,15 @@
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B420" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B421" t="s">
         <v>499</v>
@@ -6560,7 +6563,7 @@
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B422" t="s">
         <v>499</v>
@@ -6568,7 +6571,7 @@
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B423" t="s">
         <v>499</v>
@@ -6576,15 +6579,15 @@
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B424" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B425" t="s">
         <v>504</v>
@@ -6592,15 +6595,15 @@
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B426" t="s">
-        <v>26</v>
+        <v>504</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B427" t="s">
         <v>26</v>
@@ -6608,15 +6611,15 @@
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B428" t="s">
-        <v>509</v>
+        <v>26</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B429" t="s">
         <v>509</v>
@@ -6624,15 +6627,15 @@
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B430" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B431" t="s">
         <v>512</v>
@@ -6640,7 +6643,7 @@
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B432" t="s">
         <v>512</v>
@@ -6648,15 +6651,15 @@
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B433" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B434" t="s">
         <v>516</v>
@@ -6664,15 +6667,15 @@
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B435" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B436" t="s">
         <v>519</v>
@@ -6680,7 +6683,7 @@
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B437" t="s">
         <v>519</v>
@@ -6688,15 +6691,15 @@
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B438" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B439" t="s">
         <v>523</v>
@@ -6704,7 +6707,7 @@
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B440" t="s">
         <v>523</v>
@@ -6712,7 +6715,7 @@
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B441" t="s">
         <v>523</v>
@@ -6720,15 +6723,15 @@
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B442" t="s">
-        <v>17</v>
+        <v>523</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B443" t="s">
         <v>17</v>
@@ -6736,7 +6739,7 @@
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B444" t="s">
         <v>17</v>
@@ -6744,7 +6747,7 @@
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B445" t="s">
         <v>17</v>
@@ -6752,31 +6755,31 @@
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B446" t="s">
-        <v>532</v>
+        <v>17</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B447" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B448" t="s">
-        <v>495</v>
+        <v>534</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B449" t="s">
         <v>495</v>
@@ -6784,7 +6787,7 @@
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B450" t="s">
         <v>495</v>
@@ -6792,15 +6795,15 @@
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B451" t="s">
-        <v>539</v>
+        <v>495</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B452" t="s">
         <v>539</v>
@@ -6808,7 +6811,7 @@
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B453" t="s">
         <v>539</v>
@@ -6816,23 +6819,23 @@
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B454" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B455" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B456" t="s">
         <v>545</v>
@@ -6840,7 +6843,7 @@
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B457" t="s">
         <v>545</v>
@@ -6848,7 +6851,7 @@
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B458" t="s">
         <v>545</v>
@@ -6856,15 +6859,15 @@
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B459" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B460" t="s">
         <v>550</v>
@@ -6872,7 +6875,7 @@
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B461" t="s">
         <v>550</v>
@@ -6880,7 +6883,7 @@
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B462" t="s">
         <v>550</v>
@@ -6888,7 +6891,7 @@
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B463" t="s">
         <v>550</v>
@@ -6896,7 +6899,7 @@
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B464" t="s">
         <v>550</v>
@@ -6904,7 +6907,7 @@
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B465" t="s">
         <v>550</v>
@@ -6912,15 +6915,15 @@
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B466" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B467" t="s">
         <v>558</v>
@@ -6928,7 +6931,7 @@
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B468" t="s">
         <v>558</v>
@@ -6936,7 +6939,7 @@
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B469" t="s">
         <v>558</v>
@@ -6944,15 +6947,15 @@
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B470" t="s">
-        <v>16</v>
+        <v>558</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B471" t="s">
         <v>16</v>
@@ -6960,15 +6963,15 @@
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B472" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B473" t="s">
         <v>3</v>
@@ -6976,15 +6979,15 @@
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B474" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B475" t="s">
         <v>64</v>
@@ -6992,7 +6995,7 @@
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B476" t="s">
         <v>64</v>
@@ -7000,15 +7003,15 @@
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B477" t="s">
-        <v>570</v>
+        <v>64</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B478" t="s">
         <v>570</v>
@@ -7016,23 +7019,23 @@
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B479" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B480" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B481" t="s">
         <v>575</v>
@@ -7040,7 +7043,7 @@
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B482" t="s">
         <v>575</v>
@@ -7048,15 +7051,15 @@
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B483" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B484" t="s">
         <v>579</v>
@@ -7064,7 +7067,7 @@
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B485" t="s">
         <v>579</v>
@@ -7072,7 +7075,7 @@
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B486" t="s">
         <v>579</v>
@@ -7080,15 +7083,15 @@
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B487" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B488" t="s">
         <v>584</v>
@@ -7096,23 +7099,23 @@
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B489" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B490" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B491" t="s">
         <v>589</v>
@@ -7120,7 +7123,7 @@
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B492" t="s">
         <v>589</v>
@@ -7128,7 +7131,7 @@
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B493" t="s">
         <v>589</v>
@@ -7136,7 +7139,7 @@
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B494" t="s">
         <v>589</v>
@@ -7144,7 +7147,7 @@
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B495" t="s">
         <v>589</v>
@@ -7152,15 +7155,15 @@
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B496" t="s">
-        <v>45</v>
+        <v>589</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B497" t="s">
         <v>45</v>
@@ -7168,7 +7171,7 @@
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B498" t="s">
         <v>45</v>
@@ -7176,15 +7179,15 @@
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B499" t="s">
-        <v>599</v>
+        <v>45</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B500" t="s">
         <v>599</v>
@@ -7192,15 +7195,15 @@
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B501" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B502" t="s">
         <v>602</v>
@@ -7208,7 +7211,7 @@
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B503" t="s">
         <v>602</v>
@@ -7216,7 +7219,7 @@
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B504" t="s">
         <v>602</v>
@@ -7224,7 +7227,7 @@
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B505" t="s">
         <v>602</v>
@@ -7232,7 +7235,7 @@
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B506" t="s">
         <v>602</v>
@@ -7240,7 +7243,7 @@
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B507" t="s">
         <v>602</v>
@@ -7248,15 +7251,15 @@
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B508" t="s">
-        <v>13</v>
+        <v>602</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B509" t="s">
         <v>13</v>
@@ -7264,15 +7267,15 @@
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B510" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B511" t="s">
         <v>67</v>
@@ -7280,15 +7283,15 @@
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B512" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B513" t="s">
         <v>46</v>
@@ -7296,7 +7299,7 @@
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B514" t="s">
         <v>46</v>
@@ -7304,15 +7307,15 @@
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B515" t="s">
-        <v>617</v>
+        <v>46</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B516" t="s">
         <v>617</v>
@@ -7320,15 +7323,15 @@
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B517" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B518" t="s">
         <v>620</v>
@@ -7336,15 +7339,15 @@
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B519" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B520" t="s">
         <v>623</v>
@@ -7352,7 +7355,7 @@
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B521" t="s">
         <v>623</v>
@@ -7360,23 +7363,23 @@
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B522" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B523" t="s">
-        <v>11</v>
+        <v>627</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B524" t="s">
         <v>11</v>
@@ -7384,15 +7387,15 @@
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B525" t="s">
-        <v>631</v>
+        <v>11</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B526" t="s">
         <v>631</v>
@@ -7400,15 +7403,15 @@
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B527" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B528" t="s">
         <v>634</v>
@@ -7416,7 +7419,7 @@
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B529" t="s">
         <v>634</v>
@@ -7424,15 +7427,15 @@
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B530" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B531" t="s">
         <v>638</v>
@@ -7440,7 +7443,7 @@
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B532" t="s">
         <v>638</v>
@@ -7448,31 +7451,31 @@
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B533" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B534" t="s">
-        <v>40</v>
+        <v>642</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B535" t="s">
-        <v>645</v>
+        <v>40</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B536" t="s">
         <v>645</v>
@@ -7480,7 +7483,7 @@
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B537" t="s">
         <v>645</v>
@@ -7488,15 +7491,15 @@
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B538" t="s">
-        <v>19</v>
+        <v>645</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B539" t="s">
         <v>19</v>
@@ -7504,7 +7507,7 @@
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B540" t="s">
         <v>19</v>
@@ -7512,7 +7515,7 @@
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B541" t="s">
         <v>19</v>
@@ -7520,7 +7523,7 @@
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B542" t="s">
         <v>19</v>
@@ -7528,23 +7531,23 @@
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B543" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B544" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B545" t="s">
         <v>23</v>
@@ -7552,7 +7555,7 @@
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B546" t="s">
         <v>23</v>
@@ -7560,15 +7563,15 @@
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B547" t="s">
-        <v>658</v>
+        <v>23</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B548" t="s">
         <v>658</v>
@@ -7576,15 +7579,15 @@
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B549" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B550" t="s">
         <v>661</v>
@@ -7592,7 +7595,7 @@
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B551" t="s">
         <v>661</v>
@@ -7600,39 +7603,39 @@
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B552" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B553" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B554" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B555" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B556" t="s">
         <v>671</v>
@@ -7640,7 +7643,7 @@
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B557" t="s">
         <v>671</v>
@@ -7648,15 +7651,15 @@
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B558" t="s">
-        <v>39</v>
+        <v>671</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B559" t="s">
         <v>39</v>
@@ -7664,7 +7667,7 @@
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B560" t="s">
         <v>39</v>
@@ -7672,7 +7675,7 @@
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B561" t="s">
         <v>39</v>
@@ -7680,15 +7683,15 @@
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B562" t="s">
-        <v>679</v>
+        <v>39</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B563" t="s">
         <v>679</v>
@@ -7696,7 +7699,7 @@
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B564" t="s">
         <v>679</v>
@@ -7704,7 +7707,7 @@
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B565" t="s">
         <v>679</v>
@@ -7712,7 +7715,7 @@
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B566" t="s">
         <v>679</v>
@@ -7720,23 +7723,23 @@
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B567" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B568" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B569" t="s">
         <v>687</v>
@@ -7744,7 +7747,7 @@
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B570" t="s">
         <v>687</v>
@@ -7752,15 +7755,15 @@
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B571" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B572" t="s">
         <v>691</v>
@@ -7768,39 +7771,39 @@
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B573" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B574" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B575" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B576" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B577" t="s">
         <v>700</v>
@@ -7808,23 +7811,23 @@
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B578" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B579" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B580" t="s">
         <v>705</v>
@@ -7832,15 +7835,15 @@
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B581" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B582" t="s">
         <v>708</v>
@@ -7848,15 +7851,15 @@
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B583" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B584" t="s">
         <v>711</v>
@@ -7864,15 +7867,15 @@
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B585" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B586" t="s">
         <v>714</v>
@@ -7880,7 +7883,7 @@
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B587" t="s">
         <v>714</v>
@@ -7888,7 +7891,7 @@
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B588" t="s">
         <v>714</v>
@@ -7896,7 +7899,7 @@
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B589" t="s">
         <v>714</v>
@@ -7904,15 +7907,15 @@
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B590" t="s">
-        <v>32</v>
+        <v>714</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B591" t="s">
         <v>32</v>
@@ -7920,23 +7923,23 @@
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B592" t="s">
-        <v>722</v>
+        <v>32</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B593" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B594" t="s">
         <v>724</v>
@@ -7944,23 +7947,23 @@
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B595" t="s">
-        <v>206</v>
+        <v>724</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B596" t="s">
-        <v>728</v>
+        <v>206</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B597" t="s">
         <v>728</v>
@@ -7968,7 +7971,7 @@
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B598" t="s">
         <v>728</v>
@@ -7976,15 +7979,15 @@
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B599" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B600" t="s">
         <v>732</v>
@@ -7992,15 +7995,15 @@
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B601" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B602" t="s">
         <v>735</v>
@@ -8008,7 +8011,7 @@
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B603" t="s">
         <v>735</v>
@@ -8016,7 +8019,7 @@
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B604" t="s">
         <v>735</v>
@@ -8024,7 +8027,7 @@
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B605" t="s">
         <v>735</v>
@@ -8032,15 +8035,15 @@
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B606" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B607" t="s">
         <v>741</v>
@@ -8048,7 +8051,7 @@
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B608" t="s">
         <v>741</v>
@@ -8056,7 +8059,7 @@
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B609" t="s">
         <v>741</v>
@@ -8064,15 +8067,15 @@
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B610" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B611" t="s">
         <v>746</v>
@@ -8080,15 +8083,15 @@
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B612" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B613" t="s">
         <v>749</v>
@@ -8096,7 +8099,7 @@
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B614" t="s">
         <v>749</v>
@@ -8104,7 +8107,7 @@
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B615" t="s">
         <v>749</v>
@@ -8112,15 +8115,15 @@
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B616" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B617" t="s">
         <v>754</v>
@@ -8128,7 +8131,7 @@
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B618" t="s">
         <v>754</v>
@@ -8136,7 +8139,7 @@
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B619" t="s">
         <v>754</v>
@@ -8144,7 +8147,7 @@
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B620" t="s">
         <v>754</v>
@@ -8152,7 +8155,7 @@
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B621" t="s">
         <v>754</v>
@@ -8160,7 +8163,7 @@
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B622" t="s">
         <v>754</v>
@@ -8168,15 +8171,15 @@
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B623" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B624" t="s">
         <v>762</v>
@@ -8184,47 +8187,47 @@
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B625" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B626" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B627" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B628" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B629" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B630" t="s">
         <v>773</v>
@@ -8232,23 +8235,23 @@
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B631" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B632" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B633" t="s">
         <v>778</v>
@@ -8256,23 +8259,23 @@
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B634" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B635" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B636" t="s">
         <v>783</v>
@@ -8280,23 +8283,23 @@
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B637" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B638" t="s">
-        <v>34</v>
+        <v>786</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B639" t="s">
         <v>34</v>
@@ -8304,7 +8307,7 @@
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B640" t="s">
         <v>34</v>
@@ -8312,7 +8315,7 @@
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B641" t="s">
         <v>34</v>
@@ -8320,7 +8323,7 @@
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B642" t="s">
         <v>34</v>
@@ -8328,23 +8331,23 @@
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B643" t="s">
-        <v>793</v>
+        <v>34</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B644" t="s">
-        <v>7</v>
+        <v>793</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B645" t="s">
         <v>7</v>
@@ -8352,7 +8355,7 @@
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B646" t="s">
         <v>7</v>
@@ -8360,31 +8363,31 @@
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
-        <v>609</v>
+        <v>796</v>
       </c>
       <c r="B647" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
-        <v>797</v>
+        <v>609</v>
       </c>
       <c r="B648" t="s">
-        <v>703</v>
+        <v>13</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B649" t="s">
-        <v>799</v>
+        <v>703</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B650" t="s">
         <v>799</v>
@@ -8392,7 +8395,7 @@
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B651" t="s">
         <v>799</v>
@@ -8400,39 +8403,39 @@
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B652" t="s">
-        <v>271</v>
+        <v>799</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B653" t="s">
-        <v>804</v>
+        <v>271</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B654" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B655" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B656" t="s">
         <v>808</v>
@@ -8440,15 +8443,15 @@
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B657" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B658" t="s">
         <v>811</v>
@@ -8456,31 +8459,31 @@
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B659" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B660" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B661" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B662" t="s">
         <v>818</v>
@@ -8488,335 +8491,335 @@
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B663" t="s">
-        <v>519</v>
+        <v>818</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B664" t="s">
-        <v>822</v>
+        <v>519</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B665" t="s">
-        <v>35</v>
+        <v>822</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B666" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B667" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B668" t="s">
-        <v>81</v>
+        <v>3</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B669" t="s">
-        <v>708</v>
+        <v>81</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B670" t="s">
-        <v>523</v>
+        <v>708</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B671" t="s">
-        <v>44</v>
+        <v>523</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B672" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B673" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B674" t="s">
-        <v>140</v>
+        <v>72</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B675" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B676" t="s">
-        <v>698</v>
+        <v>179</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B677" t="s">
-        <v>374</v>
+        <v>698</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B678" t="s">
-        <v>190</v>
+        <v>374</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B679" t="s">
-        <v>575</v>
+        <v>190</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B680" t="s">
-        <v>543</v>
+        <v>575</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B681" t="s">
-        <v>452</v>
+        <v>543</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B682" t="s">
-        <v>509</v>
+        <v>452</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B683" t="s">
-        <v>599</v>
+        <v>509</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B684" t="s">
-        <v>49</v>
+        <v>599</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B685" t="s">
-        <v>844</v>
+        <v>49</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B686" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B687" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B688" t="s">
-        <v>13</v>
+        <v>844</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B689" t="s">
-        <v>844</v>
+        <v>13</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B690" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B691" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B692" t="s">
-        <v>728</v>
+        <v>844</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B693" t="s">
-        <v>691</v>
+        <v>728</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B694" t="s">
-        <v>209</v>
+        <v>691</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B695" t="s">
-        <v>856</v>
+        <v>209</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B696" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B697" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B698" t="s">
-        <v>69</v>
+        <v>860</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
-        <v>755</v>
+        <v>861</v>
       </c>
       <c r="B699" t="s">
-        <v>754</v>
+        <v>69</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
-        <v>862</v>
+        <v>755</v>
       </c>
       <c r="B700" t="s">
-        <v>45</v>
+        <v>754</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B701" t="s">
-        <v>864</v>
+        <v>45</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B702" t="s">
-        <v>617</v>
+        <v>864</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B703" t="s">
-        <v>51</v>
+        <v>617</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B704" t="s">
         <v>51</v>
@@ -8824,23 +8827,23 @@
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B705" t="s">
-        <v>869</v>
+        <v>51</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B706" t="s">
-        <v>864</v>
+        <v>869</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B707" t="s">
         <v>864</v>
@@ -8848,63 +8851,63 @@
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B708" t="s">
-        <v>732</v>
+        <v>864</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B709" t="s">
-        <v>69</v>
+        <v>732</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B710" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B711" t="s">
-        <v>876</v>
+        <v>3</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B712" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B713" t="s">
-        <v>818</v>
+        <v>878</v>
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B714" t="s">
-        <v>881</v>
+        <v>818</v>
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B715" t="s">
         <v>881</v>
@@ -8912,71 +8915,71 @@
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B716" t="s">
-        <v>749</v>
+        <v>881</v>
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B717" t="s">
-        <v>856</v>
+        <v>749</v>
       </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B718" t="s">
-        <v>844</v>
+        <v>856</v>
       </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B719" t="s">
-        <v>76</v>
+        <v>844</v>
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B720" t="s">
-        <v>888</v>
+        <v>76</v>
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B721" t="s">
-        <v>869</v>
+        <v>888</v>
       </c>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B722" t="s">
-        <v>51</v>
+        <v>869</v>
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B723" t="s">
-        <v>881</v>
+        <v>51</v>
       </c>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B724" t="s">
         <v>881</v>
@@ -8984,143 +8987,143 @@
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B725" t="s">
-        <v>844</v>
+        <v>881</v>
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B726" t="s">
-        <v>69</v>
+        <v>844</v>
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B727" t="s">
-        <v>881</v>
+        <v>69</v>
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B728" t="s">
-        <v>57</v>
+        <v>881</v>
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B729" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B730" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B731" t="s">
-        <v>864</v>
+        <v>51</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B732" t="s">
-        <v>69</v>
+        <v>864</v>
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B733" t="s">
-        <v>479</v>
+        <v>69</v>
       </c>
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B734" t="s">
-        <v>864</v>
+        <v>479</v>
       </c>
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B735" t="s">
-        <v>881</v>
+        <v>864</v>
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A736" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B736" t="s">
-        <v>115</v>
+        <v>881</v>
       </c>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A737" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B737" t="s">
-        <v>728</v>
+        <v>115</v>
       </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A738" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B738" t="s">
-        <v>190</v>
+        <v>728</v>
       </c>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B739" t="s">
-        <v>51</v>
+        <v>190</v>
       </c>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B740" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B741" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B742" t="s">
         <v>57</v>
@@ -9128,39 +9131,39 @@
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B743" t="s">
-        <v>844</v>
+        <v>57</v>
       </c>
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B744" t="s">
-        <v>153</v>
+        <v>844</v>
       </c>
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B745" t="s">
-        <v>914</v>
+        <v>153</v>
       </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B746" t="s">
-        <v>881</v>
+        <v>914</v>
       </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B747" t="s">
         <v>881</v>
@@ -9168,63 +9171,63 @@
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B748" t="s">
-        <v>811</v>
+        <v>881</v>
       </c>
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B749" t="s">
-        <v>846</v>
+        <v>811</v>
       </c>
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A750" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B750" t="s">
-        <v>64</v>
+        <v>846</v>
       </c>
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B751" t="s">
-        <v>728</v>
+        <v>64</v>
       </c>
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A752" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B752" t="s">
-        <v>34</v>
+        <v>728</v>
       </c>
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B753" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
-        <v>587</v>
+        <v>922</v>
       </c>
       <c r="B754" t="s">
-        <v>587</v>
+        <v>71</v>
       </c>
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
-        <v>923</v>
+        <v>587</v>
       </c>
       <c r="B755" t="s">
         <v>587</v>
@@ -9232,33 +9235,41 @@
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B756" t="s">
-        <v>925</v>
+        <v>587</v>
       </c>
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B757" t="s">
-        <v>185</v>
+        <v>925</v>
       </c>
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B758" t="s">
-        <v>54</v>
+        <v>185</v>
       </c>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
+        <v>927</v>
+      </c>
+      <c r="B759" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A760" t="s">
         <v>928</v>
       </c>
-      <c r="B759" t="s">
+      <c r="B760" t="s">
         <v>42</v>
       </c>
     </row>

--- a/data/interim/crosswalk.xlsx
+++ b/data/interim/crosswalk.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/LocalWork/DataVisualizations/asbestos-dashboard/asbestos-dashboard-data/data/interim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086ECDFC-6283-F544-84FC-4304C26D51A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2AA1B6-FD48-5E4E-B313-D93D1E92C924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="930">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="931">
   <si>
     <t>facility_name</t>
   </si>
@@ -2810,6 +2810,9 @@
   </si>
   <si>
     <t>PSD Cassidy Elementary School</t>
+  </si>
+  <si>
+    <t>MAYFAIR ELEMENTARY SCHOOL</t>
   </si>
 </sst>
 </file>
@@ -3181,10 +3184,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B760"/>
+  <dimension ref="A1:B761"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A157" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B174" sqref="B174"/>
+      <selection activeCell="A170" sqref="A170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4547,7 +4550,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>200</v>
+        <v>930</v>
       </c>
       <c r="B170" t="s">
         <v>199</v>
@@ -4555,15 +4558,15 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B171" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B172" t="s">
         <v>202</v>
@@ -4571,7 +4574,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B173" t="s">
         <v>202</v>
@@ -4579,7 +4582,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>929</v>
+        <v>204</v>
       </c>
       <c r="B174" t="s">
         <v>202</v>
@@ -4587,15 +4590,15 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>205</v>
+        <v>929</v>
       </c>
       <c r="B175" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B176" t="s">
         <v>206</v>
@@ -4603,15 +4606,15 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B177" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B178" t="s">
         <v>209</v>
@@ -4619,7 +4622,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B179" t="s">
         <v>209</v>
@@ -4627,15 +4630,15 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B180" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B181" t="s">
         <v>213</v>
@@ -4643,7 +4646,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B182" t="s">
         <v>213</v>
@@ -4651,7 +4654,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B183" t="s">
         <v>213</v>
@@ -4659,7 +4662,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B184" t="s">
         <v>213</v>
@@ -4667,7 +4670,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B185" t="s">
         <v>213</v>
@@ -4675,15 +4678,15 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B186" t="s">
-        <v>5</v>
+        <v>213</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B187" t="s">
         <v>5</v>
@@ -4691,7 +4694,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B188" t="s">
         <v>5</v>
@@ -4699,15 +4702,15 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B189" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B190" t="s">
         <v>30</v>
@@ -4715,7 +4718,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B191" t="s">
         <v>30</v>
@@ -4723,7 +4726,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B192" t="s">
         <v>30</v>
@@ -4731,7 +4734,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B193" t="s">
         <v>30</v>
@@ -4739,15 +4742,15 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B194" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B195" t="s">
         <v>49</v>
@@ -4755,15 +4758,15 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B196" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B197" t="s">
         <v>24</v>
@@ -4771,15 +4774,15 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B198" t="s">
-        <v>232</v>
+        <v>24</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B199" t="s">
         <v>232</v>
@@ -4787,7 +4790,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B200" t="s">
         <v>232</v>
@@ -4795,7 +4798,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B201" t="s">
         <v>232</v>
@@ -4803,7 +4806,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B202" t="s">
         <v>232</v>
@@ -4811,7 +4814,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B203" t="s">
         <v>232</v>
@@ -4819,15 +4822,15 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B204" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B205" t="s">
         <v>239</v>
@@ -4835,15 +4838,15 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B206" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B207" t="s">
         <v>242</v>
@@ -4851,15 +4854,15 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B208" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B209" t="s">
         <v>245</v>
@@ -4867,7 +4870,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B210" t="s">
         <v>245</v>
@@ -4875,7 +4878,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B211" t="s">
         <v>245</v>
@@ -4883,15 +4886,15 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B212" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B213" t="s">
         <v>250</v>
@@ -4899,7 +4902,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B214" t="s">
         <v>250</v>
@@ -4907,7 +4910,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B215" t="s">
         <v>250</v>
@@ -4915,7 +4918,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B216" t="s">
         <v>250</v>
@@ -4923,7 +4926,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B217" t="s">
         <v>250</v>
@@ -4931,15 +4934,15 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B218" t="s">
-        <v>2</v>
+        <v>250</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B219" t="s">
         <v>2</v>
@@ -4947,7 +4950,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B220" t="s">
         <v>2</v>
@@ -4955,7 +4958,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B221" t="s">
         <v>2</v>
@@ -4963,7 +4966,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B222" t="s">
         <v>2</v>
@@ -4971,15 +4974,15 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B223" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B224" t="s">
         <v>14</v>
@@ -4987,7 +4990,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B225" t="s">
         <v>14</v>
@@ -4995,7 +4998,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B226" t="s">
         <v>14</v>
@@ -5003,7 +5006,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B227" t="s">
         <v>14</v>
@@ -5011,15 +5014,15 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B228" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B229" t="s">
         <v>70</v>
@@ -5027,7 +5030,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B230" t="s">
         <v>70</v>
@@ -5035,7 +5038,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B231" t="s">
         <v>70</v>
@@ -5043,15 +5046,15 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B232" t="s">
-        <v>271</v>
+        <v>70</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B233" t="s">
         <v>271</v>
@@ -5059,7 +5062,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B234" t="s">
         <v>271</v>
@@ -5067,7 +5070,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B235" t="s">
         <v>271</v>
@@ -5075,7 +5078,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B236" t="s">
         <v>271</v>
@@ -5083,15 +5086,15 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B237" t="s">
-        <v>15</v>
+        <v>271</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B238" t="s">
         <v>15</v>
@@ -5099,7 +5102,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B239" t="s">
         <v>15</v>
@@ -5107,7 +5110,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B240" t="s">
         <v>15</v>
@@ -5115,15 +5118,15 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B241" t="s">
-        <v>281</v>
+        <v>15</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B242" t="s">
         <v>281</v>
@@ -5131,7 +5134,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B243" t="s">
         <v>281</v>
@@ -5139,15 +5142,15 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B244" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B245" t="s">
         <v>285</v>
@@ -5155,7 +5158,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B246" t="s">
         <v>285</v>
@@ -5163,15 +5166,15 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B247" t="s">
-        <v>48</v>
+        <v>285</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B248" t="s">
         <v>48</v>
@@ -5179,7 +5182,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B249" t="s">
         <v>48</v>
@@ -5187,15 +5190,15 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B250" t="s">
-        <v>292</v>
+        <v>48</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B251" t="s">
         <v>292</v>
@@ -5203,7 +5206,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B252" t="s">
         <v>292</v>
@@ -5211,7 +5214,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B253" t="s">
         <v>292</v>
@@ -5219,7 +5222,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B254" t="s">
         <v>292</v>
@@ -5227,7 +5230,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B255" t="s">
         <v>292</v>
@@ -5235,7 +5238,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B256" t="s">
         <v>292</v>
@@ -5243,7 +5246,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B257" t="s">
         <v>292</v>
@@ -5251,7 +5254,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B258" t="s">
         <v>292</v>
@@ -5259,7 +5262,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B259" t="s">
         <v>292</v>
@@ -5267,7 +5270,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B260" t="s">
         <v>292</v>
@@ -5275,7 +5278,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B261" t="s">
         <v>292</v>
@@ -5283,7 +5286,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B262" t="s">
         <v>292</v>
@@ -5291,15 +5294,15 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B263" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B264" t="s">
         <v>306</v>
@@ -5307,15 +5310,15 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B265" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B266" t="s">
         <v>309</v>
@@ -5323,7 +5326,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B267" t="s">
         <v>309</v>
@@ -5331,7 +5334,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B268" t="s">
         <v>309</v>
@@ -5339,7 +5342,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B269" t="s">
         <v>309</v>
@@ -5347,7 +5350,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B270" t="s">
         <v>309</v>
@@ -5355,23 +5358,23 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B271" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B272" t="s">
-        <v>29</v>
+        <v>316</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B273" t="s">
         <v>29</v>
@@ -5379,7 +5382,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B274" t="s">
         <v>29</v>
@@ -5387,7 +5390,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B275" t="s">
         <v>29</v>
@@ -5395,7 +5398,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B276" t="s">
         <v>29</v>
@@ -5403,7 +5406,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B277" t="s">
         <v>29</v>
@@ -5411,7 +5414,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B278" t="s">
         <v>29</v>
@@ -5419,23 +5422,23 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B279" t="s">
-        <v>325</v>
+        <v>29</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B280" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B281" t="s">
         <v>327</v>
@@ -5443,7 +5446,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B282" t="s">
         <v>327</v>
@@ -5451,15 +5454,15 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B283" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B284" t="s">
         <v>331</v>
@@ -5467,15 +5470,15 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B285" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B286" t="s">
         <v>334</v>
@@ -5483,7 +5486,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B287" t="s">
         <v>334</v>
@@ -5491,7 +5494,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B288" t="s">
         <v>334</v>
@@ -5499,7 +5502,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B289" t="s">
         <v>334</v>
@@ -5507,7 +5510,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B290" t="s">
         <v>334</v>
@@ -5515,15 +5518,15 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B291" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B292" t="s">
         <v>341</v>
@@ -5531,15 +5534,15 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B293" t="s">
-        <v>61</v>
+        <v>341</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B294" t="s">
         <v>61</v>
@@ -5547,7 +5550,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B295" t="s">
         <v>61</v>
@@ -5555,31 +5558,31 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B296" t="s">
-        <v>347</v>
+        <v>61</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B297" t="s">
-        <v>44</v>
+        <v>347</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B298" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B299" t="s">
         <v>72</v>
@@ -5587,15 +5590,15 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B300" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B301" t="s">
         <v>10</v>
@@ -5603,7 +5606,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B302" t="s">
         <v>10</v>
@@ -5611,7 +5614,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B303" t="s">
         <v>10</v>
@@ -5619,15 +5622,15 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B304" t="s">
-        <v>356</v>
+        <v>10</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B305" t="s">
         <v>356</v>
@@ -5635,23 +5638,23 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B306" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B307" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B308" t="s">
         <v>361</v>
@@ -5659,7 +5662,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B309" t="s">
         <v>361</v>
@@ -5667,7 +5670,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B310" t="s">
         <v>361</v>
@@ -5675,15 +5678,15 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B311" t="s">
-        <v>68</v>
+        <v>361</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B312" t="s">
         <v>68</v>
@@ -5691,7 +5694,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B313" t="s">
         <v>68</v>
@@ -5699,7 +5702,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B314" t="s">
         <v>68</v>
@@ -5707,15 +5710,15 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B315" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B316" t="s">
         <v>55</v>
@@ -5723,7 +5726,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B317" t="s">
         <v>55</v>
@@ -5731,7 +5734,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B318" t="s">
         <v>55</v>
@@ -5739,15 +5742,15 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B319" t="s">
-        <v>374</v>
+        <v>55</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B320" t="s">
         <v>374</v>
@@ -5755,7 +5758,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B321" t="s">
         <v>374</v>
@@ -5763,15 +5766,15 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B322" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B323" t="s">
         <v>378</v>
@@ -5779,15 +5782,15 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B324" t="s">
-        <v>35</v>
+        <v>378</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B325" t="s">
         <v>35</v>
@@ -5795,7 +5798,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B326" t="s">
         <v>35</v>
@@ -5803,7 +5806,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B327" t="s">
         <v>35</v>
@@ -5811,7 +5814,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B328" t="s">
         <v>35</v>
@@ -5819,15 +5822,15 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B329" t="s">
-        <v>386</v>
+        <v>35</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B330" t="s">
         <v>386</v>
@@ -5835,7 +5838,7 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B331" t="s">
         <v>386</v>
@@ -5843,7 +5846,7 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B332" t="s">
         <v>386</v>
@@ -5851,15 +5854,15 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B333" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B334" t="s">
         <v>391</v>
@@ -5867,15 +5870,15 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B335" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B336" t="s">
         <v>394</v>
@@ -5883,15 +5886,15 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B337" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B338" t="s">
         <v>397</v>
@@ -5899,7 +5902,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B339" t="s">
         <v>397</v>
@@ -5907,15 +5910,15 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B340" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B341" t="s">
         <v>401</v>
@@ -5923,7 +5926,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B342" t="s">
         <v>401</v>
@@ -5931,7 +5934,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B343" t="s">
         <v>401</v>
@@ -5939,7 +5942,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B344" t="s">
         <v>401</v>
@@ -5947,7 +5950,7 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B345" t="s">
         <v>401</v>
@@ -5955,15 +5958,15 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B346" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B347" t="s">
         <v>408</v>
@@ -5971,7 +5974,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B348" t="s">
         <v>408</v>
@@ -5979,7 +5982,7 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B349" t="s">
         <v>408</v>
@@ -5987,15 +5990,15 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B350" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B351" t="s">
         <v>413</v>
@@ -6003,7 +6006,7 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B352" t="s">
         <v>413</v>
@@ -6011,7 +6014,7 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B353" t="s">
         <v>413</v>
@@ -6019,15 +6022,15 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B354" t="s">
-        <v>66</v>
+        <v>413</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B355" t="s">
         <v>66</v>
@@ -6035,7 +6038,7 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B356" t="s">
         <v>66</v>
@@ -6043,7 +6046,7 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B357" t="s">
         <v>66</v>
@@ -6051,7 +6054,7 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B358" t="s">
         <v>66</v>
@@ -6059,7 +6062,7 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B359" t="s">
         <v>66</v>
@@ -6067,7 +6070,7 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B360" t="s">
         <v>66</v>
@@ -6075,15 +6078,15 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B361" t="s">
-        <v>425</v>
+        <v>66</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B362" t="s">
         <v>425</v>
@@ -6091,7 +6094,7 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B363" t="s">
         <v>425</v>
@@ -6099,15 +6102,15 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B364" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B365" t="s">
         <v>429</v>
@@ -6115,7 +6118,7 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B366" t="s">
         <v>429</v>
@@ -6123,15 +6126,15 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B367" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B368" t="s">
         <v>433</v>
@@ -6139,7 +6142,7 @@
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B369" t="s">
         <v>433</v>
@@ -6147,7 +6150,7 @@
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B370" t="s">
         <v>433</v>
@@ -6155,15 +6158,15 @@
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B371" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B372" t="s">
         <v>438</v>
@@ -6171,7 +6174,7 @@
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B373" t="s">
         <v>438</v>
@@ -6179,7 +6182,7 @@
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B374" t="s">
         <v>438</v>
@@ -6187,15 +6190,15 @@
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B375" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B376" t="s">
         <v>443</v>
@@ -6203,7 +6206,7 @@
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B377" t="s">
         <v>443</v>
@@ -6211,7 +6214,7 @@
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B378" t="s">
         <v>443</v>
@@ -6219,7 +6222,7 @@
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B379" t="s">
         <v>443</v>
@@ -6227,7 +6230,7 @@
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B380" t="s">
         <v>443</v>
@@ -6235,7 +6238,7 @@
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B381" t="s">
         <v>443</v>
@@ -6243,7 +6246,7 @@
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B382" t="s">
         <v>443</v>
@@ -6251,15 +6254,15 @@
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B383" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B384" t="s">
         <v>452</v>
@@ -6267,7 +6270,7 @@
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B385" t="s">
         <v>452</v>
@@ -6275,15 +6278,15 @@
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B386" t="s">
-        <v>43</v>
+        <v>452</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B387" t="s">
         <v>43</v>
@@ -6291,7 +6294,7 @@
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B388" t="s">
         <v>43</v>
@@ -6299,7 +6302,7 @@
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B389" t="s">
         <v>43</v>
@@ -6307,7 +6310,7 @@
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B390" t="s">
         <v>43</v>
@@ -6315,7 +6318,7 @@
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B391" t="s">
         <v>43</v>
@@ -6323,7 +6326,7 @@
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B392" t="s">
         <v>43</v>
@@ -6331,15 +6334,15 @@
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B393" t="s">
-        <v>463</v>
+        <v>43</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B394" t="s">
         <v>463</v>
@@ -6347,7 +6350,7 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B395" t="s">
         <v>463</v>
@@ -6355,7 +6358,7 @@
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B396" t="s">
         <v>463</v>
@@ -6363,23 +6366,23 @@
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B397" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B398" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B399" t="s">
         <v>470</v>
@@ -6387,7 +6390,7 @@
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B400" t="s">
         <v>470</v>
@@ -6395,7 +6398,7 @@
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B401" t="s">
         <v>470</v>
@@ -6403,7 +6406,7 @@
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B402" t="s">
         <v>470</v>
@@ -6411,7 +6414,7 @@
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B403" t="s">
         <v>470</v>
@@ -6419,15 +6422,15 @@
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B404" t="s">
-        <v>37</v>
+        <v>470</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B405" t="s">
         <v>37</v>
@@ -6435,15 +6438,15 @@
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B406" t="s">
-        <v>479</v>
+        <v>37</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B407" t="s">
         <v>479</v>
@@ -6451,7 +6454,7 @@
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B408" t="s">
         <v>479</v>
@@ -6459,7 +6462,7 @@
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B409" t="s">
         <v>479</v>
@@ -6467,7 +6470,7 @@
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B410" t="s">
         <v>479</v>
@@ -6475,15 +6478,15 @@
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B411" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B412" t="s">
         <v>485</v>
@@ -6491,15 +6494,15 @@
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B413" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B414" t="s">
         <v>488</v>
@@ -6507,7 +6510,7 @@
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B415" t="s">
         <v>488</v>
@@ -6515,15 +6518,15 @@
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B416" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B417" t="s">
         <v>492</v>
@@ -6531,15 +6534,15 @@
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B418" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B419" t="s">
         <v>495</v>
@@ -6547,7 +6550,7 @@
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B420" t="s">
         <v>495</v>
@@ -6555,15 +6558,15 @@
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B421" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B422" t="s">
         <v>499</v>
@@ -6571,7 +6574,7 @@
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B423" t="s">
         <v>499</v>
@@ -6579,7 +6582,7 @@
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B424" t="s">
         <v>499</v>
@@ -6587,15 +6590,15 @@
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B425" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B426" t="s">
         <v>504</v>
@@ -6603,15 +6606,15 @@
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B427" t="s">
-        <v>26</v>
+        <v>504</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B428" t="s">
         <v>26</v>
@@ -6619,15 +6622,15 @@
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B429" t="s">
-        <v>509</v>
+        <v>26</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B430" t="s">
         <v>509</v>
@@ -6635,15 +6638,15 @@
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B431" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B432" t="s">
         <v>512</v>
@@ -6651,7 +6654,7 @@
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B433" t="s">
         <v>512</v>
@@ -6659,15 +6662,15 @@
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B434" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B435" t="s">
         <v>516</v>
@@ -6675,15 +6678,15 @@
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B436" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B437" t="s">
         <v>519</v>
@@ -6691,7 +6694,7 @@
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B438" t="s">
         <v>519</v>
@@ -6699,15 +6702,15 @@
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B439" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B440" t="s">
         <v>523</v>
@@ -6715,7 +6718,7 @@
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B441" t="s">
         <v>523</v>
@@ -6723,7 +6726,7 @@
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B442" t="s">
         <v>523</v>
@@ -6731,15 +6734,15 @@
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B443" t="s">
-        <v>17</v>
+        <v>523</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B444" t="s">
         <v>17</v>
@@ -6747,7 +6750,7 @@
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B445" t="s">
         <v>17</v>
@@ -6755,7 +6758,7 @@
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B446" t="s">
         <v>17</v>
@@ -6763,31 +6766,31 @@
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B447" t="s">
-        <v>532</v>
+        <v>17</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B448" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B449" t="s">
-        <v>495</v>
+        <v>534</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B450" t="s">
         <v>495</v>
@@ -6795,7 +6798,7 @@
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B451" t="s">
         <v>495</v>
@@ -6803,15 +6806,15 @@
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B452" t="s">
-        <v>539</v>
+        <v>495</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B453" t="s">
         <v>539</v>
@@ -6819,7 +6822,7 @@
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B454" t="s">
         <v>539</v>
@@ -6827,23 +6830,23 @@
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B455" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B456" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B457" t="s">
         <v>545</v>
@@ -6851,7 +6854,7 @@
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B458" t="s">
         <v>545</v>
@@ -6859,7 +6862,7 @@
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B459" t="s">
         <v>545</v>
@@ -6867,15 +6870,15 @@
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B460" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B461" t="s">
         <v>550</v>
@@ -6883,7 +6886,7 @@
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B462" t="s">
         <v>550</v>
@@ -6891,7 +6894,7 @@
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B463" t="s">
         <v>550</v>
@@ -6899,7 +6902,7 @@
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B464" t="s">
         <v>550</v>
@@ -6907,7 +6910,7 @@
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B465" t="s">
         <v>550</v>
@@ -6915,7 +6918,7 @@
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B466" t="s">
         <v>550</v>
@@ -6923,15 +6926,15 @@
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B467" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B468" t="s">
         <v>558</v>
@@ -6939,7 +6942,7 @@
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B469" t="s">
         <v>558</v>
@@ -6947,7 +6950,7 @@
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B470" t="s">
         <v>558</v>
@@ -6955,15 +6958,15 @@
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B471" t="s">
-        <v>16</v>
+        <v>558</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B472" t="s">
         <v>16</v>
@@ -6971,15 +6974,15 @@
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B473" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B474" t="s">
         <v>3</v>
@@ -6987,15 +6990,15 @@
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B475" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B476" t="s">
         <v>64</v>
@@ -7003,7 +7006,7 @@
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B477" t="s">
         <v>64</v>
@@ -7011,15 +7014,15 @@
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B478" t="s">
-        <v>570</v>
+        <v>64</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B479" t="s">
         <v>570</v>
@@ -7027,23 +7030,23 @@
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B480" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B481" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B482" t="s">
         <v>575</v>
@@ -7051,7 +7054,7 @@
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B483" t="s">
         <v>575</v>
@@ -7059,15 +7062,15 @@
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B484" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B485" t="s">
         <v>579</v>
@@ -7075,7 +7078,7 @@
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B486" t="s">
         <v>579</v>
@@ -7083,7 +7086,7 @@
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B487" t="s">
         <v>579</v>
@@ -7091,15 +7094,15 @@
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B488" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B489" t="s">
         <v>584</v>
@@ -7107,23 +7110,23 @@
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B490" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B491" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B492" t="s">
         <v>589</v>
@@ -7131,7 +7134,7 @@
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B493" t="s">
         <v>589</v>
@@ -7139,7 +7142,7 @@
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B494" t="s">
         <v>589</v>
@@ -7147,7 +7150,7 @@
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B495" t="s">
         <v>589</v>
@@ -7155,7 +7158,7 @@
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B496" t="s">
         <v>589</v>
@@ -7163,15 +7166,15 @@
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B497" t="s">
-        <v>45</v>
+        <v>589</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B498" t="s">
         <v>45</v>
@@ -7179,7 +7182,7 @@
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B499" t="s">
         <v>45</v>
@@ -7187,15 +7190,15 @@
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B500" t="s">
-        <v>599</v>
+        <v>45</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B501" t="s">
         <v>599</v>
@@ -7203,15 +7206,15 @@
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B502" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B503" t="s">
         <v>602</v>
@@ -7219,7 +7222,7 @@
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B504" t="s">
         <v>602</v>
@@ -7227,7 +7230,7 @@
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B505" t="s">
         <v>602</v>
@@ -7235,7 +7238,7 @@
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B506" t="s">
         <v>602</v>
@@ -7243,7 +7246,7 @@
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B507" t="s">
         <v>602</v>
@@ -7251,7 +7254,7 @@
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B508" t="s">
         <v>602</v>
@@ -7259,15 +7262,15 @@
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B509" t="s">
-        <v>13</v>
+        <v>602</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B510" t="s">
         <v>13</v>
@@ -7275,15 +7278,15 @@
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B511" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B512" t="s">
         <v>67</v>
@@ -7291,15 +7294,15 @@
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B513" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B514" t="s">
         <v>46</v>
@@ -7307,7 +7310,7 @@
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B515" t="s">
         <v>46</v>
@@ -7315,15 +7318,15 @@
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B516" t="s">
-        <v>617</v>
+        <v>46</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B517" t="s">
         <v>617</v>
@@ -7331,15 +7334,15 @@
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B518" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B519" t="s">
         <v>620</v>
@@ -7347,15 +7350,15 @@
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B520" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B521" t="s">
         <v>623</v>
@@ -7363,7 +7366,7 @@
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B522" t="s">
         <v>623</v>
@@ -7371,23 +7374,23 @@
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B523" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B524" t="s">
-        <v>11</v>
+        <v>627</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B525" t="s">
         <v>11</v>
@@ -7395,15 +7398,15 @@
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B526" t="s">
-        <v>631</v>
+        <v>11</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B527" t="s">
         <v>631</v>
@@ -7411,15 +7414,15 @@
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B528" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B529" t="s">
         <v>634</v>
@@ -7427,7 +7430,7 @@
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B530" t="s">
         <v>634</v>
@@ -7435,15 +7438,15 @@
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B531" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B532" t="s">
         <v>638</v>
@@ -7451,7 +7454,7 @@
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B533" t="s">
         <v>638</v>
@@ -7459,31 +7462,31 @@
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B534" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B535" t="s">
-        <v>40</v>
+        <v>642</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B536" t="s">
-        <v>645</v>
+        <v>40</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B537" t="s">
         <v>645</v>
@@ -7491,7 +7494,7 @@
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B538" t="s">
         <v>645</v>
@@ -7499,15 +7502,15 @@
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B539" t="s">
-        <v>19</v>
+        <v>645</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B540" t="s">
         <v>19</v>
@@ -7515,7 +7518,7 @@
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B541" t="s">
         <v>19</v>
@@ -7523,7 +7526,7 @@
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B542" t="s">
         <v>19</v>
@@ -7531,7 +7534,7 @@
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B543" t="s">
         <v>19</v>
@@ -7539,23 +7542,23 @@
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B544" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B545" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B546" t="s">
         <v>23</v>
@@ -7563,7 +7566,7 @@
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B547" t="s">
         <v>23</v>
@@ -7571,15 +7574,15 @@
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B548" t="s">
-        <v>658</v>
+        <v>23</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B549" t="s">
         <v>658</v>
@@ -7587,15 +7590,15 @@
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B550" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B551" t="s">
         <v>661</v>
@@ -7603,7 +7606,7 @@
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B552" t="s">
         <v>661</v>
@@ -7611,39 +7614,39 @@
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B553" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B554" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B555" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B556" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B557" t="s">
         <v>671</v>
@@ -7651,7 +7654,7 @@
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B558" t="s">
         <v>671</v>
@@ -7659,15 +7662,15 @@
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B559" t="s">
-        <v>39</v>
+        <v>671</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B560" t="s">
         <v>39</v>
@@ -7675,7 +7678,7 @@
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B561" t="s">
         <v>39</v>
@@ -7683,7 +7686,7 @@
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B562" t="s">
         <v>39</v>
@@ -7691,15 +7694,15 @@
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B563" t="s">
-        <v>679</v>
+        <v>39</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B564" t="s">
         <v>679</v>
@@ -7707,7 +7710,7 @@
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B565" t="s">
         <v>679</v>
@@ -7715,7 +7718,7 @@
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B566" t="s">
         <v>679</v>
@@ -7723,7 +7726,7 @@
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B567" t="s">
         <v>679</v>
@@ -7731,23 +7734,23 @@
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B568" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B569" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B570" t="s">
         <v>687</v>
@@ -7755,7 +7758,7 @@
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B571" t="s">
         <v>687</v>
@@ -7763,15 +7766,15 @@
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B572" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B573" t="s">
         <v>691</v>
@@ -7779,39 +7782,39 @@
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B574" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B575" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B576" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B577" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B578" t="s">
         <v>700</v>
@@ -7819,23 +7822,23 @@
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B579" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B580" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B581" t="s">
         <v>705</v>
@@ -7843,15 +7846,15 @@
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B582" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B583" t="s">
         <v>708</v>
@@ -7859,15 +7862,15 @@
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B584" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B585" t="s">
         <v>711</v>
@@ -7875,15 +7878,15 @@
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B586" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B587" t="s">
         <v>714</v>
@@ -7891,7 +7894,7 @@
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B588" t="s">
         <v>714</v>
@@ -7899,7 +7902,7 @@
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B589" t="s">
         <v>714</v>
@@ -7907,7 +7910,7 @@
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B590" t="s">
         <v>714</v>
@@ -7915,15 +7918,15 @@
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B591" t="s">
-        <v>32</v>
+        <v>714</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B592" t="s">
         <v>32</v>
@@ -7931,23 +7934,23 @@
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B593" t="s">
-        <v>722</v>
+        <v>32</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B594" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B595" t="s">
         <v>724</v>
@@ -7955,23 +7958,23 @@
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B596" t="s">
-        <v>206</v>
+        <v>724</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B597" t="s">
-        <v>728</v>
+        <v>206</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B598" t="s">
         <v>728</v>
@@ -7979,7 +7982,7 @@
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B599" t="s">
         <v>728</v>
@@ -7987,15 +7990,15 @@
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B600" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B601" t="s">
         <v>732</v>
@@ -8003,15 +8006,15 @@
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B602" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B603" t="s">
         <v>735</v>
@@ -8019,7 +8022,7 @@
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B604" t="s">
         <v>735</v>
@@ -8027,7 +8030,7 @@
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B605" t="s">
         <v>735</v>
@@ -8035,7 +8038,7 @@
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B606" t="s">
         <v>735</v>
@@ -8043,15 +8046,15 @@
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B607" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B608" t="s">
         <v>741</v>
@@ -8059,7 +8062,7 @@
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B609" t="s">
         <v>741</v>
@@ -8067,7 +8070,7 @@
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B610" t="s">
         <v>741</v>
@@ -8075,15 +8078,15 @@
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B611" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B612" t="s">
         <v>746</v>
@@ -8091,15 +8094,15 @@
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B613" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B614" t="s">
         <v>749</v>
@@ -8107,7 +8110,7 @@
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B615" t="s">
         <v>749</v>
@@ -8115,7 +8118,7 @@
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B616" t="s">
         <v>749</v>
@@ -8123,15 +8126,15 @@
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B617" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B618" t="s">
         <v>754</v>
@@ -8139,7 +8142,7 @@
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B619" t="s">
         <v>754</v>
@@ -8147,7 +8150,7 @@
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B620" t="s">
         <v>754</v>
@@ -8155,7 +8158,7 @@
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B621" t="s">
         <v>754</v>
@@ -8163,7 +8166,7 @@
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B622" t="s">
         <v>754</v>
@@ -8171,7 +8174,7 @@
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B623" t="s">
         <v>754</v>
@@ -8179,15 +8182,15 @@
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B624" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B625" t="s">
         <v>762</v>
@@ -8195,47 +8198,47 @@
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B626" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B627" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B628" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B629" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B630" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B631" t="s">
         <v>773</v>
@@ -8243,23 +8246,23 @@
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B632" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B633" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B634" t="s">
         <v>778</v>
@@ -8267,23 +8270,23 @@
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B635" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B636" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B637" t="s">
         <v>783</v>
@@ -8291,23 +8294,23 @@
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B638" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B639" t="s">
-        <v>34</v>
+        <v>786</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B640" t="s">
         <v>34</v>
@@ -8315,7 +8318,7 @@
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B641" t="s">
         <v>34</v>
@@ -8323,7 +8326,7 @@
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B642" t="s">
         <v>34</v>
@@ -8331,7 +8334,7 @@
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B643" t="s">
         <v>34</v>
@@ -8339,23 +8342,23 @@
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B644" t="s">
-        <v>793</v>
+        <v>34</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B645" t="s">
-        <v>7</v>
+        <v>793</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B646" t="s">
         <v>7</v>
@@ -8363,7 +8366,7 @@
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B647" t="s">
         <v>7</v>
@@ -8371,31 +8374,31 @@
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
-        <v>609</v>
+        <v>796</v>
       </c>
       <c r="B648" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
-        <v>797</v>
+        <v>609</v>
       </c>
       <c r="B649" t="s">
-        <v>703</v>
+        <v>13</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B650" t="s">
-        <v>799</v>
+        <v>703</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B651" t="s">
         <v>799</v>
@@ -8403,7 +8406,7 @@
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B652" t="s">
         <v>799</v>
@@ -8411,39 +8414,39 @@
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B653" t="s">
-        <v>271</v>
+        <v>799</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B654" t="s">
-        <v>804</v>
+        <v>271</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B655" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B656" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B657" t="s">
         <v>808</v>
@@ -8451,15 +8454,15 @@
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B658" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B659" t="s">
         <v>811</v>
@@ -8467,31 +8470,31 @@
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B660" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B661" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B662" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B663" t="s">
         <v>818</v>
@@ -8499,335 +8502,335 @@
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B664" t="s">
-        <v>519</v>
+        <v>818</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B665" t="s">
-        <v>822</v>
+        <v>519</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B666" t="s">
-        <v>35</v>
+        <v>822</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B667" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B668" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B669" t="s">
-        <v>81</v>
+        <v>3</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B670" t="s">
-        <v>708</v>
+        <v>81</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B671" t="s">
-        <v>523</v>
+        <v>708</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B672" t="s">
-        <v>44</v>
+        <v>523</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B673" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B674" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B675" t="s">
-        <v>140</v>
+        <v>72</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B676" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B677" t="s">
-        <v>698</v>
+        <v>179</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B678" t="s">
-        <v>374</v>
+        <v>698</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B679" t="s">
-        <v>190</v>
+        <v>374</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B680" t="s">
-        <v>575</v>
+        <v>190</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B681" t="s">
-        <v>543</v>
+        <v>575</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B682" t="s">
-        <v>452</v>
+        <v>543</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B683" t="s">
-        <v>509</v>
+        <v>452</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B684" t="s">
-        <v>599</v>
+        <v>509</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B685" t="s">
-        <v>49</v>
+        <v>599</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B686" t="s">
-        <v>844</v>
+        <v>49</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B687" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B688" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B689" t="s">
-        <v>13</v>
+        <v>844</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B690" t="s">
-        <v>844</v>
+        <v>13</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B691" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B692" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B693" t="s">
-        <v>728</v>
+        <v>844</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B694" t="s">
-        <v>691</v>
+        <v>728</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B695" t="s">
-        <v>209</v>
+        <v>691</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B696" t="s">
-        <v>856</v>
+        <v>209</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B697" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B698" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B699" t="s">
-        <v>69</v>
+        <v>860</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
-        <v>755</v>
+        <v>861</v>
       </c>
       <c r="B700" t="s">
-        <v>754</v>
+        <v>69</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
-        <v>862</v>
+        <v>755</v>
       </c>
       <c r="B701" t="s">
-        <v>45</v>
+        <v>754</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B702" t="s">
-        <v>864</v>
+        <v>45</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B703" t="s">
-        <v>617</v>
+        <v>864</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B704" t="s">
-        <v>51</v>
+        <v>617</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B705" t="s">
         <v>51</v>
@@ -8835,23 +8838,23 @@
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B706" t="s">
-        <v>869</v>
+        <v>51</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B707" t="s">
-        <v>864</v>
+        <v>869</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B708" t="s">
         <v>864</v>
@@ -8859,63 +8862,63 @@
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B709" t="s">
-        <v>732</v>
+        <v>864</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B710" t="s">
-        <v>69</v>
+        <v>732</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B711" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B712" t="s">
-        <v>876</v>
+        <v>3</v>
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B713" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B714" t="s">
-        <v>818</v>
+        <v>878</v>
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B715" t="s">
-        <v>881</v>
+        <v>818</v>
       </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B716" t="s">
         <v>881</v>
@@ -8923,71 +8926,71 @@
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B717" t="s">
-        <v>749</v>
+        <v>881</v>
       </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B718" t="s">
-        <v>856</v>
+        <v>749</v>
       </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B719" t="s">
-        <v>844</v>
+        <v>856</v>
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B720" t="s">
-        <v>76</v>
+        <v>844</v>
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B721" t="s">
-        <v>888</v>
+        <v>76</v>
       </c>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B722" t="s">
-        <v>869</v>
+        <v>888</v>
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B723" t="s">
-        <v>51</v>
+        <v>869</v>
       </c>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B724" t="s">
-        <v>881</v>
+        <v>51</v>
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B725" t="s">
         <v>881</v>
@@ -8995,143 +8998,143 @@
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B726" t="s">
-        <v>844</v>
+        <v>881</v>
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B727" t="s">
-        <v>69</v>
+        <v>844</v>
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B728" t="s">
-        <v>881</v>
+        <v>69</v>
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B729" t="s">
-        <v>57</v>
+        <v>881</v>
       </c>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B730" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B731" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B732" t="s">
-        <v>864</v>
+        <v>51</v>
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B733" t="s">
-        <v>69</v>
+        <v>864</v>
       </c>
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B734" t="s">
-        <v>479</v>
+        <v>69</v>
       </c>
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B735" t="s">
-        <v>864</v>
+        <v>479</v>
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A736" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B736" t="s">
-        <v>881</v>
+        <v>864</v>
       </c>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A737" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B737" t="s">
-        <v>115</v>
+        <v>881</v>
       </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A738" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B738" t="s">
-        <v>728</v>
+        <v>115</v>
       </c>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B739" t="s">
-        <v>190</v>
+        <v>728</v>
       </c>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B740" t="s">
-        <v>51</v>
+        <v>190</v>
       </c>
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B741" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B742" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B743" t="s">
         <v>57</v>
@@ -9139,39 +9142,39 @@
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B744" t="s">
-        <v>844</v>
+        <v>57</v>
       </c>
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B745" t="s">
-        <v>153</v>
+        <v>844</v>
       </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B746" t="s">
-        <v>914</v>
+        <v>153</v>
       </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B747" t="s">
-        <v>881</v>
+        <v>914</v>
       </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B748" t="s">
         <v>881</v>
@@ -9179,63 +9182,63 @@
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B749" t="s">
-        <v>811</v>
+        <v>881</v>
       </c>
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A750" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B750" t="s">
-        <v>846</v>
+        <v>811</v>
       </c>
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B751" t="s">
-        <v>64</v>
+        <v>846</v>
       </c>
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A752" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B752" t="s">
-        <v>728</v>
+        <v>64</v>
       </c>
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B753" t="s">
-        <v>34</v>
+        <v>728</v>
       </c>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B754" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
-        <v>587</v>
+        <v>922</v>
       </c>
       <c r="B755" t="s">
-        <v>587</v>
+        <v>71</v>
       </c>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
-        <v>923</v>
+        <v>587</v>
       </c>
       <c r="B756" t="s">
         <v>587</v>
@@ -9243,33 +9246,41 @@
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B757" t="s">
-        <v>925</v>
+        <v>587</v>
       </c>
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B758" t="s">
-        <v>185</v>
+        <v>925</v>
       </c>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B759" t="s">
-        <v>54</v>
+        <v>185</v>
       </c>
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A760" t="s">
+        <v>927</v>
+      </c>
+      <c r="B760" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A761" t="s">
         <v>928</v>
       </c>
-      <c r="B760" t="s">
+      <c r="B761" t="s">
         <v>42</v>
       </c>
     </row>

--- a/data/interim/crosswalk.xlsx
+++ b/data/interim/crosswalk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/LocalWork/DataVisualizations/asbestos-dashboard/asbestos-dashboard-data/data/interim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2AA1B6-FD48-5E4E-B313-D93D1E92C924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FEC6C9-1B7B-F741-9600-00CC44EA710B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="931">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="932">
   <si>
     <t>facility_name</t>
   </si>
@@ -2813,6 +2813,9 @@
   </si>
   <si>
     <t>MAYFAIR ELEMENTARY SCHOOL</t>
+  </si>
+  <si>
+    <t>Mary McLeod Bethune School</t>
   </si>
 </sst>
 </file>
@@ -3184,10 +3187,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B761"/>
+  <dimension ref="A1:B762"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A170" sqref="A170"/>
+    <sheetView tabSelected="1" topLeftCell="A348" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B363" sqref="B362:B363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6086,7 +6089,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>424</v>
+        <v>931</v>
       </c>
       <c r="B362" t="s">
         <v>425</v>
@@ -6094,7 +6097,7 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B363" t="s">
         <v>425</v>
@@ -6102,7 +6105,7 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B364" t="s">
         <v>425</v>
@@ -6110,15 +6113,15 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B365" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B366" t="s">
         <v>429</v>
@@ -6126,7 +6129,7 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B367" t="s">
         <v>429</v>
@@ -6134,15 +6137,15 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B368" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B369" t="s">
         <v>433</v>
@@ -6150,7 +6153,7 @@
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B370" t="s">
         <v>433</v>
@@ -6158,7 +6161,7 @@
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B371" t="s">
         <v>433</v>
@@ -6166,15 +6169,15 @@
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B372" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B373" t="s">
         <v>438</v>
@@ -6182,7 +6185,7 @@
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B374" t="s">
         <v>438</v>
@@ -6190,7 +6193,7 @@
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B375" t="s">
         <v>438</v>
@@ -6198,15 +6201,15 @@
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B376" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B377" t="s">
         <v>443</v>
@@ -6214,7 +6217,7 @@
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B378" t="s">
         <v>443</v>
@@ -6222,7 +6225,7 @@
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B379" t="s">
         <v>443</v>
@@ -6230,7 +6233,7 @@
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B380" t="s">
         <v>443</v>
@@ -6238,7 +6241,7 @@
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B381" t="s">
         <v>443</v>
@@ -6246,7 +6249,7 @@
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B382" t="s">
         <v>443</v>
@@ -6254,7 +6257,7 @@
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B383" t="s">
         <v>443</v>
@@ -6262,15 +6265,15 @@
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B384" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B385" t="s">
         <v>452</v>
@@ -6278,7 +6281,7 @@
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B386" t="s">
         <v>452</v>
@@ -6286,15 +6289,15 @@
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B387" t="s">
-        <v>43</v>
+        <v>452</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B388" t="s">
         <v>43</v>
@@ -6302,7 +6305,7 @@
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B389" t="s">
         <v>43</v>
@@ -6310,7 +6313,7 @@
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B390" t="s">
         <v>43</v>
@@ -6318,7 +6321,7 @@
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B391" t="s">
         <v>43</v>
@@ -6326,7 +6329,7 @@
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B392" t="s">
         <v>43</v>
@@ -6334,7 +6337,7 @@
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B393" t="s">
         <v>43</v>
@@ -6342,15 +6345,15 @@
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B394" t="s">
-        <v>463</v>
+        <v>43</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B395" t="s">
         <v>463</v>
@@ -6358,7 +6361,7 @@
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B396" t="s">
         <v>463</v>
@@ -6366,7 +6369,7 @@
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B397" t="s">
         <v>463</v>
@@ -6374,23 +6377,23 @@
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B398" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B399" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B400" t="s">
         <v>470</v>
@@ -6398,7 +6401,7 @@
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B401" t="s">
         <v>470</v>
@@ -6406,7 +6409,7 @@
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B402" t="s">
         <v>470</v>
@@ -6414,7 +6417,7 @@
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B403" t="s">
         <v>470</v>
@@ -6422,7 +6425,7 @@
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B404" t="s">
         <v>470</v>
@@ -6430,15 +6433,15 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B405" t="s">
-        <v>37</v>
+        <v>470</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B406" t="s">
         <v>37</v>
@@ -6446,15 +6449,15 @@
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B407" t="s">
-        <v>479</v>
+        <v>37</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B408" t="s">
         <v>479</v>
@@ -6462,7 +6465,7 @@
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B409" t="s">
         <v>479</v>
@@ -6470,7 +6473,7 @@
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B410" t="s">
         <v>479</v>
@@ -6478,7 +6481,7 @@
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B411" t="s">
         <v>479</v>
@@ -6486,15 +6489,15 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B412" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B413" t="s">
         <v>485</v>
@@ -6502,15 +6505,15 @@
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B414" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B415" t="s">
         <v>488</v>
@@ -6518,7 +6521,7 @@
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B416" t="s">
         <v>488</v>
@@ -6526,15 +6529,15 @@
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B417" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B418" t="s">
         <v>492</v>
@@ -6542,15 +6545,15 @@
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B419" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B420" t="s">
         <v>495</v>
@@ -6558,7 +6561,7 @@
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B421" t="s">
         <v>495</v>
@@ -6566,15 +6569,15 @@
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B422" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B423" t="s">
         <v>499</v>
@@ -6582,7 +6585,7 @@
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B424" t="s">
         <v>499</v>
@@ -6590,7 +6593,7 @@
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B425" t="s">
         <v>499</v>
@@ -6598,15 +6601,15 @@
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B426" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B427" t="s">
         <v>504</v>
@@ -6614,15 +6617,15 @@
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B428" t="s">
-        <v>26</v>
+        <v>504</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B429" t="s">
         <v>26</v>
@@ -6630,15 +6633,15 @@
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B430" t="s">
-        <v>509</v>
+        <v>26</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B431" t="s">
         <v>509</v>
@@ -6646,15 +6649,15 @@
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B432" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B433" t="s">
         <v>512</v>
@@ -6662,7 +6665,7 @@
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B434" t="s">
         <v>512</v>
@@ -6670,15 +6673,15 @@
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B435" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B436" t="s">
         <v>516</v>
@@ -6686,15 +6689,15 @@
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B437" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B438" t="s">
         <v>519</v>
@@ -6702,7 +6705,7 @@
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B439" t="s">
         <v>519</v>
@@ -6710,15 +6713,15 @@
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B440" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B441" t="s">
         <v>523</v>
@@ -6726,7 +6729,7 @@
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B442" t="s">
         <v>523</v>
@@ -6734,7 +6737,7 @@
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B443" t="s">
         <v>523</v>
@@ -6742,15 +6745,15 @@
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B444" t="s">
-        <v>17</v>
+        <v>523</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B445" t="s">
         <v>17</v>
@@ -6758,7 +6761,7 @@
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B446" t="s">
         <v>17</v>
@@ -6766,7 +6769,7 @@
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B447" t="s">
         <v>17</v>
@@ -6774,31 +6777,31 @@
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B448" t="s">
-        <v>532</v>
+        <v>17</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B449" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B450" t="s">
-        <v>495</v>
+        <v>534</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B451" t="s">
         <v>495</v>
@@ -6806,7 +6809,7 @@
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B452" t="s">
         <v>495</v>
@@ -6814,15 +6817,15 @@
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B453" t="s">
-        <v>539</v>
+        <v>495</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B454" t="s">
         <v>539</v>
@@ -6830,7 +6833,7 @@
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B455" t="s">
         <v>539</v>
@@ -6838,23 +6841,23 @@
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B456" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B457" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B458" t="s">
         <v>545</v>
@@ -6862,7 +6865,7 @@
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B459" t="s">
         <v>545</v>
@@ -6870,7 +6873,7 @@
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B460" t="s">
         <v>545</v>
@@ -6878,15 +6881,15 @@
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B461" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B462" t="s">
         <v>550</v>
@@ -6894,7 +6897,7 @@
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B463" t="s">
         <v>550</v>
@@ -6902,7 +6905,7 @@
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B464" t="s">
         <v>550</v>
@@ -6910,7 +6913,7 @@
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B465" t="s">
         <v>550</v>
@@ -6918,7 +6921,7 @@
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B466" t="s">
         <v>550</v>
@@ -6926,7 +6929,7 @@
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B467" t="s">
         <v>550</v>
@@ -6934,15 +6937,15 @@
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B468" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B469" t="s">
         <v>558</v>
@@ -6950,7 +6953,7 @@
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B470" t="s">
         <v>558</v>
@@ -6958,7 +6961,7 @@
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B471" t="s">
         <v>558</v>
@@ -6966,15 +6969,15 @@
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B472" t="s">
-        <v>16</v>
+        <v>558</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B473" t="s">
         <v>16</v>
@@ -6982,15 +6985,15 @@
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B474" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B475" t="s">
         <v>3</v>
@@ -6998,15 +7001,15 @@
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B476" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B477" t="s">
         <v>64</v>
@@ -7014,7 +7017,7 @@
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B478" t="s">
         <v>64</v>
@@ -7022,15 +7025,15 @@
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B479" t="s">
-        <v>570</v>
+        <v>64</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B480" t="s">
         <v>570</v>
@@ -7038,23 +7041,23 @@
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B481" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B482" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B483" t="s">
         <v>575</v>
@@ -7062,7 +7065,7 @@
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B484" t="s">
         <v>575</v>
@@ -7070,15 +7073,15 @@
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B485" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B486" t="s">
         <v>579</v>
@@ -7086,7 +7089,7 @@
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B487" t="s">
         <v>579</v>
@@ -7094,7 +7097,7 @@
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B488" t="s">
         <v>579</v>
@@ -7102,15 +7105,15 @@
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B489" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B490" t="s">
         <v>584</v>
@@ -7118,23 +7121,23 @@
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B491" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B492" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B493" t="s">
         <v>589</v>
@@ -7142,7 +7145,7 @@
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B494" t="s">
         <v>589</v>
@@ -7150,7 +7153,7 @@
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B495" t="s">
         <v>589</v>
@@ -7158,7 +7161,7 @@
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B496" t="s">
         <v>589</v>
@@ -7166,7 +7169,7 @@
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B497" t="s">
         <v>589</v>
@@ -7174,15 +7177,15 @@
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B498" t="s">
-        <v>45</v>
+        <v>589</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B499" t="s">
         <v>45</v>
@@ -7190,7 +7193,7 @@
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B500" t="s">
         <v>45</v>
@@ -7198,15 +7201,15 @@
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B501" t="s">
-        <v>599</v>
+        <v>45</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B502" t="s">
         <v>599</v>
@@ -7214,15 +7217,15 @@
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B503" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B504" t="s">
         <v>602</v>
@@ -7230,7 +7233,7 @@
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B505" t="s">
         <v>602</v>
@@ -7238,7 +7241,7 @@
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B506" t="s">
         <v>602</v>
@@ -7246,7 +7249,7 @@
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B507" t="s">
         <v>602</v>
@@ -7254,7 +7257,7 @@
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B508" t="s">
         <v>602</v>
@@ -7262,7 +7265,7 @@
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B509" t="s">
         <v>602</v>
@@ -7270,15 +7273,15 @@
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B510" t="s">
-        <v>13</v>
+        <v>602</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B511" t="s">
         <v>13</v>
@@ -7286,15 +7289,15 @@
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B512" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B513" t="s">
         <v>67</v>
@@ -7302,15 +7305,15 @@
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B514" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B515" t="s">
         <v>46</v>
@@ -7318,7 +7321,7 @@
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B516" t="s">
         <v>46</v>
@@ -7326,15 +7329,15 @@
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B517" t="s">
-        <v>617</v>
+        <v>46</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B518" t="s">
         <v>617</v>
@@ -7342,15 +7345,15 @@
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B519" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B520" t="s">
         <v>620</v>
@@ -7358,15 +7361,15 @@
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B521" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B522" t="s">
         <v>623</v>
@@ -7374,7 +7377,7 @@
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B523" t="s">
         <v>623</v>
@@ -7382,23 +7385,23 @@
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B524" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B525" t="s">
-        <v>11</v>
+        <v>627</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B526" t="s">
         <v>11</v>
@@ -7406,15 +7409,15 @@
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B527" t="s">
-        <v>631</v>
+        <v>11</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B528" t="s">
         <v>631</v>
@@ -7422,15 +7425,15 @@
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B529" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B530" t="s">
         <v>634</v>
@@ -7438,7 +7441,7 @@
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B531" t="s">
         <v>634</v>
@@ -7446,15 +7449,15 @@
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B532" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B533" t="s">
         <v>638</v>
@@ -7462,7 +7465,7 @@
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B534" t="s">
         <v>638</v>
@@ -7470,31 +7473,31 @@
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B535" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B536" t="s">
-        <v>40</v>
+        <v>642</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B537" t="s">
-        <v>645</v>
+        <v>40</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B538" t="s">
         <v>645</v>
@@ -7502,7 +7505,7 @@
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B539" t="s">
         <v>645</v>
@@ -7510,15 +7513,15 @@
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B540" t="s">
-        <v>19</v>
+        <v>645</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B541" t="s">
         <v>19</v>
@@ -7526,7 +7529,7 @@
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B542" t="s">
         <v>19</v>
@@ -7534,7 +7537,7 @@
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B543" t="s">
         <v>19</v>
@@ -7542,7 +7545,7 @@
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B544" t="s">
         <v>19</v>
@@ -7550,23 +7553,23 @@
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B545" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B546" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B547" t="s">
         <v>23</v>
@@ -7574,7 +7577,7 @@
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B548" t="s">
         <v>23</v>
@@ -7582,15 +7585,15 @@
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B549" t="s">
-        <v>658</v>
+        <v>23</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B550" t="s">
         <v>658</v>
@@ -7598,15 +7601,15 @@
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B551" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B552" t="s">
         <v>661</v>
@@ -7614,7 +7617,7 @@
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B553" t="s">
         <v>661</v>
@@ -7622,39 +7625,39 @@
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B554" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B555" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B556" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B557" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B558" t="s">
         <v>671</v>
@@ -7662,7 +7665,7 @@
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B559" t="s">
         <v>671</v>
@@ -7670,15 +7673,15 @@
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B560" t="s">
-        <v>39</v>
+        <v>671</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B561" t="s">
         <v>39</v>
@@ -7686,7 +7689,7 @@
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B562" t="s">
         <v>39</v>
@@ -7694,7 +7697,7 @@
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B563" t="s">
         <v>39</v>
@@ -7702,15 +7705,15 @@
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B564" t="s">
-        <v>679</v>
+        <v>39</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B565" t="s">
         <v>679</v>
@@ -7718,7 +7721,7 @@
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B566" t="s">
         <v>679</v>
@@ -7726,7 +7729,7 @@
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B567" t="s">
         <v>679</v>
@@ -7734,7 +7737,7 @@
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B568" t="s">
         <v>679</v>
@@ -7742,23 +7745,23 @@
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B569" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B570" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B571" t="s">
         <v>687</v>
@@ -7766,7 +7769,7 @@
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B572" t="s">
         <v>687</v>
@@ -7774,15 +7777,15 @@
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B573" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B574" t="s">
         <v>691</v>
@@ -7790,39 +7793,39 @@
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B575" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B576" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B577" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B578" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B579" t="s">
         <v>700</v>
@@ -7830,23 +7833,23 @@
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B580" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B581" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B582" t="s">
         <v>705</v>
@@ -7854,15 +7857,15 @@
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B583" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B584" t="s">
         <v>708</v>
@@ -7870,15 +7873,15 @@
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B585" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B586" t="s">
         <v>711</v>
@@ -7886,15 +7889,15 @@
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B587" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B588" t="s">
         <v>714</v>
@@ -7902,7 +7905,7 @@
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B589" t="s">
         <v>714</v>
@@ -7910,7 +7913,7 @@
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B590" t="s">
         <v>714</v>
@@ -7918,7 +7921,7 @@
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B591" t="s">
         <v>714</v>
@@ -7926,15 +7929,15 @@
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B592" t="s">
-        <v>32</v>
+        <v>714</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B593" t="s">
         <v>32</v>
@@ -7942,23 +7945,23 @@
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B594" t="s">
-        <v>722</v>
+        <v>32</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B595" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B596" t="s">
         <v>724</v>
@@ -7966,23 +7969,23 @@
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B597" t="s">
-        <v>206</v>
+        <v>724</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B598" t="s">
-        <v>728</v>
+        <v>206</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B599" t="s">
         <v>728</v>
@@ -7990,7 +7993,7 @@
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B600" t="s">
         <v>728</v>
@@ -7998,15 +8001,15 @@
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B601" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B602" t="s">
         <v>732</v>
@@ -8014,15 +8017,15 @@
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B603" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B604" t="s">
         <v>735</v>
@@ -8030,7 +8033,7 @@
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B605" t="s">
         <v>735</v>
@@ -8038,7 +8041,7 @@
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B606" t="s">
         <v>735</v>
@@ -8046,7 +8049,7 @@
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B607" t="s">
         <v>735</v>
@@ -8054,15 +8057,15 @@
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B608" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B609" t="s">
         <v>741</v>
@@ -8070,7 +8073,7 @@
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B610" t="s">
         <v>741</v>
@@ -8078,7 +8081,7 @@
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B611" t="s">
         <v>741</v>
@@ -8086,15 +8089,15 @@
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B612" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B613" t="s">
         <v>746</v>
@@ -8102,15 +8105,15 @@
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B614" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B615" t="s">
         <v>749</v>
@@ -8118,7 +8121,7 @@
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B616" t="s">
         <v>749</v>
@@ -8126,7 +8129,7 @@
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B617" t="s">
         <v>749</v>
@@ -8134,15 +8137,15 @@
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B618" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B619" t="s">
         <v>754</v>
@@ -8150,7 +8153,7 @@
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B620" t="s">
         <v>754</v>
@@ -8158,7 +8161,7 @@
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B621" t="s">
         <v>754</v>
@@ -8166,7 +8169,7 @@
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B622" t="s">
         <v>754</v>
@@ -8174,7 +8177,7 @@
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B623" t="s">
         <v>754</v>
@@ -8182,7 +8185,7 @@
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B624" t="s">
         <v>754</v>
@@ -8190,15 +8193,15 @@
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B625" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B626" t="s">
         <v>762</v>
@@ -8206,47 +8209,47 @@
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B627" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B628" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B629" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B630" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B631" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B632" t="s">
         <v>773</v>
@@ -8254,23 +8257,23 @@
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B633" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B634" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B635" t="s">
         <v>778</v>
@@ -8278,23 +8281,23 @@
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B636" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B637" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B638" t="s">
         <v>783</v>
@@ -8302,23 +8305,23 @@
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B639" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B640" t="s">
-        <v>34</v>
+        <v>786</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B641" t="s">
         <v>34</v>
@@ -8326,7 +8329,7 @@
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B642" t="s">
         <v>34</v>
@@ -8334,7 +8337,7 @@
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B643" t="s">
         <v>34</v>
@@ -8342,7 +8345,7 @@
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B644" t="s">
         <v>34</v>
@@ -8350,23 +8353,23 @@
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B645" t="s">
-        <v>793</v>
+        <v>34</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B646" t="s">
-        <v>7</v>
+        <v>793</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B647" t="s">
         <v>7</v>
@@ -8374,7 +8377,7 @@
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B648" t="s">
         <v>7</v>
@@ -8382,31 +8385,31 @@
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
-        <v>609</v>
+        <v>796</v>
       </c>
       <c r="B649" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
-        <v>797</v>
+        <v>609</v>
       </c>
       <c r="B650" t="s">
-        <v>703</v>
+        <v>13</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B651" t="s">
-        <v>799</v>
+        <v>703</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B652" t="s">
         <v>799</v>
@@ -8414,7 +8417,7 @@
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B653" t="s">
         <v>799</v>
@@ -8422,39 +8425,39 @@
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B654" t="s">
-        <v>271</v>
+        <v>799</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B655" t="s">
-        <v>804</v>
+        <v>271</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B656" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B657" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B658" t="s">
         <v>808</v>
@@ -8462,15 +8465,15 @@
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B659" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B660" t="s">
         <v>811</v>
@@ -8478,31 +8481,31 @@
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B661" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B662" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B663" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B664" t="s">
         <v>818</v>
@@ -8510,335 +8513,335 @@
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B665" t="s">
-        <v>519</v>
+        <v>818</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B666" t="s">
-        <v>822</v>
+        <v>519</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B667" t="s">
-        <v>35</v>
+        <v>822</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B668" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B669" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B670" t="s">
-        <v>81</v>
+        <v>3</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B671" t="s">
-        <v>708</v>
+        <v>81</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B672" t="s">
-        <v>523</v>
+        <v>708</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B673" t="s">
-        <v>44</v>
+        <v>523</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B674" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B675" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B676" t="s">
-        <v>140</v>
+        <v>72</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B677" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B678" t="s">
-        <v>698</v>
+        <v>179</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B679" t="s">
-        <v>374</v>
+        <v>698</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B680" t="s">
-        <v>190</v>
+        <v>374</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B681" t="s">
-        <v>575</v>
+        <v>190</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B682" t="s">
-        <v>543</v>
+        <v>575</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B683" t="s">
-        <v>452</v>
+        <v>543</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B684" t="s">
-        <v>509</v>
+        <v>452</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B685" t="s">
-        <v>599</v>
+        <v>509</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B686" t="s">
-        <v>49</v>
+        <v>599</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B687" t="s">
-        <v>844</v>
+        <v>49</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B688" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B689" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B690" t="s">
-        <v>13</v>
+        <v>844</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B691" t="s">
-        <v>844</v>
+        <v>13</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B692" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B693" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B694" t="s">
-        <v>728</v>
+        <v>844</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B695" t="s">
-        <v>691</v>
+        <v>728</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B696" t="s">
-        <v>209</v>
+        <v>691</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B697" t="s">
-        <v>856</v>
+        <v>209</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B698" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B699" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B700" t="s">
-        <v>69</v>
+        <v>860</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
-        <v>755</v>
+        <v>861</v>
       </c>
       <c r="B701" t="s">
-        <v>754</v>
+        <v>69</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
-        <v>862</v>
+        <v>755</v>
       </c>
       <c r="B702" t="s">
-        <v>45</v>
+        <v>754</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B703" t="s">
-        <v>864</v>
+        <v>45</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B704" t="s">
-        <v>617</v>
+        <v>864</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B705" t="s">
-        <v>51</v>
+        <v>617</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B706" t="s">
         <v>51</v>
@@ -8846,23 +8849,23 @@
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B707" t="s">
-        <v>869</v>
+        <v>51</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B708" t="s">
-        <v>864</v>
+        <v>869</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B709" t="s">
         <v>864</v>
@@ -8870,63 +8873,63 @@
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B710" t="s">
-        <v>732</v>
+        <v>864</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B711" t="s">
-        <v>69</v>
+        <v>732</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B712" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B713" t="s">
-        <v>876</v>
+        <v>3</v>
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B714" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B715" t="s">
-        <v>818</v>
+        <v>878</v>
       </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B716" t="s">
-        <v>881</v>
+        <v>818</v>
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B717" t="s">
         <v>881</v>
@@ -8934,71 +8937,71 @@
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B718" t="s">
-        <v>749</v>
+        <v>881</v>
       </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B719" t="s">
-        <v>856</v>
+        <v>749</v>
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B720" t="s">
-        <v>844</v>
+        <v>856</v>
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B721" t="s">
-        <v>76</v>
+        <v>844</v>
       </c>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B722" t="s">
-        <v>888</v>
+        <v>76</v>
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B723" t="s">
-        <v>869</v>
+        <v>888</v>
       </c>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B724" t="s">
-        <v>51</v>
+        <v>869</v>
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B725" t="s">
-        <v>881</v>
+        <v>51</v>
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B726" t="s">
         <v>881</v>
@@ -9006,143 +9009,143 @@
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B727" t="s">
-        <v>844</v>
+        <v>881</v>
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B728" t="s">
-        <v>69</v>
+        <v>844</v>
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B729" t="s">
-        <v>881</v>
+        <v>69</v>
       </c>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B730" t="s">
-        <v>57</v>
+        <v>881</v>
       </c>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B731" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B732" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B733" t="s">
-        <v>864</v>
+        <v>51</v>
       </c>
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B734" t="s">
-        <v>69</v>
+        <v>864</v>
       </c>
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B735" t="s">
-        <v>479</v>
+        <v>69</v>
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A736" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B736" t="s">
-        <v>864</v>
+        <v>479</v>
       </c>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A737" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B737" t="s">
-        <v>881</v>
+        <v>864</v>
       </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A738" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B738" t="s">
-        <v>115</v>
+        <v>881</v>
       </c>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B739" t="s">
-        <v>728</v>
+        <v>115</v>
       </c>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B740" t="s">
-        <v>190</v>
+        <v>728</v>
       </c>
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B741" t="s">
-        <v>51</v>
+        <v>190</v>
       </c>
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B742" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B743" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B744" t="s">
         <v>57</v>
@@ -9150,39 +9153,39 @@
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B745" t="s">
-        <v>844</v>
+        <v>57</v>
       </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B746" t="s">
-        <v>153</v>
+        <v>844</v>
       </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B747" t="s">
-        <v>914</v>
+        <v>153</v>
       </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B748" t="s">
-        <v>881</v>
+        <v>914</v>
       </c>
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B749" t="s">
         <v>881</v>
@@ -9190,63 +9193,63 @@
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A750" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B750" t="s">
-        <v>811</v>
+        <v>881</v>
       </c>
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B751" t="s">
-        <v>846</v>
+        <v>811</v>
       </c>
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A752" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B752" t="s">
-        <v>64</v>
+        <v>846</v>
       </c>
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B753" t="s">
-        <v>728</v>
+        <v>64</v>
       </c>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B754" t="s">
-        <v>34</v>
+        <v>728</v>
       </c>
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B755" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
-        <v>587</v>
+        <v>922</v>
       </c>
       <c r="B756" t="s">
-        <v>587</v>
+        <v>71</v>
       </c>
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
-        <v>923</v>
+        <v>587</v>
       </c>
       <c r="B757" t="s">
         <v>587</v>
@@ -9254,33 +9257,41 @@
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B758" t="s">
-        <v>925</v>
+        <v>587</v>
       </c>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B759" t="s">
-        <v>185</v>
+        <v>925</v>
       </c>
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A760" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B760" t="s">
-        <v>54</v>
+        <v>185</v>
       </c>
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
+        <v>927</v>
+      </c>
+      <c r="B761" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A762" t="s">
         <v>928</v>
       </c>
-      <c r="B761" t="s">
+      <c r="B762" t="s">
         <v>42</v>
       </c>
     </row>

--- a/data/interim/crosswalk.xlsx
+++ b/data/interim/crosswalk.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/LocalWork/DataVisualizations/asbestos-dashboard/asbestos-dashboard-data/data/interim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FEC6C9-1B7B-F741-9600-00CC44EA710B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8838C26-FF92-0F45-ADC6-F360C4571E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="932">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="934">
   <si>
     <t>facility_name</t>
   </si>
@@ -2816,6 +2816,12 @@
   </si>
   <si>
     <t>Mary McLeod Bethune School</t>
+  </si>
+  <si>
+    <t>JB KELLY SCHOOL</t>
+  </si>
+  <si>
+    <t>ROXBOROUGH HS FIELD HOUSE</t>
   </si>
 </sst>
 </file>
@@ -3187,10 +3193,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B762"/>
+  <dimension ref="A1:B764"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A348" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B363" sqref="B362:B363"/>
+    <sheetView tabSelected="1" topLeftCell="A183" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A197" sqref="A197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3425,39 +3431,39 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>932</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
@@ -3465,151 +3471,151 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B52" t="s">
         <v>59</v>
@@ -3617,111 +3623,111 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B56" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B57" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B60" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B61" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B62" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B63" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B64" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B65" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B66" t="s">
         <v>76</v>
@@ -3729,7 +3735,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B67" t="s">
         <v>76</v>
@@ -3737,7 +3743,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B68" t="s">
         <v>76</v>
@@ -3745,15 +3751,15 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B69" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B70" t="s">
         <v>81</v>
@@ -3761,7 +3767,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B71" t="s">
         <v>81</v>
@@ -3769,7 +3775,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B72" t="s">
         <v>81</v>
@@ -3777,7 +3783,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B73" t="s">
         <v>81</v>
@@ -3785,7 +3791,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B74" t="s">
         <v>81</v>
@@ -3793,15 +3799,15 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B75" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B76" t="s">
         <v>88</v>
@@ -3809,7 +3815,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B77" t="s">
         <v>88</v>
@@ -3817,7 +3823,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B78" t="s">
         <v>88</v>
@@ -3825,7 +3831,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B79" t="s">
         <v>88</v>
@@ -3833,7 +3839,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B80" t="s">
         <v>88</v>
@@ -3841,15 +3847,15 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B82" t="s">
         <v>8</v>
@@ -3857,7 +3863,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B83" t="s">
         <v>8</v>
@@ -3865,15 +3871,15 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B84" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B85" t="s">
         <v>19</v>
@@ -3881,15 +3887,15 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B86" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B87" t="s">
         <v>100</v>
@@ -3897,7 +3903,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B88" t="s">
         <v>100</v>
@@ -3905,15 +3911,15 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B89" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B90" t="s">
         <v>18</v>
@@ -3921,15 +3927,15 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B91" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B92" t="s">
         <v>42</v>
@@ -3937,7 +3943,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B93" t="s">
         <v>42</v>
@@ -3945,7 +3951,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B94" t="s">
         <v>42</v>
@@ -3953,7 +3959,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B95" t="s">
         <v>42</v>
@@ -3961,15 +3967,15 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B96" t="s">
-        <v>111</v>
+        <v>42</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B97" t="s">
         <v>111</v>
@@ -3977,7 +3983,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B98" t="s">
         <v>111</v>
@@ -3985,15 +3991,15 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B99" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B100" t="s">
         <v>115</v>
@@ -4001,7 +4007,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B101" t="s">
         <v>115</v>
@@ -4009,15 +4015,15 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B102" t="s">
-        <v>63</v>
+        <v>115</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B103" t="s">
         <v>63</v>
@@ -4025,7 +4031,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B104" t="s">
         <v>63</v>
@@ -4033,7 +4039,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B105" t="s">
         <v>63</v>
@@ -4041,15 +4047,15 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B106" t="s">
-        <v>123</v>
+        <v>63</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B107" t="s">
         <v>123</v>
@@ -4057,15 +4063,15 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B108" t="s">
-        <v>27</v>
+        <v>123</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B109" t="s">
         <v>27</v>
@@ -4073,7 +4079,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B110" t="s">
         <v>27</v>
@@ -4081,7 +4087,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B111" t="s">
         <v>27</v>
@@ -4089,7 +4095,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B112" t="s">
         <v>27</v>
@@ -4097,23 +4103,23 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B113" t="s">
-        <v>131</v>
+        <v>27</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B114" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B115" t="s">
         <v>133</v>
@@ -4121,7 +4127,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B116" t="s">
         <v>133</v>
@@ -4129,7 +4135,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B117" t="s">
         <v>133</v>
@@ -4137,23 +4143,23 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B118" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B119" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B120" t="s">
         <v>140</v>
@@ -4161,7 +4167,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B121" t="s">
         <v>140</v>
@@ -4169,7 +4175,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B122" t="s">
         <v>140</v>
@@ -4177,7 +4183,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B123" t="s">
         <v>140</v>
@@ -4185,15 +4191,15 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B124" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B125" t="s">
         <v>146</v>
@@ -4201,7 +4207,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B126" t="s">
         <v>146</v>
@@ -4209,7 +4215,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B127" t="s">
         <v>146</v>
@@ -4217,7 +4223,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B128" t="s">
         <v>146</v>
@@ -4225,7 +4231,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B129" t="s">
         <v>146</v>
@@ -4233,15 +4239,15 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B130" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B131" t="s">
         <v>153</v>
@@ -4249,15 +4255,15 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B132" t="s">
-        <v>38</v>
+        <v>153</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B133" t="s">
         <v>38</v>
@@ -4265,7 +4271,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B134" t="s">
         <v>38</v>
@@ -4273,7 +4279,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B135" t="s">
         <v>38</v>
@@ -4281,15 +4287,15 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B136" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B137" t="s">
         <v>54</v>
@@ -4297,7 +4303,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B138" t="s">
         <v>54</v>
@@ -4305,7 +4311,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B139" t="s">
         <v>54</v>
@@ -4313,7 +4319,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B140" t="s">
         <v>54</v>
@@ -4321,15 +4327,15 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B141" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B142" t="s">
         <v>65</v>
@@ -4337,7 +4343,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B143" t="s">
         <v>65</v>
@@ -4345,15 +4351,15 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B144" t="s">
-        <v>168</v>
+        <v>65</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B145" t="s">
         <v>168</v>
@@ -4361,7 +4367,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B146" t="s">
         <v>168</v>
@@ -4369,15 +4375,15 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B147" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B148" t="s">
         <v>172</v>
@@ -4385,7 +4391,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B149" t="s">
         <v>172</v>
@@ -4393,7 +4399,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B150" t="s">
         <v>172</v>
@@ -4401,7 +4407,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B151" t="s">
         <v>172</v>
@@ -4409,7 +4415,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B152" t="s">
         <v>172</v>
@@ -4417,15 +4423,15 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B153" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B154" t="s">
         <v>179</v>
@@ -4433,7 +4439,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B155" t="s">
         <v>179</v>
@@ -4441,7 +4447,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B156" t="s">
         <v>179</v>
@@ -4449,7 +4455,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B157" t="s">
         <v>179</v>
@@ -4457,15 +4463,15 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B158" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B159" t="s">
         <v>185</v>
@@ -4473,7 +4479,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B160" t="s">
         <v>185</v>
@@ -4481,7 +4487,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B161" t="s">
         <v>185</v>
@@ -4489,15 +4495,15 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B162" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B163" t="s">
         <v>190</v>
@@ -4505,7 +4511,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B164" t="s">
         <v>190</v>
@@ -4513,15 +4519,15 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B165" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B166" t="s">
         <v>194</v>
@@ -4529,7 +4535,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B167" t="s">
         <v>194</v>
@@ -4537,7 +4543,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B168" t="s">
         <v>194</v>
@@ -4545,15 +4551,15 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B169" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>930</v>
+        <v>198</v>
       </c>
       <c r="B170" t="s">
         <v>199</v>
@@ -4561,7 +4567,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>200</v>
+        <v>930</v>
       </c>
       <c r="B171" t="s">
         <v>199</v>
@@ -4569,15 +4575,15 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B172" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B173" t="s">
         <v>202</v>
@@ -4585,7 +4591,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B174" t="s">
         <v>202</v>
@@ -4593,7 +4599,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>929</v>
+        <v>204</v>
       </c>
       <c r="B175" t="s">
         <v>202</v>
@@ -4601,15 +4607,15 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>205</v>
+        <v>929</v>
       </c>
       <c r="B176" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B177" t="s">
         <v>206</v>
@@ -4617,15 +4623,15 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B178" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B179" t="s">
         <v>209</v>
@@ -4633,7 +4639,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B180" t="s">
         <v>209</v>
@@ -4641,15 +4647,15 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B181" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B182" t="s">
         <v>213</v>
@@ -4657,7 +4663,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B183" t="s">
         <v>213</v>
@@ -4665,7 +4671,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B184" t="s">
         <v>213</v>
@@ -4673,7 +4679,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B185" t="s">
         <v>213</v>
@@ -4681,7 +4687,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B186" t="s">
         <v>213</v>
@@ -4689,15 +4695,15 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B187" t="s">
-        <v>5</v>
+        <v>213</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B188" t="s">
         <v>5</v>
@@ -4705,7 +4711,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B189" t="s">
         <v>5</v>
@@ -4713,15 +4719,15 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B190" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B191" t="s">
         <v>30</v>
@@ -4729,7 +4735,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B192" t="s">
         <v>30</v>
@@ -4737,7 +4743,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B193" t="s">
         <v>30</v>
@@ -4745,7 +4751,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B194" t="s">
         <v>30</v>
@@ -4753,15 +4759,15 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B195" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B196" t="s">
         <v>49</v>
@@ -4769,39 +4775,39 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>229</v>
+        <v>933</v>
       </c>
       <c r="B197" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B198" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B199" t="s">
-        <v>232</v>
+        <v>24</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B200" t="s">
-        <v>232</v>
+        <v>24</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B201" t="s">
         <v>232</v>
@@ -4809,7 +4815,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B202" t="s">
         <v>232</v>
@@ -4817,7 +4823,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B203" t="s">
         <v>232</v>
@@ -4825,7 +4831,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B204" t="s">
         <v>232</v>
@@ -4833,55 +4839,55 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B205" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B206" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B207" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B208" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B209" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B210" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B211" t="s">
         <v>245</v>
@@ -4889,7 +4895,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B212" t="s">
         <v>245</v>
@@ -4897,23 +4903,23 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B213" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B214" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B215" t="s">
         <v>250</v>
@@ -4921,7 +4927,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B216" t="s">
         <v>250</v>
@@ -4929,7 +4935,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B217" t="s">
         <v>250</v>
@@ -4937,7 +4943,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B218" t="s">
         <v>250</v>
@@ -4945,23 +4951,23 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B219" t="s">
-        <v>2</v>
+        <v>250</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B220" t="s">
-        <v>2</v>
+        <v>250</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B221" t="s">
         <v>2</v>
@@ -4969,7 +4975,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B222" t="s">
         <v>2</v>
@@ -4977,7 +4983,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B223" t="s">
         <v>2</v>
@@ -4985,23 +4991,23 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B224" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B225" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B226" t="s">
         <v>14</v>
@@ -5009,7 +5015,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B227" t="s">
         <v>14</v>
@@ -5017,7 +5023,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B228" t="s">
         <v>14</v>
@@ -5025,23 +5031,23 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B229" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B230" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B231" t="s">
         <v>70</v>
@@ -5049,7 +5055,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B232" t="s">
         <v>70</v>
@@ -5057,23 +5063,23 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B233" t="s">
-        <v>271</v>
+        <v>70</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B234" t="s">
-        <v>271</v>
+        <v>70</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B235" t="s">
         <v>271</v>
@@ -5081,7 +5087,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B236" t="s">
         <v>271</v>
@@ -5089,7 +5095,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B237" t="s">
         <v>271</v>
@@ -5097,23 +5103,23 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B238" t="s">
-        <v>15</v>
+        <v>271</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B239" t="s">
-        <v>15</v>
+        <v>271</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B240" t="s">
         <v>15</v>
@@ -5121,7 +5127,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B241" t="s">
         <v>15</v>
@@ -5129,23 +5135,23 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B242" t="s">
-        <v>281</v>
+        <v>15</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B243" t="s">
-        <v>281</v>
+        <v>15</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B244" t="s">
         <v>281</v>
@@ -5153,23 +5159,23 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B245" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B246" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B247" t="s">
         <v>285</v>
@@ -5177,23 +5183,23 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B248" t="s">
-        <v>48</v>
+        <v>285</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B249" t="s">
-        <v>48</v>
+        <v>285</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B250" t="s">
         <v>48</v>
@@ -5201,23 +5207,23 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B251" t="s">
-        <v>292</v>
+        <v>48</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B252" t="s">
-        <v>292</v>
+        <v>48</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B253" t="s">
         <v>292</v>
@@ -5225,7 +5231,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B254" t="s">
         <v>292</v>
@@ -5233,7 +5239,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B255" t="s">
         <v>292</v>
@@ -5241,7 +5247,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B256" t="s">
         <v>292</v>
@@ -5249,7 +5255,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B257" t="s">
         <v>292</v>
@@ -5257,7 +5263,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B258" t="s">
         <v>292</v>
@@ -5265,7 +5271,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B259" t="s">
         <v>292</v>
@@ -5273,7 +5279,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B260" t="s">
         <v>292</v>
@@ -5281,7 +5287,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B261" t="s">
         <v>292</v>
@@ -5289,7 +5295,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B262" t="s">
         <v>292</v>
@@ -5297,7 +5303,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B263" t="s">
         <v>292</v>
@@ -5305,39 +5311,39 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B264" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B265" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B266" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B267" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B268" t="s">
         <v>309</v>
@@ -5345,7 +5351,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B269" t="s">
         <v>309</v>
@@ -5353,7 +5359,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B270" t="s">
         <v>309</v>
@@ -5361,7 +5367,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B271" t="s">
         <v>309</v>
@@ -5369,31 +5375,31 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B272" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B273" t="s">
-        <v>29</v>
+        <v>309</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B274" t="s">
-        <v>29</v>
+        <v>316</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B275" t="s">
         <v>29</v>
@@ -5401,7 +5407,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B276" t="s">
         <v>29</v>
@@ -5409,7 +5415,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B277" t="s">
         <v>29</v>
@@ -5417,7 +5423,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B278" t="s">
         <v>29</v>
@@ -5425,7 +5431,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B279" t="s">
         <v>29</v>
@@ -5433,31 +5439,31 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B280" t="s">
-        <v>325</v>
+        <v>29</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B281" t="s">
-        <v>327</v>
+        <v>29</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B282" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B283" t="s">
         <v>327</v>
@@ -5465,39 +5471,39 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B284" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B285" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B286" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B287" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B288" t="s">
         <v>334</v>
@@ -5505,7 +5511,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B289" t="s">
         <v>334</v>
@@ -5513,7 +5519,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B290" t="s">
         <v>334</v>
@@ -5521,7 +5527,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B291" t="s">
         <v>334</v>
@@ -5529,39 +5535,39 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B292" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B293" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B294" t="s">
-        <v>61</v>
+        <v>341</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B295" t="s">
-        <v>61</v>
+        <v>341</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B296" t="s">
         <v>61</v>
@@ -5569,55 +5575,55 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B297" t="s">
-        <v>347</v>
+        <v>61</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B298" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B299" t="s">
-        <v>72</v>
+        <v>347</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B300" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B301" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B302" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B303" t="s">
         <v>10</v>
@@ -5625,7 +5631,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B304" t="s">
         <v>10</v>
@@ -5633,47 +5639,47 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B305" t="s">
-        <v>356</v>
+        <v>10</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B306" t="s">
-        <v>356</v>
+        <v>10</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B307" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B308" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B309" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B310" t="s">
         <v>361</v>
@@ -5681,7 +5687,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B311" t="s">
         <v>361</v>
@@ -5689,23 +5695,23 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B312" t="s">
-        <v>68</v>
+        <v>361</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B313" t="s">
-        <v>68</v>
+        <v>361</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B314" t="s">
         <v>68</v>
@@ -5713,7 +5719,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B315" t="s">
         <v>68</v>
@@ -5721,23 +5727,23 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B316" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B317" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B318" t="s">
         <v>55</v>
@@ -5745,7 +5751,7 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B319" t="s">
         <v>55</v>
@@ -5753,23 +5759,23 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B320" t="s">
-        <v>374</v>
+        <v>55</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B321" t="s">
-        <v>374</v>
+        <v>55</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B322" t="s">
         <v>374</v>
@@ -5777,39 +5783,39 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B323" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B324" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B325" t="s">
-        <v>35</v>
+        <v>378</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B326" t="s">
-        <v>35</v>
+        <v>378</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B327" t="s">
         <v>35</v>
@@ -5817,7 +5823,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B328" t="s">
         <v>35</v>
@@ -5825,7 +5831,7 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B329" t="s">
         <v>35</v>
@@ -5833,23 +5839,23 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B330" t="s">
-        <v>386</v>
+        <v>35</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B331" t="s">
-        <v>386</v>
+        <v>35</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B332" t="s">
         <v>386</v>
@@ -5857,7 +5863,7 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B333" t="s">
         <v>386</v>
@@ -5865,55 +5871,55 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B334" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B335" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B336" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B337" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B338" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B339" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B340" t="s">
         <v>397</v>
@@ -5921,23 +5927,23 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B341" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B342" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B343" t="s">
         <v>401</v>
@@ -5945,7 +5951,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B344" t="s">
         <v>401</v>
@@ -5953,7 +5959,7 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B345" t="s">
         <v>401</v>
@@ -5961,7 +5967,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B346" t="s">
         <v>401</v>
@@ -5969,23 +5975,23 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B347" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B348" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B349" t="s">
         <v>408</v>
@@ -5993,7 +5999,7 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B350" t="s">
         <v>408</v>
@@ -6001,23 +6007,23 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B351" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B352" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B353" t="s">
         <v>413</v>
@@ -6025,7 +6031,7 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B354" t="s">
         <v>413</v>
@@ -6033,23 +6039,23 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B355" t="s">
-        <v>66</v>
+        <v>413</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B356" t="s">
-        <v>66</v>
+        <v>413</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B357" t="s">
         <v>66</v>
@@ -6057,7 +6063,7 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B358" t="s">
         <v>66</v>
@@ -6065,7 +6071,7 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B359" t="s">
         <v>66</v>
@@ -6073,7 +6079,7 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B360" t="s">
         <v>66</v>
@@ -6081,7 +6087,7 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B361" t="s">
         <v>66</v>
@@ -6089,23 +6095,23 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>931</v>
+        <v>422</v>
       </c>
       <c r="B362" t="s">
-        <v>425</v>
+        <v>66</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B363" t="s">
-        <v>425</v>
+        <v>66</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>426</v>
+        <v>931</v>
       </c>
       <c r="B364" t="s">
         <v>425</v>
@@ -6113,7 +6119,7 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B365" t="s">
         <v>425</v>
@@ -6121,23 +6127,23 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B366" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B367" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B368" t="s">
         <v>429</v>
@@ -6145,23 +6151,23 @@
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B369" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B370" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B371" t="s">
         <v>433</v>
@@ -6169,7 +6175,7 @@
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B372" t="s">
         <v>433</v>
@@ -6177,23 +6183,23 @@
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B373" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B374" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B375" t="s">
         <v>438</v>
@@ -6201,7 +6207,7 @@
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B376" t="s">
         <v>438</v>
@@ -6209,23 +6215,23 @@
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B377" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B378" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B379" t="s">
         <v>443</v>
@@ -6233,7 +6239,7 @@
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B380" t="s">
         <v>443</v>
@@ -6241,7 +6247,7 @@
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B381" t="s">
         <v>443</v>
@@ -6249,7 +6255,7 @@
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B382" t="s">
         <v>443</v>
@@ -6257,7 +6263,7 @@
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B383" t="s">
         <v>443</v>
@@ -6265,7 +6271,7 @@
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B384" t="s">
         <v>443</v>
@@ -6273,23 +6279,23 @@
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B385" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B386" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B387" t="s">
         <v>452</v>
@@ -6297,23 +6303,23 @@
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B388" t="s">
-        <v>43</v>
+        <v>452</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B389" t="s">
-        <v>43</v>
+        <v>452</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B390" t="s">
         <v>43</v>
@@ -6321,7 +6327,7 @@
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B391" t="s">
         <v>43</v>
@@ -6329,7 +6335,7 @@
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B392" t="s">
         <v>43</v>
@@ -6337,7 +6343,7 @@
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B393" t="s">
         <v>43</v>
@@ -6345,7 +6351,7 @@
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B394" t="s">
         <v>43</v>
@@ -6353,23 +6359,23 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B395" t="s">
-        <v>463</v>
+        <v>43</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B396" t="s">
-        <v>463</v>
+        <v>43</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B397" t="s">
         <v>463</v>
@@ -6377,7 +6383,7 @@
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B398" t="s">
         <v>463</v>
@@ -6385,31 +6391,31 @@
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B399" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B400" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B401" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B402" t="s">
         <v>470</v>
@@ -6417,7 +6423,7 @@
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B403" t="s">
         <v>470</v>
@@ -6425,7 +6431,7 @@
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B404" t="s">
         <v>470</v>
@@ -6433,7 +6439,7 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B405" t="s">
         <v>470</v>
@@ -6441,39 +6447,39 @@
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B406" t="s">
-        <v>37</v>
+        <v>470</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B407" t="s">
-        <v>37</v>
+        <v>470</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B408" t="s">
-        <v>479</v>
+        <v>37</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B409" t="s">
-        <v>479</v>
+        <v>37</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B410" t="s">
         <v>479</v>
@@ -6481,7 +6487,7 @@
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B411" t="s">
         <v>479</v>
@@ -6489,7 +6495,7 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B412" t="s">
         <v>479</v>
@@ -6497,39 +6503,39 @@
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B413" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B414" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B415" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B416" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B417" t="s">
         <v>488</v>
@@ -6537,39 +6543,39 @@
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B418" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B419" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B420" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B421" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B422" t="s">
         <v>495</v>
@@ -6577,23 +6583,23 @@
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B423" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B424" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B425" t="s">
         <v>499</v>
@@ -6601,7 +6607,7 @@
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B426" t="s">
         <v>499</v>
@@ -6609,71 +6615,71 @@
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B427" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B428" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B429" t="s">
-        <v>26</v>
+        <v>504</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B430" t="s">
-        <v>26</v>
+        <v>504</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B431" t="s">
-        <v>509</v>
+        <v>26</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B432" t="s">
-        <v>509</v>
+        <v>26</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B433" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B434" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B435" t="s">
         <v>512</v>
@@ -6681,39 +6687,39 @@
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B436" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B437" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B438" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B439" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B440" t="s">
         <v>519</v>
@@ -6721,23 +6727,23 @@
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B441" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B442" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B443" t="s">
         <v>523</v>
@@ -6745,7 +6751,7 @@
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B444" t="s">
         <v>523</v>
@@ -6753,23 +6759,23 @@
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B445" t="s">
-        <v>17</v>
+        <v>523</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B446" t="s">
-        <v>17</v>
+        <v>523</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B447" t="s">
         <v>17</v>
@@ -6777,7 +6783,7 @@
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B448" t="s">
         <v>17</v>
@@ -6785,39 +6791,39 @@
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B449" t="s">
-        <v>532</v>
+        <v>17</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B450" t="s">
-        <v>534</v>
+        <v>17</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B451" t="s">
-        <v>495</v>
+        <v>532</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B452" t="s">
-        <v>495</v>
+        <v>534</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B453" t="s">
         <v>495</v>
@@ -6825,23 +6831,23 @@
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B454" t="s">
-        <v>539</v>
+        <v>495</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B455" t="s">
-        <v>539</v>
+        <v>495</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B456" t="s">
         <v>539</v>
@@ -6849,31 +6855,31 @@
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B457" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B458" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B459" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B460" t="s">
         <v>545</v>
@@ -6881,7 +6887,7 @@
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B461" t="s">
         <v>545</v>
@@ -6889,23 +6895,23 @@
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B462" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B463" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B464" t="s">
         <v>550</v>
@@ -6913,7 +6919,7 @@
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B465" t="s">
         <v>550</v>
@@ -6921,7 +6927,7 @@
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B466" t="s">
         <v>550</v>
@@ -6929,7 +6935,7 @@
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B467" t="s">
         <v>550</v>
@@ -6937,7 +6943,7 @@
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B468" t="s">
         <v>550</v>
@@ -6945,23 +6951,23 @@
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B469" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B470" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B471" t="s">
         <v>558</v>
@@ -6969,7 +6975,7 @@
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B472" t="s">
         <v>558</v>
@@ -6977,55 +6983,55 @@
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B473" t="s">
-        <v>16</v>
+        <v>558</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B474" t="s">
-        <v>16</v>
+        <v>558</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B475" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B476" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B477" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B478" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B479" t="s">
         <v>64</v>
@@ -7033,47 +7039,47 @@
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B480" t="s">
-        <v>570</v>
+        <v>64</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B481" t="s">
-        <v>570</v>
+        <v>64</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B482" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B483" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B484" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B485" t="s">
         <v>575</v>
@@ -7081,23 +7087,23 @@
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B486" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B487" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B488" t="s">
         <v>579</v>
@@ -7105,7 +7111,7 @@
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B489" t="s">
         <v>579</v>
@@ -7113,47 +7119,47 @@
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B490" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B491" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B492" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B493" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B494" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B495" t="s">
         <v>589</v>
@@ -7161,7 +7167,7 @@
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B496" t="s">
         <v>589</v>
@@ -7169,7 +7175,7 @@
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B497" t="s">
         <v>589</v>
@@ -7177,7 +7183,7 @@
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B498" t="s">
         <v>589</v>
@@ -7185,23 +7191,23 @@
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B499" t="s">
-        <v>45</v>
+        <v>589</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B500" t="s">
-        <v>45</v>
+        <v>589</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B501" t="s">
         <v>45</v>
@@ -7209,39 +7215,39 @@
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B502" t="s">
-        <v>599</v>
+        <v>45</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B503" t="s">
-        <v>599</v>
+        <v>45</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B504" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B505" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B506" t="s">
         <v>602</v>
@@ -7249,7 +7255,7 @@
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B507" t="s">
         <v>602</v>
@@ -7257,7 +7263,7 @@
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B508" t="s">
         <v>602</v>
@@ -7265,7 +7271,7 @@
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B509" t="s">
         <v>602</v>
@@ -7273,7 +7279,7 @@
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B510" t="s">
         <v>602</v>
@@ -7281,55 +7287,55 @@
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B511" t="s">
-        <v>13</v>
+        <v>602</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B512" t="s">
-        <v>13</v>
+        <v>602</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B513" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B514" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B515" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B516" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B517" t="s">
         <v>46</v>
@@ -7337,55 +7343,55 @@
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B518" t="s">
-        <v>617</v>
+        <v>46</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B519" t="s">
-        <v>617</v>
+        <v>46</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B520" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B521" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B522" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B523" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B524" t="s">
         <v>623</v>
@@ -7393,63 +7399,63 @@
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B525" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B526" t="s">
-        <v>11</v>
+        <v>623</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B527" t="s">
-        <v>11</v>
+        <v>627</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B528" t="s">
-        <v>631</v>
+        <v>11</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B529" t="s">
-        <v>631</v>
+        <v>11</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B530" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B531" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B532" t="s">
         <v>634</v>
@@ -7457,23 +7463,23 @@
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B533" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B534" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B535" t="s">
         <v>638</v>
@@ -7481,39 +7487,39 @@
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B536" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B537" t="s">
-        <v>40</v>
+        <v>638</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B538" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B539" t="s">
-        <v>645</v>
+        <v>40</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B540" t="s">
         <v>645</v>
@@ -7521,23 +7527,23 @@
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B541" t="s">
-        <v>19</v>
+        <v>645</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B542" t="s">
-        <v>19</v>
+        <v>645</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B543" t="s">
         <v>19</v>
@@ -7545,7 +7551,7 @@
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B544" t="s">
         <v>19</v>
@@ -7553,7 +7559,7 @@
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B545" t="s">
         <v>19</v>
@@ -7561,31 +7567,31 @@
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B546" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B547" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B548" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B549" t="s">
         <v>23</v>
@@ -7593,39 +7599,39 @@
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B550" t="s">
-        <v>658</v>
+        <v>23</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B551" t="s">
-        <v>658</v>
+        <v>23</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B552" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B553" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B554" t="s">
         <v>661</v>
@@ -7633,47 +7639,47 @@
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B555" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B556" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="B557" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="B558" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="B559" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B560" t="s">
         <v>671</v>
@@ -7681,23 +7687,23 @@
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B561" t="s">
-        <v>39</v>
+        <v>671</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B562" t="s">
-        <v>39</v>
+        <v>671</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B563" t="s">
         <v>39</v>
@@ -7705,7 +7711,7 @@
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B564" t="s">
         <v>39</v>
@@ -7713,23 +7719,23 @@
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B565" t="s">
-        <v>679</v>
+        <v>39</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="B566" t="s">
-        <v>679</v>
+        <v>39</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B567" t="s">
         <v>679</v>
@@ -7737,7 +7743,7 @@
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B568" t="s">
         <v>679</v>
@@ -7745,7 +7751,7 @@
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B569" t="s">
         <v>679</v>
@@ -7753,31 +7759,31 @@
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B570" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="B571" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="B572" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B573" t="s">
         <v>687</v>
@@ -7785,135 +7791,135 @@
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B574" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="B575" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="B576" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="B577" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="B578" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="B579" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="B580" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="B581" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B582" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="B583" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B584" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="B585" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="B586" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="B587" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="B588" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="B589" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="B590" t="s">
         <v>714</v>
@@ -7921,7 +7927,7 @@
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B591" t="s">
         <v>714</v>
@@ -7929,7 +7935,7 @@
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B592" t="s">
         <v>714</v>
@@ -7937,71 +7943,71 @@
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B593" t="s">
-        <v>32</v>
+        <v>714</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B594" t="s">
-        <v>32</v>
+        <v>714</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B595" t="s">
-        <v>722</v>
+        <v>32</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="B596" t="s">
-        <v>724</v>
+        <v>32</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="B597" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="B598" t="s">
-        <v>206</v>
+        <v>724</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B599" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="B600" t="s">
-        <v>728</v>
+        <v>206</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="B601" t="s">
         <v>728</v>
@@ -8009,39 +8015,39 @@
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B602" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="B603" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="B604" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B605" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="B606" t="s">
         <v>735</v>
@@ -8049,7 +8055,7 @@
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B607" t="s">
         <v>735</v>
@@ -8057,7 +8063,7 @@
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B608" t="s">
         <v>735</v>
@@ -8065,23 +8071,23 @@
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B609" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="B610" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="B611" t="s">
         <v>741</v>
@@ -8089,7 +8095,7 @@
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B612" t="s">
         <v>741</v>
@@ -8097,39 +8103,39 @@
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B613" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="B614" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="B615" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="B616" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="B617" t="s">
         <v>749</v>
@@ -8137,7 +8143,7 @@
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B618" t="s">
         <v>749</v>
@@ -8145,23 +8151,23 @@
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B619" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="B620" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="B621" t="s">
         <v>754</v>
@@ -8169,7 +8175,7 @@
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B622" t="s">
         <v>754</v>
@@ -8177,7 +8183,7 @@
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B623" t="s">
         <v>754</v>
@@ -8185,7 +8191,7 @@
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B624" t="s">
         <v>754</v>
@@ -8193,7 +8199,7 @@
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B625" t="s">
         <v>754</v>
@@ -8201,143 +8207,143 @@
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B626" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="B627" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="B628" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="B629" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="B630" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="B631" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="B632" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="B633" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="B634" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="B635" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="B636" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="B637" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="B638" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="B639" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="B640" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="B641" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="B642" t="s">
-        <v>34</v>
+        <v>786</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B643" t="s">
         <v>34</v>
@@ -8345,7 +8351,7 @@
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B644" t="s">
         <v>34</v>
@@ -8353,7 +8359,7 @@
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B645" t="s">
         <v>34</v>
@@ -8361,31 +8367,31 @@
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B646" t="s">
-        <v>793</v>
+        <v>34</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="B647" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="B648" t="s">
-        <v>7</v>
+        <v>793</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B649" t="s">
         <v>7</v>
@@ -8393,39 +8399,39 @@
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
-        <v>609</v>
+        <v>795</v>
       </c>
       <c r="B650" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B651" t="s">
-        <v>703</v>
+        <v>7</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
-        <v>798</v>
+        <v>609</v>
       </c>
       <c r="B652" t="s">
-        <v>799</v>
+        <v>13</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="B653" t="s">
-        <v>799</v>
+        <v>703</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="B654" t="s">
         <v>799</v>
@@ -8433,287 +8439,287 @@
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B655" t="s">
-        <v>271</v>
+        <v>799</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B656" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="B657" t="s">
-        <v>806</v>
+        <v>271</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="B658" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="B659" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="B660" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="B661" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="B662" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="B663" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="B664" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="B665" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="B666" t="s">
-        <v>519</v>
+        <v>818</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B667" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="B668" t="s">
-        <v>35</v>
+        <v>519</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B669" t="s">
-        <v>37</v>
+        <v>822</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B670" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B671" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B672" t="s">
-        <v>708</v>
+        <v>3</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B673" t="s">
-        <v>523</v>
+        <v>81</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B674" t="s">
-        <v>44</v>
+        <v>708</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B675" t="s">
-        <v>5</v>
+        <v>523</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B676" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B677" t="s">
-        <v>140</v>
+        <v>5</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B678" t="s">
-        <v>179</v>
+        <v>72</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B679" t="s">
-        <v>698</v>
+        <v>140</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B680" t="s">
-        <v>374</v>
+        <v>179</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B681" t="s">
-        <v>190</v>
+        <v>698</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B682" t="s">
-        <v>575</v>
+        <v>374</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B683" t="s">
-        <v>543</v>
+        <v>190</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B684" t="s">
-        <v>452</v>
+        <v>575</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B685" t="s">
-        <v>509</v>
+        <v>543</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B686" t="s">
-        <v>599</v>
+        <v>452</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B687" t="s">
-        <v>49</v>
+        <v>509</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B688" t="s">
-        <v>844</v>
+        <v>599</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B689" t="s">
-        <v>846</v>
+        <v>49</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="B690" t="s">
         <v>844</v>
@@ -8721,15 +8727,15 @@
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="B691" t="s">
-        <v>13</v>
+        <v>846</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B692" t="s">
         <v>844</v>
@@ -8737,15 +8743,15 @@
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B693" t="s">
-        <v>846</v>
+        <v>13</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B694" t="s">
         <v>844</v>
@@ -8753,545 +8759,561 @@
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B695" t="s">
-        <v>728</v>
+        <v>846</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B696" t="s">
-        <v>691</v>
+        <v>844</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B697" t="s">
-        <v>209</v>
+        <v>728</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B698" t="s">
-        <v>856</v>
+        <v>691</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B699" t="s">
-        <v>858</v>
+        <v>209</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="B700" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="B701" t="s">
-        <v>69</v>
+        <v>858</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
-        <v>755</v>
+        <v>859</v>
       </c>
       <c r="B702" t="s">
-        <v>754</v>
+        <v>860</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B703" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
-        <v>863</v>
+        <v>755</v>
       </c>
       <c r="B704" t="s">
-        <v>864</v>
+        <v>754</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="B705" t="s">
-        <v>617</v>
+        <v>45</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="B706" t="s">
-        <v>51</v>
+        <v>864</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B707" t="s">
-        <v>51</v>
+        <v>617</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B708" t="s">
-        <v>869</v>
+        <v>51</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="B709" t="s">
-        <v>864</v>
+        <v>51</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="B710" t="s">
-        <v>864</v>
+        <v>869</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B711" t="s">
-        <v>732</v>
+        <v>864</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B712" t="s">
-        <v>69</v>
+        <v>864</v>
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B713" t="s">
-        <v>3</v>
+        <v>732</v>
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B714" t="s">
-        <v>876</v>
+        <v>69</v>
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B715" t="s">
-        <v>878</v>
+        <v>3</v>
       </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="B716" t="s">
-        <v>818</v>
+        <v>876</v>
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="B717" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="B718" t="s">
-        <v>881</v>
+        <v>818</v>
       </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="B719" t="s">
-        <v>749</v>
+        <v>881</v>
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B720" t="s">
-        <v>856</v>
+        <v>881</v>
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B721" t="s">
-        <v>844</v>
+        <v>749</v>
       </c>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B722" t="s">
-        <v>76</v>
+        <v>856</v>
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B723" t="s">
-        <v>888</v>
+        <v>844</v>
       </c>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="B724" t="s">
-        <v>869</v>
+        <v>76</v>
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="B725" t="s">
-        <v>51</v>
+        <v>888</v>
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B726" t="s">
-        <v>881</v>
+        <v>869</v>
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B727" t="s">
-        <v>881</v>
+        <v>51</v>
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B728" t="s">
-        <v>844</v>
+        <v>881</v>
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B729" t="s">
-        <v>69</v>
+        <v>881</v>
       </c>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B730" t="s">
-        <v>881</v>
+        <v>844</v>
       </c>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B731" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B732" t="s">
-        <v>7</v>
+        <v>881</v>
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B733" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B734" t="s">
-        <v>864</v>
+        <v>7</v>
       </c>
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B735" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A736" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B736" t="s">
-        <v>479</v>
+        <v>864</v>
       </c>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A737" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B737" t="s">
-        <v>864</v>
+        <v>69</v>
       </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A738" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B738" t="s">
-        <v>881</v>
+        <v>479</v>
       </c>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B739" t="s">
-        <v>115</v>
+        <v>864</v>
       </c>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B740" t="s">
-        <v>728</v>
+        <v>881</v>
       </c>
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B741" t="s">
-        <v>190</v>
+        <v>115</v>
       </c>
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B742" t="s">
-        <v>51</v>
+        <v>728</v>
       </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B743" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B744" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B745" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B746" t="s">
-        <v>844</v>
+        <v>57</v>
       </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="B747" t="s">
-        <v>153</v>
+        <v>57</v>
       </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B748" t="s">
-        <v>914</v>
+        <v>844</v>
       </c>
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="B749" t="s">
-        <v>881</v>
+        <v>153</v>
       </c>
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A750" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="B750" t="s">
-        <v>881</v>
+        <v>914</v>
       </c>
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B751" t="s">
-        <v>811</v>
+        <v>881</v>
       </c>
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A752" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B752" t="s">
-        <v>846</v>
+        <v>881</v>
       </c>
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B753" t="s">
-        <v>64</v>
+        <v>811</v>
       </c>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B754" t="s">
-        <v>728</v>
+        <v>846</v>
       </c>
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B755" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="B756" t="s">
-        <v>71</v>
+        <v>728</v>
       </c>
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
-        <v>587</v>
+        <v>921</v>
       </c>
       <c r="B757" t="s">
-        <v>587</v>
+        <v>34</v>
       </c>
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B758" t="s">
-        <v>587</v>
+        <v>71</v>
       </c>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
-        <v>924</v>
+        <v>587</v>
       </c>
       <c r="B759" t="s">
-        <v>925</v>
+        <v>587</v>
       </c>
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A760" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="B760" t="s">
-        <v>185</v>
+        <v>587</v>
       </c>
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="B761" t="s">
-        <v>54</v>
+        <v>925</v>
       </c>
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A762" t="s">
+        <v>926</v>
+      </c>
+      <c r="B762" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A763" t="s">
+        <v>927</v>
+      </c>
+      <c r="B763" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A764" t="s">
         <v>928</v>
       </c>
-      <c r="B762" t="s">
+      <c r="B764" t="s">
         <v>42</v>
       </c>
     </row>

--- a/data/interim/crosswalk.xlsx
+++ b/data/interim/crosswalk.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/LocalWork/DataVisualizations/asbestos-dashboard/asbestos-dashboard-data/data/interim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8838C26-FF92-0F45-ADC6-F360C4571E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F5574B-752F-E14A-9625-7DBC8F10D193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="934">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="935">
   <si>
     <t>facility_name</t>
   </si>
@@ -2822,6 +2822,9 @@
   </si>
   <si>
     <t>ROXBOROUGH HS FIELD HOUSE</t>
+  </si>
+  <si>
+    <t>Fox Chase ES</t>
   </si>
 </sst>
 </file>
@@ -3193,10 +3196,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B764"/>
+  <dimension ref="A1:B765"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A183" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A197" sqref="A197"/>
+    <sheetView tabSelected="1" topLeftCell="A233" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A249" sqref="A249:B249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5191,7 +5194,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>287</v>
+        <v>934</v>
       </c>
       <c r="B249" t="s">
         <v>285</v>
@@ -5199,15 +5202,15 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B250" t="s">
-        <v>48</v>
+        <v>285</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B251" t="s">
         <v>48</v>
@@ -5215,7 +5218,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B252" t="s">
         <v>48</v>
@@ -5223,15 +5226,15 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B253" t="s">
-        <v>292</v>
+        <v>48</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B254" t="s">
         <v>292</v>
@@ -5239,7 +5242,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B255" t="s">
         <v>292</v>
@@ -5247,7 +5250,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B256" t="s">
         <v>292</v>
@@ -5255,7 +5258,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B257" t="s">
         <v>292</v>
@@ -5263,7 +5266,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B258" t="s">
         <v>292</v>
@@ -5271,7 +5274,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B259" t="s">
         <v>292</v>
@@ -5279,7 +5282,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B260" t="s">
         <v>292</v>
@@ -5287,7 +5290,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B261" t="s">
         <v>292</v>
@@ -5295,7 +5298,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B262" t="s">
         <v>292</v>
@@ -5303,7 +5306,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B263" t="s">
         <v>292</v>
@@ -5311,7 +5314,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B264" t="s">
         <v>292</v>
@@ -5319,7 +5322,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B265" t="s">
         <v>292</v>
@@ -5327,15 +5330,15 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B266" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B267" t="s">
         <v>306</v>
@@ -5343,15 +5346,15 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B268" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B269" t="s">
         <v>309</v>
@@ -5359,7 +5362,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B270" t="s">
         <v>309</v>
@@ -5367,7 +5370,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B271" t="s">
         <v>309</v>
@@ -5375,7 +5378,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B272" t="s">
         <v>309</v>
@@ -5383,7 +5386,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B273" t="s">
         <v>309</v>
@@ -5391,23 +5394,23 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B274" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B275" t="s">
-        <v>29</v>
+        <v>316</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B276" t="s">
         <v>29</v>
@@ -5415,7 +5418,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B277" t="s">
         <v>29</v>
@@ -5423,7 +5426,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B278" t="s">
         <v>29</v>
@@ -5431,7 +5434,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B279" t="s">
         <v>29</v>
@@ -5439,7 +5442,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B280" t="s">
         <v>29</v>
@@ -5447,7 +5450,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B281" t="s">
         <v>29</v>
@@ -5455,23 +5458,23 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B282" t="s">
-        <v>325</v>
+        <v>29</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B283" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B284" t="s">
         <v>327</v>
@@ -5479,7 +5482,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B285" t="s">
         <v>327</v>
@@ -5487,15 +5490,15 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B286" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B287" t="s">
         <v>331</v>
@@ -5503,15 +5506,15 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B288" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B289" t="s">
         <v>334</v>
@@ -5519,7 +5522,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B290" t="s">
         <v>334</v>
@@ -5527,7 +5530,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B291" t="s">
         <v>334</v>
@@ -5535,7 +5538,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B292" t="s">
         <v>334</v>
@@ -5543,7 +5546,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B293" t="s">
         <v>334</v>
@@ -5551,15 +5554,15 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B294" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B295" t="s">
         <v>341</v>
@@ -5567,15 +5570,15 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B296" t="s">
-        <v>61</v>
+        <v>341</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B297" t="s">
         <v>61</v>
@@ -5583,7 +5586,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B298" t="s">
         <v>61</v>
@@ -5591,31 +5594,31 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B299" t="s">
-        <v>347</v>
+        <v>61</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B300" t="s">
-        <v>44</v>
+        <v>347</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B301" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B302" t="s">
         <v>72</v>
@@ -5623,15 +5626,15 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B303" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B304" t="s">
         <v>10</v>
@@ -5639,7 +5642,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B305" t="s">
         <v>10</v>
@@ -5647,7 +5650,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B306" t="s">
         <v>10</v>
@@ -5655,15 +5658,15 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B307" t="s">
-        <v>356</v>
+        <v>10</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B308" t="s">
         <v>356</v>
@@ -5671,23 +5674,23 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B309" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B310" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B311" t="s">
         <v>361</v>
@@ -5695,7 +5698,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B312" t="s">
         <v>361</v>
@@ -5703,7 +5706,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B313" t="s">
         <v>361</v>
@@ -5711,15 +5714,15 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B314" t="s">
-        <v>68</v>
+        <v>361</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B315" t="s">
         <v>68</v>
@@ -5727,7 +5730,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B316" t="s">
         <v>68</v>
@@ -5735,7 +5738,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B317" t="s">
         <v>68</v>
@@ -5743,15 +5746,15 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B318" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B319" t="s">
         <v>55</v>
@@ -5759,7 +5762,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B320" t="s">
         <v>55</v>
@@ -5767,7 +5770,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B321" t="s">
         <v>55</v>
@@ -5775,15 +5778,15 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B322" t="s">
-        <v>374</v>
+        <v>55</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B323" t="s">
         <v>374</v>
@@ -5791,7 +5794,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B324" t="s">
         <v>374</v>
@@ -5799,15 +5802,15 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B325" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B326" t="s">
         <v>378</v>
@@ -5815,15 +5818,15 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B327" t="s">
-        <v>35</v>
+        <v>378</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B328" t="s">
         <v>35</v>
@@ -5831,7 +5834,7 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B329" t="s">
         <v>35</v>
@@ -5839,7 +5842,7 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B330" t="s">
         <v>35</v>
@@ -5847,7 +5850,7 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B331" t="s">
         <v>35</v>
@@ -5855,15 +5858,15 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B332" t="s">
-        <v>386</v>
+        <v>35</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B333" t="s">
         <v>386</v>
@@ -5871,7 +5874,7 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B334" t="s">
         <v>386</v>
@@ -5879,7 +5882,7 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B335" t="s">
         <v>386</v>
@@ -5887,15 +5890,15 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B336" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B337" t="s">
         <v>391</v>
@@ -5903,15 +5906,15 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B338" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B339" t="s">
         <v>394</v>
@@ -5919,15 +5922,15 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B340" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B341" t="s">
         <v>397</v>
@@ -5935,7 +5938,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B342" t="s">
         <v>397</v>
@@ -5943,15 +5946,15 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B343" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B344" t="s">
         <v>401</v>
@@ -5959,7 +5962,7 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B345" t="s">
         <v>401</v>
@@ -5967,7 +5970,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B346" t="s">
         <v>401</v>
@@ -5975,7 +5978,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B347" t="s">
         <v>401</v>
@@ -5983,7 +5986,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B348" t="s">
         <v>401</v>
@@ -5991,15 +5994,15 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B349" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B350" t="s">
         <v>408</v>
@@ -6007,7 +6010,7 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B351" t="s">
         <v>408</v>
@@ -6015,7 +6018,7 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B352" t="s">
         <v>408</v>
@@ -6023,15 +6026,15 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B353" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B354" t="s">
         <v>413</v>
@@ -6039,7 +6042,7 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B355" t="s">
         <v>413</v>
@@ -6047,7 +6050,7 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B356" t="s">
         <v>413</v>
@@ -6055,15 +6058,15 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B357" t="s">
-        <v>66</v>
+        <v>413</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B358" t="s">
         <v>66</v>
@@ -6071,7 +6074,7 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B359" t="s">
         <v>66</v>
@@ -6079,7 +6082,7 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B360" t="s">
         <v>66</v>
@@ -6087,7 +6090,7 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B361" t="s">
         <v>66</v>
@@ -6095,7 +6098,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B362" t="s">
         <v>66</v>
@@ -6103,7 +6106,7 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B363" t="s">
         <v>66</v>
@@ -6111,15 +6114,15 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>931</v>
+        <v>423</v>
       </c>
       <c r="B364" t="s">
-        <v>425</v>
+        <v>66</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>424</v>
+        <v>931</v>
       </c>
       <c r="B365" t="s">
         <v>425</v>
@@ -6127,7 +6130,7 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B366" t="s">
         <v>425</v>
@@ -6135,7 +6138,7 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B367" t="s">
         <v>425</v>
@@ -6143,15 +6146,15 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B368" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B369" t="s">
         <v>429</v>
@@ -6159,7 +6162,7 @@
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B370" t="s">
         <v>429</v>
@@ -6167,15 +6170,15 @@
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B371" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B372" t="s">
         <v>433</v>
@@ -6183,7 +6186,7 @@
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B373" t="s">
         <v>433</v>
@@ -6191,7 +6194,7 @@
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B374" t="s">
         <v>433</v>
@@ -6199,15 +6202,15 @@
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B375" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B376" t="s">
         <v>438</v>
@@ -6215,7 +6218,7 @@
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B377" t="s">
         <v>438</v>
@@ -6223,7 +6226,7 @@
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B378" t="s">
         <v>438</v>
@@ -6231,15 +6234,15 @@
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B379" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B380" t="s">
         <v>443</v>
@@ -6247,7 +6250,7 @@
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B381" t="s">
         <v>443</v>
@@ -6255,7 +6258,7 @@
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B382" t="s">
         <v>443</v>
@@ -6263,7 +6266,7 @@
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B383" t="s">
         <v>443</v>
@@ -6271,7 +6274,7 @@
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B384" t="s">
         <v>443</v>
@@ -6279,7 +6282,7 @@
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B385" t="s">
         <v>443</v>
@@ -6287,7 +6290,7 @@
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B386" t="s">
         <v>443</v>
@@ -6295,15 +6298,15 @@
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B387" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B388" t="s">
         <v>452</v>
@@ -6311,7 +6314,7 @@
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B389" t="s">
         <v>452</v>
@@ -6319,15 +6322,15 @@
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B390" t="s">
-        <v>43</v>
+        <v>452</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B391" t="s">
         <v>43</v>
@@ -6335,7 +6338,7 @@
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B392" t="s">
         <v>43</v>
@@ -6343,7 +6346,7 @@
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B393" t="s">
         <v>43</v>
@@ -6351,7 +6354,7 @@
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B394" t="s">
         <v>43</v>
@@ -6359,7 +6362,7 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B395" t="s">
         <v>43</v>
@@ -6367,7 +6370,7 @@
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B396" t="s">
         <v>43</v>
@@ -6375,15 +6378,15 @@
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B397" t="s">
-        <v>463</v>
+        <v>43</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B398" t="s">
         <v>463</v>
@@ -6391,7 +6394,7 @@
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B399" t="s">
         <v>463</v>
@@ -6399,7 +6402,7 @@
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B400" t="s">
         <v>463</v>
@@ -6407,23 +6410,23 @@
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B401" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B402" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B403" t="s">
         <v>470</v>
@@ -6431,7 +6434,7 @@
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B404" t="s">
         <v>470</v>
@@ -6439,7 +6442,7 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B405" t="s">
         <v>470</v>
@@ -6447,7 +6450,7 @@
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B406" t="s">
         <v>470</v>
@@ -6455,7 +6458,7 @@
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B407" t="s">
         <v>470</v>
@@ -6463,15 +6466,15 @@
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B408" t="s">
-        <v>37</v>
+        <v>470</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B409" t="s">
         <v>37</v>
@@ -6479,15 +6482,15 @@
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B410" t="s">
-        <v>479</v>
+        <v>37</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B411" t="s">
         <v>479</v>
@@ -6495,7 +6498,7 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B412" t="s">
         <v>479</v>
@@ -6503,7 +6506,7 @@
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B413" t="s">
         <v>479</v>
@@ -6511,7 +6514,7 @@
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B414" t="s">
         <v>479</v>
@@ -6519,15 +6522,15 @@
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B415" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B416" t="s">
         <v>485</v>
@@ -6535,15 +6538,15 @@
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B417" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B418" t="s">
         <v>488</v>
@@ -6551,7 +6554,7 @@
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B419" t="s">
         <v>488</v>
@@ -6559,15 +6562,15 @@
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B420" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B421" t="s">
         <v>492</v>
@@ -6575,15 +6578,15 @@
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B422" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B423" t="s">
         <v>495</v>
@@ -6591,7 +6594,7 @@
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B424" t="s">
         <v>495</v>
@@ -6599,15 +6602,15 @@
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B425" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B426" t="s">
         <v>499</v>
@@ -6615,7 +6618,7 @@
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B427" t="s">
         <v>499</v>
@@ -6623,7 +6626,7 @@
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B428" t="s">
         <v>499</v>
@@ -6631,15 +6634,15 @@
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B429" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B430" t="s">
         <v>504</v>
@@ -6647,15 +6650,15 @@
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B431" t="s">
-        <v>26</v>
+        <v>504</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B432" t="s">
         <v>26</v>
@@ -6663,15 +6666,15 @@
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B433" t="s">
-        <v>509</v>
+        <v>26</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B434" t="s">
         <v>509</v>
@@ -6679,15 +6682,15 @@
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B435" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B436" t="s">
         <v>512</v>
@@ -6695,7 +6698,7 @@
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B437" t="s">
         <v>512</v>
@@ -6703,15 +6706,15 @@
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B438" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B439" t="s">
         <v>516</v>
@@ -6719,15 +6722,15 @@
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B440" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B441" t="s">
         <v>519</v>
@@ -6735,7 +6738,7 @@
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B442" t="s">
         <v>519</v>
@@ -6743,15 +6746,15 @@
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B443" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B444" t="s">
         <v>523</v>
@@ -6759,7 +6762,7 @@
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B445" t="s">
         <v>523</v>
@@ -6767,7 +6770,7 @@
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B446" t="s">
         <v>523</v>
@@ -6775,15 +6778,15 @@
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B447" t="s">
-        <v>17</v>
+        <v>523</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B448" t="s">
         <v>17</v>
@@ -6791,7 +6794,7 @@
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B449" t="s">
         <v>17</v>
@@ -6799,7 +6802,7 @@
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B450" t="s">
         <v>17</v>
@@ -6807,31 +6810,31 @@
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B451" t="s">
-        <v>532</v>
+        <v>17</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B452" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B453" t="s">
-        <v>495</v>
+        <v>534</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B454" t="s">
         <v>495</v>
@@ -6839,7 +6842,7 @@
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B455" t="s">
         <v>495</v>
@@ -6847,15 +6850,15 @@
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B456" t="s">
-        <v>539</v>
+        <v>495</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B457" t="s">
         <v>539</v>
@@ -6863,7 +6866,7 @@
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B458" t="s">
         <v>539</v>
@@ -6871,23 +6874,23 @@
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B459" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B460" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B461" t="s">
         <v>545</v>
@@ -6895,7 +6898,7 @@
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B462" t="s">
         <v>545</v>
@@ -6903,7 +6906,7 @@
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B463" t="s">
         <v>545</v>
@@ -6911,15 +6914,15 @@
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B464" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B465" t="s">
         <v>550</v>
@@ -6927,7 +6930,7 @@
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B466" t="s">
         <v>550</v>
@@ -6935,7 +6938,7 @@
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B467" t="s">
         <v>550</v>
@@ -6943,7 +6946,7 @@
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B468" t="s">
         <v>550</v>
@@ -6951,7 +6954,7 @@
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B469" t="s">
         <v>550</v>
@@ -6959,7 +6962,7 @@
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B470" t="s">
         <v>550</v>
@@ -6967,15 +6970,15 @@
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B471" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B472" t="s">
         <v>558</v>
@@ -6983,7 +6986,7 @@
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B473" t="s">
         <v>558</v>
@@ -6991,7 +6994,7 @@
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B474" t="s">
         <v>558</v>
@@ -6999,15 +7002,15 @@
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B475" t="s">
-        <v>16</v>
+        <v>558</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B476" t="s">
         <v>16</v>
@@ -7015,15 +7018,15 @@
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B477" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B478" t="s">
         <v>3</v>
@@ -7031,15 +7034,15 @@
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B479" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B480" t="s">
         <v>64</v>
@@ -7047,7 +7050,7 @@
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B481" t="s">
         <v>64</v>
@@ -7055,15 +7058,15 @@
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B482" t="s">
-        <v>570</v>
+        <v>64</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B483" t="s">
         <v>570</v>
@@ -7071,23 +7074,23 @@
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B484" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B485" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B486" t="s">
         <v>575</v>
@@ -7095,7 +7098,7 @@
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B487" t="s">
         <v>575</v>
@@ -7103,15 +7106,15 @@
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B488" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B489" t="s">
         <v>579</v>
@@ -7119,7 +7122,7 @@
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B490" t="s">
         <v>579</v>
@@ -7127,7 +7130,7 @@
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B491" t="s">
         <v>579</v>
@@ -7135,15 +7138,15 @@
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B492" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B493" t="s">
         <v>584</v>
@@ -7151,23 +7154,23 @@
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B494" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B495" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B496" t="s">
         <v>589</v>
@@ -7175,7 +7178,7 @@
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B497" t="s">
         <v>589</v>
@@ -7183,7 +7186,7 @@
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B498" t="s">
         <v>589</v>
@@ -7191,7 +7194,7 @@
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B499" t="s">
         <v>589</v>
@@ -7199,7 +7202,7 @@
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B500" t="s">
         <v>589</v>
@@ -7207,15 +7210,15 @@
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B501" t="s">
-        <v>45</v>
+        <v>589</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B502" t="s">
         <v>45</v>
@@ -7223,7 +7226,7 @@
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B503" t="s">
         <v>45</v>
@@ -7231,15 +7234,15 @@
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B504" t="s">
-        <v>599</v>
+        <v>45</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B505" t="s">
         <v>599</v>
@@ -7247,15 +7250,15 @@
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B506" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B507" t="s">
         <v>602</v>
@@ -7263,7 +7266,7 @@
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B508" t="s">
         <v>602</v>
@@ -7271,7 +7274,7 @@
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B509" t="s">
         <v>602</v>
@@ -7279,7 +7282,7 @@
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B510" t="s">
         <v>602</v>
@@ -7287,7 +7290,7 @@
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B511" t="s">
         <v>602</v>
@@ -7295,7 +7298,7 @@
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B512" t="s">
         <v>602</v>
@@ -7303,15 +7306,15 @@
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B513" t="s">
-        <v>13</v>
+        <v>602</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B514" t="s">
         <v>13</v>
@@ -7319,15 +7322,15 @@
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B515" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B516" t="s">
         <v>67</v>
@@ -7335,15 +7338,15 @@
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B517" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B518" t="s">
         <v>46</v>
@@ -7351,7 +7354,7 @@
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B519" t="s">
         <v>46</v>
@@ -7359,15 +7362,15 @@
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B520" t="s">
-        <v>617</v>
+        <v>46</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B521" t="s">
         <v>617</v>
@@ -7375,15 +7378,15 @@
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B522" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B523" t="s">
         <v>620</v>
@@ -7391,15 +7394,15 @@
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B524" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B525" t="s">
         <v>623</v>
@@ -7407,7 +7410,7 @@
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B526" t="s">
         <v>623</v>
@@ -7415,23 +7418,23 @@
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B527" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B528" t="s">
-        <v>11</v>
+        <v>627</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B529" t="s">
         <v>11</v>
@@ -7439,15 +7442,15 @@
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B530" t="s">
-        <v>631</v>
+        <v>11</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B531" t="s">
         <v>631</v>
@@ -7455,15 +7458,15 @@
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B532" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B533" t="s">
         <v>634</v>
@@ -7471,7 +7474,7 @@
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B534" t="s">
         <v>634</v>
@@ -7479,15 +7482,15 @@
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B535" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B536" t="s">
         <v>638</v>
@@ -7495,7 +7498,7 @@
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B537" t="s">
         <v>638</v>
@@ -7503,31 +7506,31 @@
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B538" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B539" t="s">
-        <v>40</v>
+        <v>642</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B540" t="s">
-        <v>645</v>
+        <v>40</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B541" t="s">
         <v>645</v>
@@ -7535,7 +7538,7 @@
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B542" t="s">
         <v>645</v>
@@ -7543,15 +7546,15 @@
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B543" t="s">
-        <v>19</v>
+        <v>645</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B544" t="s">
         <v>19</v>
@@ -7559,7 +7562,7 @@
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B545" t="s">
         <v>19</v>
@@ -7567,7 +7570,7 @@
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B546" t="s">
         <v>19</v>
@@ -7575,7 +7578,7 @@
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B547" t="s">
         <v>19</v>
@@ -7583,23 +7586,23 @@
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B548" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B549" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B550" t="s">
         <v>23</v>
@@ -7607,7 +7610,7 @@
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B551" t="s">
         <v>23</v>
@@ -7615,15 +7618,15 @@
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B552" t="s">
-        <v>658</v>
+        <v>23</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B553" t="s">
         <v>658</v>
@@ -7631,15 +7634,15 @@
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B554" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B555" t="s">
         <v>661</v>
@@ -7647,7 +7650,7 @@
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B556" t="s">
         <v>661</v>
@@ -7655,39 +7658,39 @@
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B557" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B558" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B559" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B560" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B561" t="s">
         <v>671</v>
@@ -7695,7 +7698,7 @@
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B562" t="s">
         <v>671</v>
@@ -7703,15 +7706,15 @@
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B563" t="s">
-        <v>39</v>
+        <v>671</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B564" t="s">
         <v>39</v>
@@ -7719,7 +7722,7 @@
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B565" t="s">
         <v>39</v>
@@ -7727,7 +7730,7 @@
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B566" t="s">
         <v>39</v>
@@ -7735,15 +7738,15 @@
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B567" t="s">
-        <v>679</v>
+        <v>39</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B568" t="s">
         <v>679</v>
@@ -7751,7 +7754,7 @@
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B569" t="s">
         <v>679</v>
@@ -7759,7 +7762,7 @@
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B570" t="s">
         <v>679</v>
@@ -7767,7 +7770,7 @@
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B571" t="s">
         <v>679</v>
@@ -7775,23 +7778,23 @@
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B572" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B573" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B574" t="s">
         <v>687</v>
@@ -7799,7 +7802,7 @@
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B575" t="s">
         <v>687</v>
@@ -7807,15 +7810,15 @@
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B576" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B577" t="s">
         <v>691</v>
@@ -7823,39 +7826,39 @@
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B578" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B579" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B580" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B581" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B582" t="s">
         <v>700</v>
@@ -7863,23 +7866,23 @@
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B583" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B584" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B585" t="s">
         <v>705</v>
@@ -7887,15 +7890,15 @@
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B586" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B587" t="s">
         <v>708</v>
@@ -7903,15 +7906,15 @@
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B588" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B589" t="s">
         <v>711</v>
@@ -7919,15 +7922,15 @@
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B590" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B591" t="s">
         <v>714</v>
@@ -7935,7 +7938,7 @@
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B592" t="s">
         <v>714</v>
@@ -7943,7 +7946,7 @@
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B593" t="s">
         <v>714</v>
@@ -7951,7 +7954,7 @@
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B594" t="s">
         <v>714</v>
@@ -7959,15 +7962,15 @@
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B595" t="s">
-        <v>32</v>
+        <v>714</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B596" t="s">
         <v>32</v>
@@ -7975,23 +7978,23 @@
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B597" t="s">
-        <v>722</v>
+        <v>32</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B598" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B599" t="s">
         <v>724</v>
@@ -7999,23 +8002,23 @@
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B600" t="s">
-        <v>206</v>
+        <v>724</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B601" t="s">
-        <v>728</v>
+        <v>206</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B602" t="s">
         <v>728</v>
@@ -8023,7 +8026,7 @@
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B603" t="s">
         <v>728</v>
@@ -8031,15 +8034,15 @@
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B604" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B605" t="s">
         <v>732</v>
@@ -8047,15 +8050,15 @@
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B606" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B607" t="s">
         <v>735</v>
@@ -8063,7 +8066,7 @@
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B608" t="s">
         <v>735</v>
@@ -8071,7 +8074,7 @@
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B609" t="s">
         <v>735</v>
@@ -8079,7 +8082,7 @@
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B610" t="s">
         <v>735</v>
@@ -8087,15 +8090,15 @@
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B611" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B612" t="s">
         <v>741</v>
@@ -8103,7 +8106,7 @@
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B613" t="s">
         <v>741</v>
@@ -8111,7 +8114,7 @@
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B614" t="s">
         <v>741</v>
@@ -8119,15 +8122,15 @@
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B615" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B616" t="s">
         <v>746</v>
@@ -8135,15 +8138,15 @@
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B617" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B618" t="s">
         <v>749</v>
@@ -8151,7 +8154,7 @@
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B619" t="s">
         <v>749</v>
@@ -8159,7 +8162,7 @@
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B620" t="s">
         <v>749</v>
@@ -8167,15 +8170,15 @@
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B621" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B622" t="s">
         <v>754</v>
@@ -8183,7 +8186,7 @@
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B623" t="s">
         <v>754</v>
@@ -8191,7 +8194,7 @@
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B624" t="s">
         <v>754</v>
@@ -8199,7 +8202,7 @@
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B625" t="s">
         <v>754</v>
@@ -8207,7 +8210,7 @@
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B626" t="s">
         <v>754</v>
@@ -8215,7 +8218,7 @@
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B627" t="s">
         <v>754</v>
@@ -8223,15 +8226,15 @@
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B628" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B629" t="s">
         <v>762</v>
@@ -8239,47 +8242,47 @@
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B630" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B631" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B632" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B633" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B634" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B635" t="s">
         <v>773</v>
@@ -8287,23 +8290,23 @@
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B636" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B637" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B638" t="s">
         <v>778</v>
@@ -8311,23 +8314,23 @@
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B639" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B640" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B641" t="s">
         <v>783</v>
@@ -8335,23 +8338,23 @@
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B642" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B643" t="s">
-        <v>34</v>
+        <v>786</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B644" t="s">
         <v>34</v>
@@ -8359,7 +8362,7 @@
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B645" t="s">
         <v>34</v>
@@ -8367,7 +8370,7 @@
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B646" t="s">
         <v>34</v>
@@ -8375,7 +8378,7 @@
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B647" t="s">
         <v>34</v>
@@ -8383,23 +8386,23 @@
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B648" t="s">
-        <v>793</v>
+        <v>34</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B649" t="s">
-        <v>7</v>
+        <v>793</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B650" t="s">
         <v>7</v>
@@ -8407,7 +8410,7 @@
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B651" t="s">
         <v>7</v>
@@ -8415,31 +8418,31 @@
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
-        <v>609</v>
+        <v>796</v>
       </c>
       <c r="B652" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
-        <v>797</v>
+        <v>609</v>
       </c>
       <c r="B653" t="s">
-        <v>703</v>
+        <v>13</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B654" t="s">
-        <v>799</v>
+        <v>703</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B655" t="s">
         <v>799</v>
@@ -8447,7 +8450,7 @@
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B656" t="s">
         <v>799</v>
@@ -8455,39 +8458,39 @@
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B657" t="s">
-        <v>271</v>
+        <v>799</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B658" t="s">
-        <v>804</v>
+        <v>271</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B659" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B660" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B661" t="s">
         <v>808</v>
@@ -8495,15 +8498,15 @@
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B662" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B663" t="s">
         <v>811</v>
@@ -8511,31 +8514,31 @@
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B664" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B665" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B666" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B667" t="s">
         <v>818</v>
@@ -8543,335 +8546,335 @@
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B668" t="s">
-        <v>519</v>
+        <v>818</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B669" t="s">
-        <v>822</v>
+        <v>519</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B670" t="s">
-        <v>35</v>
+        <v>822</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B671" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B672" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B673" t="s">
-        <v>81</v>
+        <v>3</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B674" t="s">
-        <v>708</v>
+        <v>81</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B675" t="s">
-        <v>523</v>
+        <v>708</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B676" t="s">
-        <v>44</v>
+        <v>523</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B677" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B678" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B679" t="s">
-        <v>140</v>
+        <v>72</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B680" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B681" t="s">
-        <v>698</v>
+        <v>179</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B682" t="s">
-        <v>374</v>
+        <v>698</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B683" t="s">
-        <v>190</v>
+        <v>374</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B684" t="s">
-        <v>575</v>
+        <v>190</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B685" t="s">
-        <v>543</v>
+        <v>575</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B686" t="s">
-        <v>452</v>
+        <v>543</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B687" t="s">
-        <v>509</v>
+        <v>452</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B688" t="s">
-        <v>599</v>
+        <v>509</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B689" t="s">
-        <v>49</v>
+        <v>599</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B690" t="s">
-        <v>844</v>
+        <v>49</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B691" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B692" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B693" t="s">
-        <v>13</v>
+        <v>844</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B694" t="s">
-        <v>844</v>
+        <v>13</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B695" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B696" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B697" t="s">
-        <v>728</v>
+        <v>844</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B698" t="s">
-        <v>691</v>
+        <v>728</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B699" t="s">
-        <v>209</v>
+        <v>691</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B700" t="s">
-        <v>856</v>
+        <v>209</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B701" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B702" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B703" t="s">
-        <v>69</v>
+        <v>860</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
-        <v>755</v>
+        <v>861</v>
       </c>
       <c r="B704" t="s">
-        <v>754</v>
+        <v>69</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
-        <v>862</v>
+        <v>755</v>
       </c>
       <c r="B705" t="s">
-        <v>45</v>
+        <v>754</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B706" t="s">
-        <v>864</v>
+        <v>45</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B707" t="s">
-        <v>617</v>
+        <v>864</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B708" t="s">
-        <v>51</v>
+        <v>617</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B709" t="s">
         <v>51</v>
@@ -8879,23 +8882,23 @@
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B710" t="s">
-        <v>869</v>
+        <v>51</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B711" t="s">
-        <v>864</v>
+        <v>869</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B712" t="s">
         <v>864</v>
@@ -8903,63 +8906,63 @@
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B713" t="s">
-        <v>732</v>
+        <v>864</v>
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B714" t="s">
-        <v>69</v>
+        <v>732</v>
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B715" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B716" t="s">
-        <v>876</v>
+        <v>3</v>
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B717" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B718" t="s">
-        <v>818</v>
+        <v>878</v>
       </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B719" t="s">
-        <v>881</v>
+        <v>818</v>
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B720" t="s">
         <v>881</v>
@@ -8967,71 +8970,71 @@
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B721" t="s">
-        <v>749</v>
+        <v>881</v>
       </c>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B722" t="s">
-        <v>856</v>
+        <v>749</v>
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B723" t="s">
-        <v>844</v>
+        <v>856</v>
       </c>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B724" t="s">
-        <v>76</v>
+        <v>844</v>
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B725" t="s">
-        <v>888</v>
+        <v>76</v>
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B726" t="s">
-        <v>869</v>
+        <v>888</v>
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B727" t="s">
-        <v>51</v>
+        <v>869</v>
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B728" t="s">
-        <v>881</v>
+        <v>51</v>
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B729" t="s">
         <v>881</v>
@@ -9039,143 +9042,143 @@
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B730" t="s">
-        <v>844</v>
+        <v>881</v>
       </c>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B731" t="s">
-        <v>69</v>
+        <v>844</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B732" t="s">
-        <v>881</v>
+        <v>69</v>
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B733" t="s">
-        <v>57</v>
+        <v>881</v>
       </c>
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B734" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B735" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A736" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B736" t="s">
-        <v>864</v>
+        <v>51</v>
       </c>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A737" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B737" t="s">
-        <v>69</v>
+        <v>864</v>
       </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A738" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B738" t="s">
-        <v>479</v>
+        <v>69</v>
       </c>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B739" t="s">
-        <v>864</v>
+        <v>479</v>
       </c>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B740" t="s">
-        <v>881</v>
+        <v>864</v>
       </c>
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B741" t="s">
-        <v>115</v>
+        <v>881</v>
       </c>
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B742" t="s">
-        <v>728</v>
+        <v>115</v>
       </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B743" t="s">
-        <v>190</v>
+        <v>728</v>
       </c>
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B744" t="s">
-        <v>51</v>
+        <v>190</v>
       </c>
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B745" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B746" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B747" t="s">
         <v>57</v>
@@ -9183,39 +9186,39 @@
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B748" t="s">
-        <v>844</v>
+        <v>57</v>
       </c>
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B749" t="s">
-        <v>153</v>
+        <v>844</v>
       </c>
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A750" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B750" t="s">
-        <v>914</v>
+        <v>153</v>
       </c>
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B751" t="s">
-        <v>881</v>
+        <v>914</v>
       </c>
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A752" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B752" t="s">
         <v>881</v>
@@ -9223,63 +9226,63 @@
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B753" t="s">
-        <v>811</v>
+        <v>881</v>
       </c>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B754" t="s">
-        <v>846</v>
+        <v>811</v>
       </c>
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B755" t="s">
-        <v>64</v>
+        <v>846</v>
       </c>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B756" t="s">
-        <v>728</v>
+        <v>64</v>
       </c>
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B757" t="s">
-        <v>34</v>
+        <v>728</v>
       </c>
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B758" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
-        <v>587</v>
+        <v>922</v>
       </c>
       <c r="B759" t="s">
-        <v>587</v>
+        <v>71</v>
       </c>
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A760" t="s">
-        <v>923</v>
+        <v>587</v>
       </c>
       <c r="B760" t="s">
         <v>587</v>
@@ -9287,33 +9290,41 @@
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B761" t="s">
-        <v>925</v>
+        <v>587</v>
       </c>
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A762" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B762" t="s">
-        <v>185</v>
+        <v>925</v>
       </c>
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A763" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B763" t="s">
-        <v>54</v>
+        <v>185</v>
       </c>
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A764" t="s">
+        <v>927</v>
+      </c>
+      <c r="B764" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A765" t="s">
         <v>928</v>
       </c>
-      <c r="B764" t="s">
+      <c r="B765" t="s">
         <v>42</v>
       </c>
     </row>

--- a/data/interim/crosswalk.xlsx
+++ b/data/interim/crosswalk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/LocalWork/DataVisualizations/asbestos-dashboard/asbestos-dashboard-data/data/interim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F5574B-752F-E14A-9625-7DBC8F10D193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0377458-1D48-4F44-96A0-750A83BCDA5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="935">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="936">
   <si>
     <t>facility_name</t>
   </si>
@@ -2825,6 +2825,9 @@
   </si>
   <si>
     <t>Fox Chase ES</t>
+  </si>
+  <si>
+    <t>John M Patterson Elementary School</t>
   </si>
 </sst>
 </file>
@@ -3196,10 +3199,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B765"/>
+  <dimension ref="A1:B766"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A233" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A249" sqref="A249:B249"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56:B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3650,95 +3653,95 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>64</v>
+        <v>935</v>
       </c>
       <c r="B56" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B58" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B60" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B61" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B62" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B63" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B64" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B65" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B66" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B67" t="s">
         <v>76</v>
@@ -3746,7 +3749,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B68" t="s">
         <v>76</v>
@@ -3754,7 +3757,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B69" t="s">
         <v>76</v>
@@ -3762,15 +3765,15 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B70" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B71" t="s">
         <v>81</v>
@@ -3778,7 +3781,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B72" t="s">
         <v>81</v>
@@ -3786,7 +3789,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B73" t="s">
         <v>81</v>
@@ -3794,7 +3797,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B74" t="s">
         <v>81</v>
@@ -3802,7 +3805,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B75" t="s">
         <v>81</v>
@@ -3810,15 +3813,15 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B76" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B77" t="s">
         <v>88</v>
@@ -3826,7 +3829,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B78" t="s">
         <v>88</v>
@@ -3834,7 +3837,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B79" t="s">
         <v>88</v>
@@ -3842,7 +3845,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B80" t="s">
         <v>88</v>
@@ -3850,7 +3853,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B81" t="s">
         <v>88</v>
@@ -3858,15 +3861,15 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B83" t="s">
         <v>8</v>
@@ -3874,7 +3877,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B84" t="s">
         <v>8</v>
@@ -3882,15 +3885,15 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B85" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B86" t="s">
         <v>19</v>
@@ -3898,15 +3901,15 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B87" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B88" t="s">
         <v>100</v>
@@ -3914,7 +3917,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B89" t="s">
         <v>100</v>
@@ -3922,15 +3925,15 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B90" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B91" t="s">
         <v>18</v>
@@ -3938,15 +3941,15 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B92" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B93" t="s">
         <v>42</v>
@@ -3954,7 +3957,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B94" t="s">
         <v>42</v>
@@ -3962,7 +3965,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B95" t="s">
         <v>42</v>
@@ -3970,7 +3973,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B96" t="s">
         <v>42</v>
@@ -3978,15 +3981,15 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B97" t="s">
-        <v>111</v>
+        <v>42</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B98" t="s">
         <v>111</v>
@@ -3994,7 +3997,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B99" t="s">
         <v>111</v>
@@ -4002,15 +4005,15 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B100" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B101" t="s">
         <v>115</v>
@@ -4018,7 +4021,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B102" t="s">
         <v>115</v>
@@ -4026,15 +4029,15 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B103" t="s">
-        <v>63</v>
+        <v>115</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B104" t="s">
         <v>63</v>
@@ -4042,7 +4045,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B105" t="s">
         <v>63</v>
@@ -4050,7 +4053,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B106" t="s">
         <v>63</v>
@@ -4058,15 +4061,15 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B107" t="s">
-        <v>123</v>
+        <v>63</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B108" t="s">
         <v>123</v>
@@ -4074,15 +4077,15 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B109" t="s">
-        <v>27</v>
+        <v>123</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B110" t="s">
         <v>27</v>
@@ -4090,7 +4093,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B111" t="s">
         <v>27</v>
@@ -4098,7 +4101,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B112" t="s">
         <v>27</v>
@@ -4106,7 +4109,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B113" t="s">
         <v>27</v>
@@ -4114,23 +4117,23 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B114" t="s">
-        <v>131</v>
+        <v>27</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B115" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B116" t="s">
         <v>133</v>
@@ -4138,7 +4141,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B117" t="s">
         <v>133</v>
@@ -4146,7 +4149,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B118" t="s">
         <v>133</v>
@@ -4154,23 +4157,23 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B119" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B120" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B121" t="s">
         <v>140</v>
@@ -4178,7 +4181,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B122" t="s">
         <v>140</v>
@@ -4186,7 +4189,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B123" t="s">
         <v>140</v>
@@ -4194,7 +4197,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B124" t="s">
         <v>140</v>
@@ -4202,15 +4205,15 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B125" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B126" t="s">
         <v>146</v>
@@ -4218,7 +4221,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B127" t="s">
         <v>146</v>
@@ -4226,7 +4229,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B128" t="s">
         <v>146</v>
@@ -4234,7 +4237,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B129" t="s">
         <v>146</v>
@@ -4242,7 +4245,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B130" t="s">
         <v>146</v>
@@ -4250,15 +4253,15 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B131" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B132" t="s">
         <v>153</v>
@@ -4266,15 +4269,15 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B133" t="s">
-        <v>38</v>
+        <v>153</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B134" t="s">
         <v>38</v>
@@ -4282,7 +4285,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B135" t="s">
         <v>38</v>
@@ -4290,7 +4293,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B136" t="s">
         <v>38</v>
@@ -4298,15 +4301,15 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B137" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B138" t="s">
         <v>54</v>
@@ -4314,7 +4317,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B139" t="s">
         <v>54</v>
@@ -4322,7 +4325,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B140" t="s">
         <v>54</v>
@@ -4330,7 +4333,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B141" t="s">
         <v>54</v>
@@ -4338,15 +4341,15 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B142" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B143" t="s">
         <v>65</v>
@@ -4354,7 +4357,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B144" t="s">
         <v>65</v>
@@ -4362,15 +4365,15 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B145" t="s">
-        <v>168</v>
+        <v>65</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B146" t="s">
         <v>168</v>
@@ -4378,7 +4381,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B147" t="s">
         <v>168</v>
@@ -4386,15 +4389,15 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B148" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B149" t="s">
         <v>172</v>
@@ -4402,7 +4405,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B150" t="s">
         <v>172</v>
@@ -4410,7 +4413,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B151" t="s">
         <v>172</v>
@@ -4418,7 +4421,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B152" t="s">
         <v>172</v>
@@ -4426,7 +4429,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B153" t="s">
         <v>172</v>
@@ -4434,15 +4437,15 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B154" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B155" t="s">
         <v>179</v>
@@ -4450,7 +4453,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B156" t="s">
         <v>179</v>
@@ -4458,7 +4461,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B157" t="s">
         <v>179</v>
@@ -4466,7 +4469,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B158" t="s">
         <v>179</v>
@@ -4474,15 +4477,15 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B159" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B160" t="s">
         <v>185</v>
@@ -4490,7 +4493,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B161" t="s">
         <v>185</v>
@@ -4498,7 +4501,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B162" t="s">
         <v>185</v>
@@ -4506,15 +4509,15 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B163" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B164" t="s">
         <v>190</v>
@@ -4522,7 +4525,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B165" t="s">
         <v>190</v>
@@ -4530,15 +4533,15 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B166" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B167" t="s">
         <v>194</v>
@@ -4546,7 +4549,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B168" t="s">
         <v>194</v>
@@ -4554,7 +4557,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B169" t="s">
         <v>194</v>
@@ -4562,15 +4565,15 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B170" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>930</v>
+        <v>198</v>
       </c>
       <c r="B171" t="s">
         <v>199</v>
@@ -4578,7 +4581,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>200</v>
+        <v>930</v>
       </c>
       <c r="B172" t="s">
         <v>199</v>
@@ -4586,15 +4589,15 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B173" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B174" t="s">
         <v>202</v>
@@ -4602,7 +4605,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B175" t="s">
         <v>202</v>
@@ -4610,7 +4613,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>929</v>
+        <v>204</v>
       </c>
       <c r="B176" t="s">
         <v>202</v>
@@ -4618,15 +4621,15 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>205</v>
+        <v>929</v>
       </c>
       <c r="B177" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B178" t="s">
         <v>206</v>
@@ -4634,15 +4637,15 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B179" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B180" t="s">
         <v>209</v>
@@ -4650,7 +4653,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B181" t="s">
         <v>209</v>
@@ -4658,15 +4661,15 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B182" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B183" t="s">
         <v>213</v>
@@ -4674,7 +4677,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B184" t="s">
         <v>213</v>
@@ -4682,7 +4685,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B185" t="s">
         <v>213</v>
@@ -4690,7 +4693,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B186" t="s">
         <v>213</v>
@@ -4698,7 +4701,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B187" t="s">
         <v>213</v>
@@ -4706,15 +4709,15 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B188" t="s">
-        <v>5</v>
+        <v>213</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B189" t="s">
         <v>5</v>
@@ -4722,7 +4725,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B190" t="s">
         <v>5</v>
@@ -4730,15 +4733,15 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B191" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B192" t="s">
         <v>30</v>
@@ -4746,7 +4749,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B193" t="s">
         <v>30</v>
@@ -4754,7 +4757,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B194" t="s">
         <v>30</v>
@@ -4762,7 +4765,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B195" t="s">
         <v>30</v>
@@ -4770,15 +4773,15 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B196" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>933</v>
+        <v>227</v>
       </c>
       <c r="B197" t="s">
         <v>49</v>
@@ -4786,7 +4789,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>228</v>
+        <v>933</v>
       </c>
       <c r="B198" t="s">
         <v>49</v>
@@ -4794,15 +4797,15 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B199" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B200" t="s">
         <v>24</v>
@@ -4810,15 +4813,15 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B201" t="s">
-        <v>232</v>
+        <v>24</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B202" t="s">
         <v>232</v>
@@ -4826,7 +4829,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B203" t="s">
         <v>232</v>
@@ -4834,7 +4837,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B204" t="s">
         <v>232</v>
@@ -4842,7 +4845,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B205" t="s">
         <v>232</v>
@@ -4850,7 +4853,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B206" t="s">
         <v>232</v>
@@ -4858,15 +4861,15 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B207" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B208" t="s">
         <v>239</v>
@@ -4874,15 +4877,15 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B209" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B210" t="s">
         <v>242</v>
@@ -4890,15 +4893,15 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B211" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B212" t="s">
         <v>245</v>
@@ -4906,7 +4909,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B213" t="s">
         <v>245</v>
@@ -4914,7 +4917,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B214" t="s">
         <v>245</v>
@@ -4922,15 +4925,15 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B215" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B216" t="s">
         <v>250</v>
@@ -4938,7 +4941,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B217" t="s">
         <v>250</v>
@@ -4946,7 +4949,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B218" t="s">
         <v>250</v>
@@ -4954,7 +4957,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B219" t="s">
         <v>250</v>
@@ -4962,7 +4965,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B220" t="s">
         <v>250</v>
@@ -4970,15 +4973,15 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B221" t="s">
-        <v>2</v>
+        <v>250</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B222" t="s">
         <v>2</v>
@@ -4986,7 +4989,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B223" t="s">
         <v>2</v>
@@ -4994,7 +4997,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B224" t="s">
         <v>2</v>
@@ -5002,7 +5005,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B225" t="s">
         <v>2</v>
@@ -5010,15 +5013,15 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B226" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B227" t="s">
         <v>14</v>
@@ -5026,7 +5029,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B228" t="s">
         <v>14</v>
@@ -5034,7 +5037,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B229" t="s">
         <v>14</v>
@@ -5042,7 +5045,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B230" t="s">
         <v>14</v>
@@ -5050,15 +5053,15 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B231" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B232" t="s">
         <v>70</v>
@@ -5066,7 +5069,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B233" t="s">
         <v>70</v>
@@ -5074,7 +5077,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B234" t="s">
         <v>70</v>
@@ -5082,15 +5085,15 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B235" t="s">
-        <v>271</v>
+        <v>70</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B236" t="s">
         <v>271</v>
@@ -5098,7 +5101,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B237" t="s">
         <v>271</v>
@@ -5106,7 +5109,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B238" t="s">
         <v>271</v>
@@ -5114,7 +5117,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B239" t="s">
         <v>271</v>
@@ -5122,15 +5125,15 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B240" t="s">
-        <v>15</v>
+        <v>271</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B241" t="s">
         <v>15</v>
@@ -5138,7 +5141,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B242" t="s">
         <v>15</v>
@@ -5146,7 +5149,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B243" t="s">
         <v>15</v>
@@ -5154,15 +5157,15 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B244" t="s">
-        <v>281</v>
+        <v>15</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B245" t="s">
         <v>281</v>
@@ -5170,7 +5173,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B246" t="s">
         <v>281</v>
@@ -5178,15 +5181,15 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B247" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B248" t="s">
         <v>285</v>
@@ -5194,7 +5197,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>934</v>
+        <v>286</v>
       </c>
       <c r="B249" t="s">
         <v>285</v>
@@ -5202,7 +5205,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>287</v>
+        <v>934</v>
       </c>
       <c r="B250" t="s">
         <v>285</v>
@@ -5210,15 +5213,15 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B251" t="s">
-        <v>48</v>
+        <v>285</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B252" t="s">
         <v>48</v>
@@ -5226,7 +5229,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B253" t="s">
         <v>48</v>
@@ -5234,15 +5237,15 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B254" t="s">
-        <v>292</v>
+        <v>48</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B255" t="s">
         <v>292</v>
@@ -5250,7 +5253,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B256" t="s">
         <v>292</v>
@@ -5258,7 +5261,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B257" t="s">
         <v>292</v>
@@ -5266,7 +5269,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B258" t="s">
         <v>292</v>
@@ -5274,7 +5277,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B259" t="s">
         <v>292</v>
@@ -5282,7 +5285,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B260" t="s">
         <v>292</v>
@@ -5290,7 +5293,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B261" t="s">
         <v>292</v>
@@ -5298,7 +5301,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B262" t="s">
         <v>292</v>
@@ -5306,7 +5309,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B263" t="s">
         <v>292</v>
@@ -5314,7 +5317,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B264" t="s">
         <v>292</v>
@@ -5322,7 +5325,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B265" t="s">
         <v>292</v>
@@ -5330,7 +5333,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B266" t="s">
         <v>292</v>
@@ -5338,15 +5341,15 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B267" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B268" t="s">
         <v>306</v>
@@ -5354,15 +5357,15 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B269" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B270" t="s">
         <v>309</v>
@@ -5370,7 +5373,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B271" t="s">
         <v>309</v>
@@ -5378,7 +5381,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B272" t="s">
         <v>309</v>
@@ -5386,7 +5389,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B273" t="s">
         <v>309</v>
@@ -5394,7 +5397,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B274" t="s">
         <v>309</v>
@@ -5402,23 +5405,23 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B275" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B276" t="s">
-        <v>29</v>
+        <v>316</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B277" t="s">
         <v>29</v>
@@ -5426,7 +5429,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B278" t="s">
         <v>29</v>
@@ -5434,7 +5437,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B279" t="s">
         <v>29</v>
@@ -5442,7 +5445,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B280" t="s">
         <v>29</v>
@@ -5450,7 +5453,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B281" t="s">
         <v>29</v>
@@ -5458,7 +5461,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B282" t="s">
         <v>29</v>
@@ -5466,23 +5469,23 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B283" t="s">
-        <v>325</v>
+        <v>29</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B284" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B285" t="s">
         <v>327</v>
@@ -5490,7 +5493,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B286" t="s">
         <v>327</v>
@@ -5498,15 +5501,15 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B287" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B288" t="s">
         <v>331</v>
@@ -5514,15 +5517,15 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B289" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B290" t="s">
         <v>334</v>
@@ -5530,7 +5533,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B291" t="s">
         <v>334</v>
@@ -5538,7 +5541,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B292" t="s">
         <v>334</v>
@@ -5546,7 +5549,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B293" t="s">
         <v>334</v>
@@ -5554,7 +5557,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B294" t="s">
         <v>334</v>
@@ -5562,15 +5565,15 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B295" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B296" t="s">
         <v>341</v>
@@ -5578,15 +5581,15 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B297" t="s">
-        <v>61</v>
+        <v>341</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B298" t="s">
         <v>61</v>
@@ -5594,7 +5597,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B299" t="s">
         <v>61</v>
@@ -5602,31 +5605,31 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B300" t="s">
-        <v>347</v>
+        <v>61</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B301" t="s">
-        <v>44</v>
+        <v>347</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B302" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B303" t="s">
         <v>72</v>
@@ -5634,15 +5637,15 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B304" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B305" t="s">
         <v>10</v>
@@ -5650,7 +5653,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B306" t="s">
         <v>10</v>
@@ -5658,7 +5661,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B307" t="s">
         <v>10</v>
@@ -5666,15 +5669,15 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B308" t="s">
-        <v>356</v>
+        <v>10</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B309" t="s">
         <v>356</v>
@@ -5682,23 +5685,23 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B310" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B311" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B312" t="s">
         <v>361</v>
@@ -5706,7 +5709,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B313" t="s">
         <v>361</v>
@@ -5714,7 +5717,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B314" t="s">
         <v>361</v>
@@ -5722,15 +5725,15 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B315" t="s">
-        <v>68</v>
+        <v>361</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B316" t="s">
         <v>68</v>
@@ -5738,7 +5741,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B317" t="s">
         <v>68</v>
@@ -5746,7 +5749,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B318" t="s">
         <v>68</v>
@@ -5754,15 +5757,15 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B319" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B320" t="s">
         <v>55</v>
@@ -5770,7 +5773,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B321" t="s">
         <v>55</v>
@@ -5778,7 +5781,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B322" t="s">
         <v>55</v>
@@ -5786,15 +5789,15 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B323" t="s">
-        <v>374</v>
+        <v>55</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B324" t="s">
         <v>374</v>
@@ -5802,7 +5805,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B325" t="s">
         <v>374</v>
@@ -5810,15 +5813,15 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B326" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B327" t="s">
         <v>378</v>
@@ -5826,15 +5829,15 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B328" t="s">
-        <v>35</v>
+        <v>378</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B329" t="s">
         <v>35</v>
@@ -5842,7 +5845,7 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B330" t="s">
         <v>35</v>
@@ -5850,7 +5853,7 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B331" t="s">
         <v>35</v>
@@ -5858,7 +5861,7 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B332" t="s">
         <v>35</v>
@@ -5866,15 +5869,15 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B333" t="s">
-        <v>386</v>
+        <v>35</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B334" t="s">
         <v>386</v>
@@ -5882,7 +5885,7 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B335" t="s">
         <v>386</v>
@@ -5890,7 +5893,7 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B336" t="s">
         <v>386</v>
@@ -5898,15 +5901,15 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B337" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B338" t="s">
         <v>391</v>
@@ -5914,15 +5917,15 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B339" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B340" t="s">
         <v>394</v>
@@ -5930,15 +5933,15 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B341" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B342" t="s">
         <v>397</v>
@@ -5946,7 +5949,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B343" t="s">
         <v>397</v>
@@ -5954,15 +5957,15 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B344" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B345" t="s">
         <v>401</v>
@@ -5970,7 +5973,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B346" t="s">
         <v>401</v>
@@ -5978,7 +5981,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B347" t="s">
         <v>401</v>
@@ -5986,7 +5989,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B348" t="s">
         <v>401</v>
@@ -5994,7 +5997,7 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B349" t="s">
         <v>401</v>
@@ -6002,15 +6005,15 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B350" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B351" t="s">
         <v>408</v>
@@ -6018,7 +6021,7 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B352" t="s">
         <v>408</v>
@@ -6026,7 +6029,7 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B353" t="s">
         <v>408</v>
@@ -6034,15 +6037,15 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B354" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B355" t="s">
         <v>413</v>
@@ -6050,7 +6053,7 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B356" t="s">
         <v>413</v>
@@ -6058,7 +6061,7 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B357" t="s">
         <v>413</v>
@@ -6066,15 +6069,15 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B358" t="s">
-        <v>66</v>
+        <v>413</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B359" t="s">
         <v>66</v>
@@ -6082,7 +6085,7 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B360" t="s">
         <v>66</v>
@@ -6090,7 +6093,7 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B361" t="s">
         <v>66</v>
@@ -6098,7 +6101,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B362" t="s">
         <v>66</v>
@@ -6106,7 +6109,7 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B363" t="s">
         <v>66</v>
@@ -6114,7 +6117,7 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B364" t="s">
         <v>66</v>
@@ -6122,15 +6125,15 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>931</v>
+        <v>423</v>
       </c>
       <c r="B365" t="s">
-        <v>425</v>
+        <v>66</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>424</v>
+        <v>931</v>
       </c>
       <c r="B366" t="s">
         <v>425</v>
@@ -6138,7 +6141,7 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B367" t="s">
         <v>425</v>
@@ -6146,7 +6149,7 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B368" t="s">
         <v>425</v>
@@ -6154,15 +6157,15 @@
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B369" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B370" t="s">
         <v>429</v>
@@ -6170,7 +6173,7 @@
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B371" t="s">
         <v>429</v>
@@ -6178,15 +6181,15 @@
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B372" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B373" t="s">
         <v>433</v>
@@ -6194,7 +6197,7 @@
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B374" t="s">
         <v>433</v>
@@ -6202,7 +6205,7 @@
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B375" t="s">
         <v>433</v>
@@ -6210,15 +6213,15 @@
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B376" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B377" t="s">
         <v>438</v>
@@ -6226,7 +6229,7 @@
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B378" t="s">
         <v>438</v>
@@ -6234,7 +6237,7 @@
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B379" t="s">
         <v>438</v>
@@ -6242,15 +6245,15 @@
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B380" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B381" t="s">
         <v>443</v>
@@ -6258,7 +6261,7 @@
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B382" t="s">
         <v>443</v>
@@ -6266,7 +6269,7 @@
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B383" t="s">
         <v>443</v>
@@ -6274,7 +6277,7 @@
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B384" t="s">
         <v>443</v>
@@ -6282,7 +6285,7 @@
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B385" t="s">
         <v>443</v>
@@ -6290,7 +6293,7 @@
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B386" t="s">
         <v>443</v>
@@ -6298,7 +6301,7 @@
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B387" t="s">
         <v>443</v>
@@ -6306,15 +6309,15 @@
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B388" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B389" t="s">
         <v>452</v>
@@ -6322,7 +6325,7 @@
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B390" t="s">
         <v>452</v>
@@ -6330,15 +6333,15 @@
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B391" t="s">
-        <v>43</v>
+        <v>452</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B392" t="s">
         <v>43</v>
@@ -6346,7 +6349,7 @@
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B393" t="s">
         <v>43</v>
@@ -6354,7 +6357,7 @@
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B394" t="s">
         <v>43</v>
@@ -6362,7 +6365,7 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B395" t="s">
         <v>43</v>
@@ -6370,7 +6373,7 @@
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B396" t="s">
         <v>43</v>
@@ -6378,7 +6381,7 @@
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B397" t="s">
         <v>43</v>
@@ -6386,15 +6389,15 @@
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B398" t="s">
-        <v>463</v>
+        <v>43</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B399" t="s">
         <v>463</v>
@@ -6402,7 +6405,7 @@
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B400" t="s">
         <v>463</v>
@@ -6410,7 +6413,7 @@
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B401" t="s">
         <v>463</v>
@@ -6418,23 +6421,23 @@
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B402" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B403" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B404" t="s">
         <v>470</v>
@@ -6442,7 +6445,7 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B405" t="s">
         <v>470</v>
@@ -6450,7 +6453,7 @@
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B406" t="s">
         <v>470</v>
@@ -6458,7 +6461,7 @@
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B407" t="s">
         <v>470</v>
@@ -6466,7 +6469,7 @@
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B408" t="s">
         <v>470</v>
@@ -6474,15 +6477,15 @@
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B409" t="s">
-        <v>37</v>
+        <v>470</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B410" t="s">
         <v>37</v>
@@ -6490,15 +6493,15 @@
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B411" t="s">
-        <v>479</v>
+        <v>37</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B412" t="s">
         <v>479</v>
@@ -6506,7 +6509,7 @@
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B413" t="s">
         <v>479</v>
@@ -6514,7 +6517,7 @@
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B414" t="s">
         <v>479</v>
@@ -6522,7 +6525,7 @@
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B415" t="s">
         <v>479</v>
@@ -6530,15 +6533,15 @@
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B416" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B417" t="s">
         <v>485</v>
@@ -6546,15 +6549,15 @@
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B418" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B419" t="s">
         <v>488</v>
@@ -6562,7 +6565,7 @@
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B420" t="s">
         <v>488</v>
@@ -6570,15 +6573,15 @@
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B421" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B422" t="s">
         <v>492</v>
@@ -6586,15 +6589,15 @@
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B423" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B424" t="s">
         <v>495</v>
@@ -6602,7 +6605,7 @@
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B425" t="s">
         <v>495</v>
@@ -6610,15 +6613,15 @@
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B426" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B427" t="s">
         <v>499</v>
@@ -6626,7 +6629,7 @@
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B428" t="s">
         <v>499</v>
@@ -6634,7 +6637,7 @@
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B429" t="s">
         <v>499</v>
@@ -6642,15 +6645,15 @@
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B430" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B431" t="s">
         <v>504</v>
@@ -6658,15 +6661,15 @@
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B432" t="s">
-        <v>26</v>
+        <v>504</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B433" t="s">
         <v>26</v>
@@ -6674,15 +6677,15 @@
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B434" t="s">
-        <v>509</v>
+        <v>26</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B435" t="s">
         <v>509</v>
@@ -6690,15 +6693,15 @@
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B436" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B437" t="s">
         <v>512</v>
@@ -6706,7 +6709,7 @@
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B438" t="s">
         <v>512</v>
@@ -6714,15 +6717,15 @@
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B439" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B440" t="s">
         <v>516</v>
@@ -6730,15 +6733,15 @@
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B441" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B442" t="s">
         <v>519</v>
@@ -6746,7 +6749,7 @@
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B443" t="s">
         <v>519</v>
@@ -6754,15 +6757,15 @@
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B444" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B445" t="s">
         <v>523</v>
@@ -6770,7 +6773,7 @@
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B446" t="s">
         <v>523</v>
@@ -6778,7 +6781,7 @@
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B447" t="s">
         <v>523</v>
@@ -6786,15 +6789,15 @@
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B448" t="s">
-        <v>17</v>
+        <v>523</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B449" t="s">
         <v>17</v>
@@ -6802,7 +6805,7 @@
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B450" t="s">
         <v>17</v>
@@ -6810,7 +6813,7 @@
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B451" t="s">
         <v>17</v>
@@ -6818,31 +6821,31 @@
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B452" t="s">
-        <v>532</v>
+        <v>17</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B453" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B454" t="s">
-        <v>495</v>
+        <v>534</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B455" t="s">
         <v>495</v>
@@ -6850,7 +6853,7 @@
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B456" t="s">
         <v>495</v>
@@ -6858,15 +6861,15 @@
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B457" t="s">
-        <v>539</v>
+        <v>495</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B458" t="s">
         <v>539</v>
@@ -6874,7 +6877,7 @@
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B459" t="s">
         <v>539</v>
@@ -6882,23 +6885,23 @@
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B460" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B461" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B462" t="s">
         <v>545</v>
@@ -6906,7 +6909,7 @@
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B463" t="s">
         <v>545</v>
@@ -6914,7 +6917,7 @@
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B464" t="s">
         <v>545</v>
@@ -6922,15 +6925,15 @@
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B465" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B466" t="s">
         <v>550</v>
@@ -6938,7 +6941,7 @@
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B467" t="s">
         <v>550</v>
@@ -6946,7 +6949,7 @@
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B468" t="s">
         <v>550</v>
@@ -6954,7 +6957,7 @@
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B469" t="s">
         <v>550</v>
@@ -6962,7 +6965,7 @@
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B470" t="s">
         <v>550</v>
@@ -6970,7 +6973,7 @@
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B471" t="s">
         <v>550</v>
@@ -6978,15 +6981,15 @@
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B472" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B473" t="s">
         <v>558</v>
@@ -6994,7 +6997,7 @@
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B474" t="s">
         <v>558</v>
@@ -7002,7 +7005,7 @@
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B475" t="s">
         <v>558</v>
@@ -7010,15 +7013,15 @@
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B476" t="s">
-        <v>16</v>
+        <v>558</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B477" t="s">
         <v>16</v>
@@ -7026,15 +7029,15 @@
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B478" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B479" t="s">
         <v>3</v>
@@ -7042,15 +7045,15 @@
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B480" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B481" t="s">
         <v>64</v>
@@ -7058,7 +7061,7 @@
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B482" t="s">
         <v>64</v>
@@ -7066,15 +7069,15 @@
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B483" t="s">
-        <v>570</v>
+        <v>64</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B484" t="s">
         <v>570</v>
@@ -7082,23 +7085,23 @@
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B485" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B486" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B487" t="s">
         <v>575</v>
@@ -7106,7 +7109,7 @@
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B488" t="s">
         <v>575</v>
@@ -7114,15 +7117,15 @@
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B489" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B490" t="s">
         <v>579</v>
@@ -7130,7 +7133,7 @@
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B491" t="s">
         <v>579</v>
@@ -7138,7 +7141,7 @@
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B492" t="s">
         <v>579</v>
@@ -7146,15 +7149,15 @@
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B493" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B494" t="s">
         <v>584</v>
@@ -7162,23 +7165,23 @@
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B495" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B496" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B497" t="s">
         <v>589</v>
@@ -7186,7 +7189,7 @@
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B498" t="s">
         <v>589</v>
@@ -7194,7 +7197,7 @@
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B499" t="s">
         <v>589</v>
@@ -7202,7 +7205,7 @@
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B500" t="s">
         <v>589</v>
@@ -7210,7 +7213,7 @@
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B501" t="s">
         <v>589</v>
@@ -7218,15 +7221,15 @@
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B502" t="s">
-        <v>45</v>
+        <v>589</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B503" t="s">
         <v>45</v>
@@ -7234,7 +7237,7 @@
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B504" t="s">
         <v>45</v>
@@ -7242,15 +7245,15 @@
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B505" t="s">
-        <v>599</v>
+        <v>45</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B506" t="s">
         <v>599</v>
@@ -7258,15 +7261,15 @@
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B507" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B508" t="s">
         <v>602</v>
@@ -7274,7 +7277,7 @@
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B509" t="s">
         <v>602</v>
@@ -7282,7 +7285,7 @@
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B510" t="s">
         <v>602</v>
@@ -7290,7 +7293,7 @@
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B511" t="s">
         <v>602</v>
@@ -7298,7 +7301,7 @@
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B512" t="s">
         <v>602</v>
@@ -7306,7 +7309,7 @@
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B513" t="s">
         <v>602</v>
@@ -7314,15 +7317,15 @@
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B514" t="s">
-        <v>13</v>
+        <v>602</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B515" t="s">
         <v>13</v>
@@ -7330,15 +7333,15 @@
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B516" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B517" t="s">
         <v>67</v>
@@ -7346,15 +7349,15 @@
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B518" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B519" t="s">
         <v>46</v>
@@ -7362,7 +7365,7 @@
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B520" t="s">
         <v>46</v>
@@ -7370,15 +7373,15 @@
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B521" t="s">
-        <v>617</v>
+        <v>46</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B522" t="s">
         <v>617</v>
@@ -7386,15 +7389,15 @@
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B523" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B524" t="s">
         <v>620</v>
@@ -7402,15 +7405,15 @@
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B525" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B526" t="s">
         <v>623</v>
@@ -7418,7 +7421,7 @@
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B527" t="s">
         <v>623</v>
@@ -7426,23 +7429,23 @@
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B528" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B529" t="s">
-        <v>11</v>
+        <v>627</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B530" t="s">
         <v>11</v>
@@ -7450,15 +7453,15 @@
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B531" t="s">
-        <v>631</v>
+        <v>11</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B532" t="s">
         <v>631</v>
@@ -7466,15 +7469,15 @@
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B533" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B534" t="s">
         <v>634</v>
@@ -7482,7 +7485,7 @@
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B535" t="s">
         <v>634</v>
@@ -7490,15 +7493,15 @@
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B536" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B537" t="s">
         <v>638</v>
@@ -7506,7 +7509,7 @@
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B538" t="s">
         <v>638</v>
@@ -7514,31 +7517,31 @@
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B539" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B540" t="s">
-        <v>40</v>
+        <v>642</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B541" t="s">
-        <v>645</v>
+        <v>40</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B542" t="s">
         <v>645</v>
@@ -7546,7 +7549,7 @@
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B543" t="s">
         <v>645</v>
@@ -7554,15 +7557,15 @@
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B544" t="s">
-        <v>19</v>
+        <v>645</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B545" t="s">
         <v>19</v>
@@ -7570,7 +7573,7 @@
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B546" t="s">
         <v>19</v>
@@ -7578,7 +7581,7 @@
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B547" t="s">
         <v>19</v>
@@ -7586,7 +7589,7 @@
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B548" t="s">
         <v>19</v>
@@ -7594,23 +7597,23 @@
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B549" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B550" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B551" t="s">
         <v>23</v>
@@ -7618,7 +7621,7 @@
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B552" t="s">
         <v>23</v>
@@ -7626,15 +7629,15 @@
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B553" t="s">
-        <v>658</v>
+        <v>23</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B554" t="s">
         <v>658</v>
@@ -7642,15 +7645,15 @@
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B555" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B556" t="s">
         <v>661</v>
@@ -7658,7 +7661,7 @@
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B557" t="s">
         <v>661</v>
@@ -7666,39 +7669,39 @@
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B558" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B559" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B560" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B561" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B562" t="s">
         <v>671</v>
@@ -7706,7 +7709,7 @@
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B563" t="s">
         <v>671</v>
@@ -7714,15 +7717,15 @@
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B564" t="s">
-        <v>39</v>
+        <v>671</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B565" t="s">
         <v>39</v>
@@ -7730,7 +7733,7 @@
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B566" t="s">
         <v>39</v>
@@ -7738,7 +7741,7 @@
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B567" t="s">
         <v>39</v>
@@ -7746,15 +7749,15 @@
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B568" t="s">
-        <v>679</v>
+        <v>39</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B569" t="s">
         <v>679</v>
@@ -7762,7 +7765,7 @@
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B570" t="s">
         <v>679</v>
@@ -7770,7 +7773,7 @@
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B571" t="s">
         <v>679</v>
@@ -7778,7 +7781,7 @@
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B572" t="s">
         <v>679</v>
@@ -7786,23 +7789,23 @@
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B573" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B574" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B575" t="s">
         <v>687</v>
@@ -7810,7 +7813,7 @@
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B576" t="s">
         <v>687</v>
@@ -7818,15 +7821,15 @@
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B577" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B578" t="s">
         <v>691</v>
@@ -7834,39 +7837,39 @@
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B579" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B580" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B581" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B582" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B583" t="s">
         <v>700</v>
@@ -7874,23 +7877,23 @@
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B584" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B585" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B586" t="s">
         <v>705</v>
@@ -7898,15 +7901,15 @@
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B587" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B588" t="s">
         <v>708</v>
@@ -7914,15 +7917,15 @@
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B589" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B590" t="s">
         <v>711</v>
@@ -7930,15 +7933,15 @@
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B591" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B592" t="s">
         <v>714</v>
@@ -7946,7 +7949,7 @@
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B593" t="s">
         <v>714</v>
@@ -7954,7 +7957,7 @@
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B594" t="s">
         <v>714</v>
@@ -7962,7 +7965,7 @@
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B595" t="s">
         <v>714</v>
@@ -7970,15 +7973,15 @@
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B596" t="s">
-        <v>32</v>
+        <v>714</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B597" t="s">
         <v>32</v>
@@ -7986,23 +7989,23 @@
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B598" t="s">
-        <v>722</v>
+        <v>32</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B599" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B600" t="s">
         <v>724</v>
@@ -8010,23 +8013,23 @@
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B601" t="s">
-        <v>206</v>
+        <v>724</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B602" t="s">
-        <v>728</v>
+        <v>206</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B603" t="s">
         <v>728</v>
@@ -8034,7 +8037,7 @@
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B604" t="s">
         <v>728</v>
@@ -8042,15 +8045,15 @@
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B605" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B606" t="s">
         <v>732</v>
@@ -8058,15 +8061,15 @@
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B607" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B608" t="s">
         <v>735</v>
@@ -8074,7 +8077,7 @@
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B609" t="s">
         <v>735</v>
@@ -8082,7 +8085,7 @@
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B610" t="s">
         <v>735</v>
@@ -8090,7 +8093,7 @@
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B611" t="s">
         <v>735</v>
@@ -8098,15 +8101,15 @@
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B612" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B613" t="s">
         <v>741</v>
@@ -8114,7 +8117,7 @@
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B614" t="s">
         <v>741</v>
@@ -8122,7 +8125,7 @@
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B615" t="s">
         <v>741</v>
@@ -8130,15 +8133,15 @@
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B616" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B617" t="s">
         <v>746</v>
@@ -8146,15 +8149,15 @@
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B618" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B619" t="s">
         <v>749</v>
@@ -8162,7 +8165,7 @@
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B620" t="s">
         <v>749</v>
@@ -8170,7 +8173,7 @@
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B621" t="s">
         <v>749</v>
@@ -8178,15 +8181,15 @@
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B622" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B623" t="s">
         <v>754</v>
@@ -8194,7 +8197,7 @@
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B624" t="s">
         <v>754</v>
@@ -8202,7 +8205,7 @@
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B625" t="s">
         <v>754</v>
@@ -8210,7 +8213,7 @@
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B626" t="s">
         <v>754</v>
@@ -8218,7 +8221,7 @@
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B627" t="s">
         <v>754</v>
@@ -8226,7 +8229,7 @@
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B628" t="s">
         <v>754</v>
@@ -8234,15 +8237,15 @@
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B629" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B630" t="s">
         <v>762</v>
@@ -8250,47 +8253,47 @@
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B631" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B632" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B633" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B634" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B635" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B636" t="s">
         <v>773</v>
@@ -8298,23 +8301,23 @@
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B637" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B638" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B639" t="s">
         <v>778</v>
@@ -8322,23 +8325,23 @@
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B640" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B641" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B642" t="s">
         <v>783</v>
@@ -8346,23 +8349,23 @@
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B643" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B644" t="s">
-        <v>34</v>
+        <v>786</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B645" t="s">
         <v>34</v>
@@ -8370,7 +8373,7 @@
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B646" t="s">
         <v>34</v>
@@ -8378,7 +8381,7 @@
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B647" t="s">
         <v>34</v>
@@ -8386,7 +8389,7 @@
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B648" t="s">
         <v>34</v>
@@ -8394,23 +8397,23 @@
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B649" t="s">
-        <v>793</v>
+        <v>34</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B650" t="s">
-        <v>7</v>
+        <v>793</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B651" t="s">
         <v>7</v>
@@ -8418,7 +8421,7 @@
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B652" t="s">
         <v>7</v>
@@ -8426,31 +8429,31 @@
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
-        <v>609</v>
+        <v>796</v>
       </c>
       <c r="B653" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
-        <v>797</v>
+        <v>609</v>
       </c>
       <c r="B654" t="s">
-        <v>703</v>
+        <v>13</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B655" t="s">
-        <v>799</v>
+        <v>703</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B656" t="s">
         <v>799</v>
@@ -8458,7 +8461,7 @@
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B657" t="s">
         <v>799</v>
@@ -8466,39 +8469,39 @@
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B658" t="s">
-        <v>271</v>
+        <v>799</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B659" t="s">
-        <v>804</v>
+        <v>271</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B660" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B661" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B662" t="s">
         <v>808</v>
@@ -8506,15 +8509,15 @@
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B663" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B664" t="s">
         <v>811</v>
@@ -8522,31 +8525,31 @@
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B665" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B666" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B667" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B668" t="s">
         <v>818</v>
@@ -8554,335 +8557,335 @@
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B669" t="s">
-        <v>519</v>
+        <v>818</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B670" t="s">
-        <v>822</v>
+        <v>519</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B671" t="s">
-        <v>35</v>
+        <v>822</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B672" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B673" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B674" t="s">
-        <v>81</v>
+        <v>3</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B675" t="s">
-        <v>708</v>
+        <v>81</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B676" t="s">
-        <v>523</v>
+        <v>708</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B677" t="s">
-        <v>44</v>
+        <v>523</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B678" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B679" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B680" t="s">
-        <v>140</v>
+        <v>72</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B681" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B682" t="s">
-        <v>698</v>
+        <v>179</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B683" t="s">
-        <v>374</v>
+        <v>698</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B684" t="s">
-        <v>190</v>
+        <v>374</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B685" t="s">
-        <v>575</v>
+        <v>190</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B686" t="s">
-        <v>543</v>
+        <v>575</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B687" t="s">
-        <v>452</v>
+        <v>543</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B688" t="s">
-        <v>509</v>
+        <v>452</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B689" t="s">
-        <v>599</v>
+        <v>509</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B690" t="s">
-        <v>49</v>
+        <v>599</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B691" t="s">
-        <v>844</v>
+        <v>49</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B692" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B693" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B694" t="s">
-        <v>13</v>
+        <v>844</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B695" t="s">
-        <v>844</v>
+        <v>13</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B696" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B697" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B698" t="s">
-        <v>728</v>
+        <v>844</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B699" t="s">
-        <v>691</v>
+        <v>728</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B700" t="s">
-        <v>209</v>
+        <v>691</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B701" t="s">
-        <v>856</v>
+        <v>209</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B702" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B703" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B704" t="s">
-        <v>69</v>
+        <v>860</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
-        <v>755</v>
+        <v>861</v>
       </c>
       <c r="B705" t="s">
-        <v>754</v>
+        <v>69</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
-        <v>862</v>
+        <v>755</v>
       </c>
       <c r="B706" t="s">
-        <v>45</v>
+        <v>754</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B707" t="s">
-        <v>864</v>
+        <v>45</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B708" t="s">
-        <v>617</v>
+        <v>864</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B709" t="s">
-        <v>51</v>
+        <v>617</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B710" t="s">
         <v>51</v>
@@ -8890,23 +8893,23 @@
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B711" t="s">
-        <v>869</v>
+        <v>51</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B712" t="s">
-        <v>864</v>
+        <v>869</v>
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B713" t="s">
         <v>864</v>
@@ -8914,63 +8917,63 @@
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B714" t="s">
-        <v>732</v>
+        <v>864</v>
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B715" t="s">
-        <v>69</v>
+        <v>732</v>
       </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B716" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B717" t="s">
-        <v>876</v>
+        <v>3</v>
       </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B718" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B719" t="s">
-        <v>818</v>
+        <v>878</v>
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B720" t="s">
-        <v>881</v>
+        <v>818</v>
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B721" t="s">
         <v>881</v>
@@ -8978,71 +8981,71 @@
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B722" t="s">
-        <v>749</v>
+        <v>881</v>
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B723" t="s">
-        <v>856</v>
+        <v>749</v>
       </c>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B724" t="s">
-        <v>844</v>
+        <v>856</v>
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B725" t="s">
-        <v>76</v>
+        <v>844</v>
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B726" t="s">
-        <v>888</v>
+        <v>76</v>
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B727" t="s">
-        <v>869</v>
+        <v>888</v>
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B728" t="s">
-        <v>51</v>
+        <v>869</v>
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B729" t="s">
-        <v>881</v>
+        <v>51</v>
       </c>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B730" t="s">
         <v>881</v>
@@ -9050,143 +9053,143 @@
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B731" t="s">
-        <v>844</v>
+        <v>881</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B732" t="s">
-        <v>69</v>
+        <v>844</v>
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B733" t="s">
-        <v>881</v>
+        <v>69</v>
       </c>
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B734" t="s">
-        <v>57</v>
+        <v>881</v>
       </c>
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B735" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A736" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B736" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A737" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B737" t="s">
-        <v>864</v>
+        <v>51</v>
       </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A738" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B738" t="s">
-        <v>69</v>
+        <v>864</v>
       </c>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B739" t="s">
-        <v>479</v>
+        <v>69</v>
       </c>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B740" t="s">
-        <v>864</v>
+        <v>479</v>
       </c>
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B741" t="s">
-        <v>881</v>
+        <v>864</v>
       </c>
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B742" t="s">
-        <v>115</v>
+        <v>881</v>
       </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B743" t="s">
-        <v>728</v>
+        <v>115</v>
       </c>
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B744" t="s">
-        <v>190</v>
+        <v>728</v>
       </c>
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B745" t="s">
-        <v>51</v>
+        <v>190</v>
       </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B746" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B747" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B748" t="s">
         <v>57</v>
@@ -9194,39 +9197,39 @@
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B749" t="s">
-        <v>844</v>
+        <v>57</v>
       </c>
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A750" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B750" t="s">
-        <v>153</v>
+        <v>844</v>
       </c>
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B751" t="s">
-        <v>914</v>
+        <v>153</v>
       </c>
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A752" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B752" t="s">
-        <v>881</v>
+        <v>914</v>
       </c>
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B753" t="s">
         <v>881</v>
@@ -9234,63 +9237,63 @@
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B754" t="s">
-        <v>811</v>
+        <v>881</v>
       </c>
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B755" t="s">
-        <v>846</v>
+        <v>811</v>
       </c>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B756" t="s">
-        <v>64</v>
+        <v>846</v>
       </c>
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B757" t="s">
-        <v>728</v>
+        <v>64</v>
       </c>
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B758" t="s">
-        <v>34</v>
+        <v>728</v>
       </c>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B759" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A760" t="s">
-        <v>587</v>
+        <v>922</v>
       </c>
       <c r="B760" t="s">
-        <v>587</v>
+        <v>71</v>
       </c>
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
-        <v>923</v>
+        <v>587</v>
       </c>
       <c r="B761" t="s">
         <v>587</v>
@@ -9298,33 +9301,41 @@
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A762" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B762" t="s">
-        <v>925</v>
+        <v>587</v>
       </c>
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A763" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B763" t="s">
-        <v>185</v>
+        <v>925</v>
       </c>
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A764" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B764" t="s">
-        <v>54</v>
+        <v>185</v>
       </c>
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A765" t="s">
+        <v>927</v>
+      </c>
+      <c r="B765" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A766" t="s">
         <v>928</v>
       </c>
-      <c r="B765" t="s">
+      <c r="B766" t="s">
         <v>42</v>
       </c>
     </row>

--- a/data/interim/crosswalk.xlsx
+++ b/data/interim/crosswalk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/LocalWork/DataVisualizations/asbestos-dashboard/asbestos-dashboard-data/data/interim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0377458-1D48-4F44-96A0-750A83BCDA5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28523958-CE3E-744D-A96D-EC4E18D2D6D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="936">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="937">
   <si>
     <t>facility_name</t>
   </si>
@@ -2828,6 +2828,9 @@
   </si>
   <si>
     <t>John M Patterson Elementary School</t>
+  </si>
+  <si>
+    <t>William D Kelley Elementary School</t>
   </si>
 </sst>
 </file>
@@ -3199,10 +3202,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B766"/>
+  <dimension ref="A1:B767"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56:B56"/>
+    <sheetView tabSelected="1" topLeftCell="A753" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A767" sqref="A767:B767"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9339,6 +9342,14 @@
         <v>42</v>
       </c>
     </row>
+    <row r="767" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A767" t="s">
+        <v>936</v>
+      </c>
+      <c r="B767" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/interim/crosswalk.xlsx
+++ b/data/interim/crosswalk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/LocalWork/DataVisualizations/asbestos-dashboard/asbestos-dashboard-data/data/interim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28523958-CE3E-744D-A96D-EC4E18D2D6D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB614510-BBDE-FB47-BB03-0E84B0E38FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="937">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="938">
   <si>
     <t>facility_name</t>
   </si>
@@ -2831,6 +2831,9 @@
   </si>
   <si>
     <t>William D Kelley Elementary School</t>
+  </si>
+  <si>
+    <t>AB DAY ES</t>
   </si>
 </sst>
 </file>
@@ -3202,10 +3205,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B767"/>
+  <dimension ref="A1:B768"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A753" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A767" sqref="A767:B767"/>
+      <selection activeCell="A768" sqref="A768:B768"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9350,6 +9353,14 @@
         <v>76</v>
       </c>
     </row>
+    <row r="768" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A768" t="s">
+        <v>937</v>
+      </c>
+      <c r="B768" t="s">
+        <v>495</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/interim/crosswalk.xlsx
+++ b/data/interim/crosswalk.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/LocalWork/DataVisualizations/asbestos-dashboard/asbestos-dashboard-data/data/interim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB614510-BBDE-FB47-BB03-0E84B0E38FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77E71FE-F4FE-8C40-9F7E-0D027823E7B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="938">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="939">
   <si>
     <t>facility_name</t>
   </si>
@@ -2834,6 +2834,9 @@
   </si>
   <si>
     <t>AB DAY ES</t>
+  </si>
+  <si>
+    <t>Pennell School</t>
   </si>
 </sst>
 </file>
@@ -3205,10 +3208,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B768"/>
+  <dimension ref="A1:B769"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A753" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A768" sqref="A768:B768"/>
+      <selection activeCell="A769" sqref="A769:B769"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9361,6 +9364,14 @@
         <v>495</v>
       </c>
     </row>
+    <row r="769" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A769" t="s">
+        <v>938</v>
+      </c>
+      <c r="B769" t="s">
+        <v>869</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/interim/crosswalk.xlsx
+++ b/data/interim/crosswalk.xlsx
@@ -1,26 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/LocalWork/DataVisualizations/asbestos-dashboard/asbestos-dashboard-data/data/interim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77E71FE-F4FE-8C40-9F7E-0D027823E7B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADB4588-B700-5D41-9C62-858D9B5C2D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="939">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="942">
   <si>
     <t>facility_name</t>
   </si>
@@ -2837,6 +2849,15 @@
   </si>
   <si>
     <t>Pennell School</t>
+  </si>
+  <si>
+    <t>Henry Lawton School</t>
+  </si>
+  <si>
+    <t>Fells Elementary School</t>
+  </si>
+  <si>
+    <t>Finletter Elementary School</t>
   </si>
 </sst>
 </file>
@@ -3208,10 +3229,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B769"/>
+  <dimension ref="A1:B772"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A753" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A769" sqref="A769:B769"/>
+    <sheetView tabSelected="1" topLeftCell="A723" zoomScale="139" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B738" sqref="B738"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3654,15 +3675,15 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>62</v>
+        <v>941</v>
       </c>
       <c r="B55" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>935</v>
+        <v>62</v>
       </c>
       <c r="B56" t="s">
         <v>63</v>
@@ -3670,95 +3691,95 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>64</v>
+        <v>935</v>
       </c>
       <c r="B57" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B68" t="s">
         <v>76</v>
@@ -3766,7 +3787,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B69" t="s">
         <v>76</v>
@@ -3774,7 +3795,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B70" t="s">
         <v>76</v>
@@ -3782,15 +3803,15 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B71" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B72" t="s">
         <v>81</v>
@@ -3798,7 +3819,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B73" t="s">
         <v>81</v>
@@ -3806,7 +3827,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B74" t="s">
         <v>81</v>
@@ -3814,7 +3835,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B75" t="s">
         <v>81</v>
@@ -3822,7 +3843,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B76" t="s">
         <v>81</v>
@@ -3830,15 +3851,15 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B77" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B78" t="s">
         <v>88</v>
@@ -3846,7 +3867,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B79" t="s">
         <v>88</v>
@@ -3854,7 +3875,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B80" t="s">
         <v>88</v>
@@ -3862,7 +3883,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B81" t="s">
         <v>88</v>
@@ -3870,7 +3891,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B82" t="s">
         <v>88</v>
@@ -3878,15 +3899,15 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B84" t="s">
         <v>8</v>
@@ -3894,7 +3915,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B85" t="s">
         <v>8</v>
@@ -3902,15 +3923,15 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B86" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B87" t="s">
         <v>19</v>
@@ -3918,15 +3939,15 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B88" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B89" t="s">
         <v>100</v>
@@ -3934,7 +3955,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B90" t="s">
         <v>100</v>
@@ -3942,15 +3963,15 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B91" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B92" t="s">
         <v>18</v>
@@ -3958,15 +3979,15 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B93" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B94" t="s">
         <v>42</v>
@@ -3974,7 +3995,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B95" t="s">
         <v>42</v>
@@ -3982,7 +4003,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B96" t="s">
         <v>42</v>
@@ -3990,7 +4011,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B97" t="s">
         <v>42</v>
@@ -3998,15 +4019,15 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B98" t="s">
-        <v>111</v>
+        <v>42</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B99" t="s">
         <v>111</v>
@@ -4014,7 +4035,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B100" t="s">
         <v>111</v>
@@ -4022,15 +4043,15 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B101" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B102" t="s">
         <v>115</v>
@@ -4038,7 +4059,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B103" t="s">
         <v>115</v>
@@ -4046,15 +4067,15 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B104" t="s">
-        <v>63</v>
+        <v>115</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B105" t="s">
         <v>63</v>
@@ -4062,7 +4083,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B106" t="s">
         <v>63</v>
@@ -4070,7 +4091,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B107" t="s">
         <v>63</v>
@@ -4078,15 +4099,15 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B108" t="s">
-        <v>123</v>
+        <v>63</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B109" t="s">
         <v>123</v>
@@ -4094,15 +4115,15 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B110" t="s">
-        <v>27</v>
+        <v>123</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B111" t="s">
         <v>27</v>
@@ -4110,7 +4131,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B112" t="s">
         <v>27</v>
@@ -4118,7 +4139,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B113" t="s">
         <v>27</v>
@@ -4126,7 +4147,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B114" t="s">
         <v>27</v>
@@ -4134,23 +4155,23 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B115" t="s">
-        <v>131</v>
+        <v>27</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B116" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B117" t="s">
         <v>133</v>
@@ -4158,7 +4179,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B118" t="s">
         <v>133</v>
@@ -4166,7 +4187,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B119" t="s">
         <v>133</v>
@@ -4174,23 +4195,23 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B120" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B121" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B122" t="s">
         <v>140</v>
@@ -4198,7 +4219,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B123" t="s">
         <v>140</v>
@@ -4206,7 +4227,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B124" t="s">
         <v>140</v>
@@ -4214,7 +4235,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B125" t="s">
         <v>140</v>
@@ -4222,15 +4243,15 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B126" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B127" t="s">
         <v>146</v>
@@ -4238,7 +4259,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B128" t="s">
         <v>146</v>
@@ -4246,7 +4267,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B129" t="s">
         <v>146</v>
@@ -4254,7 +4275,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B130" t="s">
         <v>146</v>
@@ -4262,7 +4283,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B131" t="s">
         <v>146</v>
@@ -4270,15 +4291,15 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B132" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B133" t="s">
         <v>153</v>
@@ -4286,15 +4307,15 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B134" t="s">
-        <v>38</v>
+        <v>153</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B135" t="s">
         <v>38</v>
@@ -4302,7 +4323,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B136" t="s">
         <v>38</v>
@@ -4310,7 +4331,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B137" t="s">
         <v>38</v>
@@ -4318,15 +4339,15 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B138" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B139" t="s">
         <v>54</v>
@@ -4334,7 +4355,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B140" t="s">
         <v>54</v>
@@ -4342,7 +4363,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B141" t="s">
         <v>54</v>
@@ -4350,7 +4371,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B142" t="s">
         <v>54</v>
@@ -4358,15 +4379,15 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B143" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B144" t="s">
         <v>65</v>
@@ -4374,7 +4395,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B145" t="s">
         <v>65</v>
@@ -4382,15 +4403,15 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B146" t="s">
-        <v>168</v>
+        <v>65</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B147" t="s">
         <v>168</v>
@@ -4398,7 +4419,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B148" t="s">
         <v>168</v>
@@ -4406,15 +4427,15 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B149" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B150" t="s">
         <v>172</v>
@@ -4422,7 +4443,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B151" t="s">
         <v>172</v>
@@ -4430,7 +4451,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B152" t="s">
         <v>172</v>
@@ -4438,7 +4459,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B153" t="s">
         <v>172</v>
@@ -4446,7 +4467,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B154" t="s">
         <v>172</v>
@@ -4454,15 +4475,15 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B155" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B156" t="s">
         <v>179</v>
@@ -4470,7 +4491,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B157" t="s">
         <v>179</v>
@@ -4478,7 +4499,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B158" t="s">
         <v>179</v>
@@ -4486,7 +4507,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B159" t="s">
         <v>179</v>
@@ -4494,15 +4515,15 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B160" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B161" t="s">
         <v>185</v>
@@ -4510,7 +4531,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B162" t="s">
         <v>185</v>
@@ -4518,7 +4539,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B163" t="s">
         <v>185</v>
@@ -4526,15 +4547,15 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B164" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B165" t="s">
         <v>190</v>
@@ -4542,7 +4563,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B166" t="s">
         <v>190</v>
@@ -4550,15 +4571,15 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B167" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B168" t="s">
         <v>194</v>
@@ -4566,7 +4587,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B169" t="s">
         <v>194</v>
@@ -4574,7 +4595,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B170" t="s">
         <v>194</v>
@@ -4582,15 +4603,15 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B171" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>930</v>
+        <v>198</v>
       </c>
       <c r="B172" t="s">
         <v>199</v>
@@ -4598,7 +4619,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>200</v>
+        <v>930</v>
       </c>
       <c r="B173" t="s">
         <v>199</v>
@@ -4606,15 +4627,15 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B174" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B175" t="s">
         <v>202</v>
@@ -4622,7 +4643,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B176" t="s">
         <v>202</v>
@@ -4630,7 +4651,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>929</v>
+        <v>204</v>
       </c>
       <c r="B177" t="s">
         <v>202</v>
@@ -4638,15 +4659,15 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>205</v>
+        <v>929</v>
       </c>
       <c r="B178" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B179" t="s">
         <v>206</v>
@@ -4654,15 +4675,15 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B180" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B181" t="s">
         <v>209</v>
@@ -4670,7 +4691,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B182" t="s">
         <v>209</v>
@@ -4678,15 +4699,15 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B183" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B184" t="s">
         <v>213</v>
@@ -4694,7 +4715,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B185" t="s">
         <v>213</v>
@@ -4702,7 +4723,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B186" t="s">
         <v>213</v>
@@ -4710,7 +4731,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B187" t="s">
         <v>213</v>
@@ -4718,7 +4739,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B188" t="s">
         <v>213</v>
@@ -4726,15 +4747,15 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B189" t="s">
-        <v>5</v>
+        <v>213</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B190" t="s">
         <v>5</v>
@@ -4742,7 +4763,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B191" t="s">
         <v>5</v>
@@ -4750,15 +4771,15 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B192" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B193" t="s">
         <v>30</v>
@@ -4766,7 +4787,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B194" t="s">
         <v>30</v>
@@ -4774,7 +4795,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B195" t="s">
         <v>30</v>
@@ -4782,7 +4803,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B196" t="s">
         <v>30</v>
@@ -4790,15 +4811,15 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B197" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>933</v>
+        <v>227</v>
       </c>
       <c r="B198" t="s">
         <v>49</v>
@@ -4806,7 +4827,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>228</v>
+        <v>933</v>
       </c>
       <c r="B199" t="s">
         <v>49</v>
@@ -4814,15 +4835,15 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B200" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B201" t="s">
         <v>24</v>
@@ -4830,15 +4851,15 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B202" t="s">
-        <v>232</v>
+        <v>24</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B203" t="s">
         <v>232</v>
@@ -4846,7 +4867,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B204" t="s">
         <v>232</v>
@@ -4854,7 +4875,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B205" t="s">
         <v>232</v>
@@ -4862,7 +4883,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B206" t="s">
         <v>232</v>
@@ -4870,7 +4891,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B207" t="s">
         <v>232</v>
@@ -4878,15 +4899,15 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B208" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B209" t="s">
         <v>239</v>
@@ -4894,15 +4915,15 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B210" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B211" t="s">
         <v>242</v>
@@ -4910,15 +4931,15 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B212" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B213" t="s">
         <v>245</v>
@@ -4926,7 +4947,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B214" t="s">
         <v>245</v>
@@ -4934,7 +4955,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B215" t="s">
         <v>245</v>
@@ -4942,15 +4963,15 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B216" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B217" t="s">
         <v>250</v>
@@ -4958,7 +4979,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B218" t="s">
         <v>250</v>
@@ -4966,7 +4987,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B219" t="s">
         <v>250</v>
@@ -4974,7 +4995,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B220" t="s">
         <v>250</v>
@@ -4982,7 +5003,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B221" t="s">
         <v>250</v>
@@ -4990,15 +5011,15 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B222" t="s">
-        <v>2</v>
+        <v>250</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B223" t="s">
         <v>2</v>
@@ -5006,7 +5027,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B224" t="s">
         <v>2</v>
@@ -5014,7 +5035,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B225" t="s">
         <v>2</v>
@@ -5022,7 +5043,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B226" t="s">
         <v>2</v>
@@ -5030,15 +5051,15 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B227" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B228" t="s">
         <v>14</v>
@@ -5046,7 +5067,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B229" t="s">
         <v>14</v>
@@ -5054,7 +5075,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B230" t="s">
         <v>14</v>
@@ -5062,7 +5083,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B231" t="s">
         <v>14</v>
@@ -5070,15 +5091,15 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B232" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B233" t="s">
         <v>70</v>
@@ -5086,7 +5107,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B234" t="s">
         <v>70</v>
@@ -5094,7 +5115,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B235" t="s">
         <v>70</v>
@@ -5102,15 +5123,15 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B236" t="s">
-        <v>271</v>
+        <v>70</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B237" t="s">
         <v>271</v>
@@ -5118,7 +5139,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B238" t="s">
         <v>271</v>
@@ -5126,7 +5147,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B239" t="s">
         <v>271</v>
@@ -5134,7 +5155,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B240" t="s">
         <v>271</v>
@@ -5142,15 +5163,15 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B241" t="s">
-        <v>15</v>
+        <v>271</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B242" t="s">
         <v>15</v>
@@ -5158,7 +5179,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B243" t="s">
         <v>15</v>
@@ -5166,7 +5187,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B244" t="s">
         <v>15</v>
@@ -5174,15 +5195,15 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B245" t="s">
-        <v>281</v>
+        <v>15</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B246" t="s">
         <v>281</v>
@@ -5190,7 +5211,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B247" t="s">
         <v>281</v>
@@ -5198,15 +5219,15 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B248" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B249" t="s">
         <v>285</v>
@@ -5214,7 +5235,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>934</v>
+        <v>286</v>
       </c>
       <c r="B250" t="s">
         <v>285</v>
@@ -5222,7 +5243,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>287</v>
+        <v>934</v>
       </c>
       <c r="B251" t="s">
         <v>285</v>
@@ -5230,15 +5251,15 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B252" t="s">
-        <v>48</v>
+        <v>285</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B253" t="s">
         <v>48</v>
@@ -5246,7 +5267,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B254" t="s">
         <v>48</v>
@@ -5254,15 +5275,15 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B255" t="s">
-        <v>292</v>
+        <v>48</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B256" t="s">
         <v>292</v>
@@ -5270,7 +5291,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B257" t="s">
         <v>292</v>
@@ -5278,7 +5299,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B258" t="s">
         <v>292</v>
@@ -5286,7 +5307,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B259" t="s">
         <v>292</v>
@@ -5294,7 +5315,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B260" t="s">
         <v>292</v>
@@ -5302,7 +5323,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B261" t="s">
         <v>292</v>
@@ -5310,7 +5331,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B262" t="s">
         <v>292</v>
@@ -5318,7 +5339,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B263" t="s">
         <v>292</v>
@@ -5326,7 +5347,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B264" t="s">
         <v>292</v>
@@ -5334,7 +5355,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B265" t="s">
         <v>292</v>
@@ -5342,7 +5363,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B266" t="s">
         <v>292</v>
@@ -5350,7 +5371,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B267" t="s">
         <v>292</v>
@@ -5358,15 +5379,15 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B268" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B269" t="s">
         <v>306</v>
@@ -5374,15 +5395,15 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B270" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B271" t="s">
         <v>309</v>
@@ -5390,7 +5411,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B272" t="s">
         <v>309</v>
@@ -5398,7 +5419,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B273" t="s">
         <v>309</v>
@@ -5406,7 +5427,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B274" t="s">
         <v>309</v>
@@ -5414,7 +5435,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B275" t="s">
         <v>309</v>
@@ -5422,23 +5443,23 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B276" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B277" t="s">
-        <v>29</v>
+        <v>316</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B278" t="s">
         <v>29</v>
@@ -5446,7 +5467,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B279" t="s">
         <v>29</v>
@@ -5454,7 +5475,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B280" t="s">
         <v>29</v>
@@ -5462,7 +5483,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B281" t="s">
         <v>29</v>
@@ -5470,7 +5491,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B282" t="s">
         <v>29</v>
@@ -5478,7 +5499,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B283" t="s">
         <v>29</v>
@@ -5486,23 +5507,23 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B284" t="s">
-        <v>325</v>
+        <v>29</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B285" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B286" t="s">
         <v>327</v>
@@ -5510,7 +5531,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B287" t="s">
         <v>327</v>
@@ -5518,15 +5539,15 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B288" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B289" t="s">
         <v>331</v>
@@ -5534,15 +5555,15 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B290" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B291" t="s">
         <v>334</v>
@@ -5550,7 +5571,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B292" t="s">
         <v>334</v>
@@ -5558,7 +5579,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B293" t="s">
         <v>334</v>
@@ -5566,7 +5587,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B294" t="s">
         <v>334</v>
@@ -5574,7 +5595,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B295" t="s">
         <v>334</v>
@@ -5582,15 +5603,15 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B296" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B297" t="s">
         <v>341</v>
@@ -5598,15 +5619,15 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B298" t="s">
-        <v>61</v>
+        <v>341</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B299" t="s">
         <v>61</v>
@@ -5614,7 +5635,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B300" t="s">
         <v>61</v>
@@ -5622,31 +5643,31 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B301" t="s">
-        <v>347</v>
+        <v>61</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B302" t="s">
-        <v>44</v>
+        <v>347</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B303" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B304" t="s">
         <v>72</v>
@@ -5654,15 +5675,15 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B305" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B306" t="s">
         <v>10</v>
@@ -5670,7 +5691,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B307" t="s">
         <v>10</v>
@@ -5678,7 +5699,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B308" t="s">
         <v>10</v>
@@ -5686,15 +5707,15 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B309" t="s">
-        <v>356</v>
+        <v>10</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B310" t="s">
         <v>356</v>
@@ -5702,23 +5723,23 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B311" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B312" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B313" t="s">
         <v>361</v>
@@ -5726,7 +5747,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B314" t="s">
         <v>361</v>
@@ -5734,7 +5755,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B315" t="s">
         <v>361</v>
@@ -5742,15 +5763,15 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B316" t="s">
-        <v>68</v>
+        <v>361</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B317" t="s">
         <v>68</v>
@@ -5758,7 +5779,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B318" t="s">
         <v>68</v>
@@ -5766,7 +5787,7 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B319" t="s">
         <v>68</v>
@@ -5774,15 +5795,15 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B320" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B321" t="s">
         <v>55</v>
@@ -5790,7 +5811,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B322" t="s">
         <v>55</v>
@@ -5798,7 +5819,7 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B323" t="s">
         <v>55</v>
@@ -5806,15 +5827,15 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B324" t="s">
-        <v>374</v>
+        <v>55</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B325" t="s">
         <v>374</v>
@@ -5822,7 +5843,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B326" t="s">
         <v>374</v>
@@ -5830,15 +5851,15 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B327" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B328" t="s">
         <v>378</v>
@@ -5846,15 +5867,15 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B329" t="s">
-        <v>35</v>
+        <v>378</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B330" t="s">
         <v>35</v>
@@ -5862,7 +5883,7 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B331" t="s">
         <v>35</v>
@@ -5870,7 +5891,7 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B332" t="s">
         <v>35</v>
@@ -5878,7 +5899,7 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B333" t="s">
         <v>35</v>
@@ -5886,15 +5907,15 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B334" t="s">
-        <v>386</v>
+        <v>35</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B335" t="s">
         <v>386</v>
@@ -5902,7 +5923,7 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B336" t="s">
         <v>386</v>
@@ -5910,7 +5931,7 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B337" t="s">
         <v>386</v>
@@ -5918,15 +5939,15 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B338" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B339" t="s">
         <v>391</v>
@@ -5934,15 +5955,15 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B340" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B341" t="s">
         <v>394</v>
@@ -5950,15 +5971,15 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B342" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B343" t="s">
         <v>397</v>
@@ -5966,7 +5987,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B344" t="s">
         <v>397</v>
@@ -5974,15 +5995,15 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B345" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B346" t="s">
         <v>401</v>
@@ -5990,7 +6011,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B347" t="s">
         <v>401</v>
@@ -5998,7 +6019,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B348" t="s">
         <v>401</v>
@@ -6006,7 +6027,7 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B349" t="s">
         <v>401</v>
@@ -6014,7 +6035,7 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B350" t="s">
         <v>401</v>
@@ -6022,15 +6043,15 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B351" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B352" t="s">
         <v>408</v>
@@ -6038,7 +6059,7 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B353" t="s">
         <v>408</v>
@@ -6046,7 +6067,7 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B354" t="s">
         <v>408</v>
@@ -6054,15 +6075,15 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B355" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B356" t="s">
         <v>413</v>
@@ -6070,7 +6091,7 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B357" t="s">
         <v>413</v>
@@ -6078,7 +6099,7 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B358" t="s">
         <v>413</v>
@@ -6086,15 +6107,15 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B359" t="s">
-        <v>66</v>
+        <v>413</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B360" t="s">
         <v>66</v>
@@ -6102,7 +6123,7 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B361" t="s">
         <v>66</v>
@@ -6110,7 +6131,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B362" t="s">
         <v>66</v>
@@ -6118,7 +6139,7 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B363" t="s">
         <v>66</v>
@@ -6126,7 +6147,7 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B364" t="s">
         <v>66</v>
@@ -6134,7 +6155,7 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B365" t="s">
         <v>66</v>
@@ -6142,15 +6163,15 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>931</v>
+        <v>423</v>
       </c>
       <c r="B366" t="s">
-        <v>425</v>
+        <v>66</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>424</v>
+        <v>931</v>
       </c>
       <c r="B367" t="s">
         <v>425</v>
@@ -6158,7 +6179,7 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B368" t="s">
         <v>425</v>
@@ -6166,7 +6187,7 @@
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B369" t="s">
         <v>425</v>
@@ -6174,15 +6195,15 @@
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B370" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B371" t="s">
         <v>429</v>
@@ -6190,7 +6211,7 @@
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B372" t="s">
         <v>429</v>
@@ -6198,15 +6219,15 @@
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B373" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B374" t="s">
         <v>433</v>
@@ -6214,7 +6235,7 @@
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B375" t="s">
         <v>433</v>
@@ -6222,7 +6243,7 @@
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B376" t="s">
         <v>433</v>
@@ -6230,15 +6251,15 @@
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B377" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B378" t="s">
         <v>438</v>
@@ -6246,7 +6267,7 @@
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B379" t="s">
         <v>438</v>
@@ -6254,7 +6275,7 @@
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B380" t="s">
         <v>438</v>
@@ -6262,15 +6283,15 @@
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B381" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B382" t="s">
         <v>443</v>
@@ -6278,7 +6299,7 @@
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B383" t="s">
         <v>443</v>
@@ -6286,7 +6307,7 @@
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B384" t="s">
         <v>443</v>
@@ -6294,7 +6315,7 @@
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B385" t="s">
         <v>443</v>
@@ -6302,7 +6323,7 @@
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B386" t="s">
         <v>443</v>
@@ -6310,7 +6331,7 @@
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B387" t="s">
         <v>443</v>
@@ -6318,7 +6339,7 @@
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B388" t="s">
         <v>443</v>
@@ -6326,15 +6347,15 @@
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B389" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B390" t="s">
         <v>452</v>
@@ -6342,7 +6363,7 @@
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B391" t="s">
         <v>452</v>
@@ -6350,15 +6371,15 @@
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B392" t="s">
-        <v>43</v>
+        <v>452</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B393" t="s">
         <v>43</v>
@@ -6366,7 +6387,7 @@
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B394" t="s">
         <v>43</v>
@@ -6374,7 +6395,7 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B395" t="s">
         <v>43</v>
@@ -6382,7 +6403,7 @@
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B396" t="s">
         <v>43</v>
@@ -6390,7 +6411,7 @@
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B397" t="s">
         <v>43</v>
@@ -6398,7 +6419,7 @@
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B398" t="s">
         <v>43</v>
@@ -6406,15 +6427,15 @@
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B399" t="s">
-        <v>463</v>
+        <v>43</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B400" t="s">
         <v>463</v>
@@ -6422,7 +6443,7 @@
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B401" t="s">
         <v>463</v>
@@ -6430,7 +6451,7 @@
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B402" t="s">
         <v>463</v>
@@ -6438,23 +6459,23 @@
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B403" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B404" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B405" t="s">
         <v>470</v>
@@ -6462,7 +6483,7 @@
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B406" t="s">
         <v>470</v>
@@ -6470,7 +6491,7 @@
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B407" t="s">
         <v>470</v>
@@ -6478,7 +6499,7 @@
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B408" t="s">
         <v>470</v>
@@ -6486,7 +6507,7 @@
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B409" t="s">
         <v>470</v>
@@ -6494,15 +6515,15 @@
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B410" t="s">
-        <v>37</v>
+        <v>470</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B411" t="s">
         <v>37</v>
@@ -6510,15 +6531,15 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B412" t="s">
-        <v>479</v>
+        <v>37</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B413" t="s">
         <v>479</v>
@@ -6526,7 +6547,7 @@
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B414" t="s">
         <v>479</v>
@@ -6534,7 +6555,7 @@
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B415" t="s">
         <v>479</v>
@@ -6542,7 +6563,7 @@
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B416" t="s">
         <v>479</v>
@@ -6550,15 +6571,15 @@
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B417" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>486</v>
+        <v>939</v>
       </c>
       <c r="B418" t="s">
         <v>485</v>
@@ -6566,23 +6587,23 @@
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B419" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B420" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B421" t="s">
         <v>488</v>
@@ -6590,39 +6611,39 @@
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B422" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B423" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B424" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B425" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B426" t="s">
         <v>495</v>
@@ -6630,23 +6651,23 @@
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B427" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B428" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B429" t="s">
         <v>499</v>
@@ -6654,7 +6675,7 @@
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B430" t="s">
         <v>499</v>
@@ -6662,71 +6683,71 @@
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B431" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B432" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B433" t="s">
-        <v>26</v>
+        <v>504</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B434" t="s">
-        <v>26</v>
+        <v>504</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B435" t="s">
-        <v>509</v>
+        <v>26</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B436" t="s">
-        <v>509</v>
+        <v>26</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B437" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B438" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B439" t="s">
         <v>512</v>
@@ -6734,39 +6755,39 @@
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B440" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B441" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B442" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B443" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B444" t="s">
         <v>519</v>
@@ -6774,23 +6795,23 @@
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B445" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B446" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B447" t="s">
         <v>523</v>
@@ -6798,7 +6819,7 @@
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B448" t="s">
         <v>523</v>
@@ -6806,23 +6827,23 @@
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B449" t="s">
-        <v>17</v>
+        <v>523</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B450" t="s">
-        <v>17</v>
+        <v>523</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B451" t="s">
         <v>17</v>
@@ -6830,7 +6851,7 @@
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B452" t="s">
         <v>17</v>
@@ -6838,39 +6859,39 @@
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B453" t="s">
-        <v>532</v>
+        <v>17</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B454" t="s">
-        <v>534</v>
+        <v>17</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B455" t="s">
-        <v>495</v>
+        <v>532</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B456" t="s">
-        <v>495</v>
+        <v>534</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B457" t="s">
         <v>495</v>
@@ -6878,23 +6899,23 @@
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B458" t="s">
-        <v>539</v>
+        <v>495</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B459" t="s">
-        <v>539</v>
+        <v>495</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B460" t="s">
         <v>539</v>
@@ -6902,31 +6923,31 @@
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B461" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B462" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B463" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B464" t="s">
         <v>545</v>
@@ -6934,7 +6955,7 @@
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B465" t="s">
         <v>545</v>
@@ -6942,23 +6963,23 @@
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B466" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B467" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B468" t="s">
         <v>550</v>
@@ -6966,7 +6987,7 @@
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B469" t="s">
         <v>550</v>
@@ -6974,7 +6995,7 @@
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B470" t="s">
         <v>550</v>
@@ -6982,7 +7003,7 @@
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B471" t="s">
         <v>550</v>
@@ -6990,7 +7011,7 @@
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B472" t="s">
         <v>550</v>
@@ -6998,23 +7019,23 @@
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B473" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B474" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B475" t="s">
         <v>558</v>
@@ -7022,7 +7043,7 @@
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B476" t="s">
         <v>558</v>
@@ -7030,55 +7051,55 @@
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B477" t="s">
-        <v>16</v>
+        <v>558</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B478" t="s">
-        <v>16</v>
+        <v>558</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B479" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B480" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B481" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B482" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B483" t="s">
         <v>64</v>
@@ -7086,47 +7107,47 @@
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B484" t="s">
-        <v>570</v>
+        <v>64</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B485" t="s">
-        <v>570</v>
+        <v>64</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B486" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B487" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B488" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B489" t="s">
         <v>575</v>
@@ -7134,23 +7155,23 @@
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B490" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B491" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B492" t="s">
         <v>579</v>
@@ -7158,7 +7179,7 @@
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B493" t="s">
         <v>579</v>
@@ -7166,47 +7187,47 @@
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B494" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B495" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B496" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B497" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B498" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B499" t="s">
         <v>589</v>
@@ -7214,7 +7235,7 @@
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B500" t="s">
         <v>589</v>
@@ -7222,7 +7243,7 @@
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B501" t="s">
         <v>589</v>
@@ -7230,7 +7251,7 @@
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B502" t="s">
         <v>589</v>
@@ -7238,23 +7259,23 @@
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B503" t="s">
-        <v>45</v>
+        <v>589</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B504" t="s">
-        <v>45</v>
+        <v>589</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B505" t="s">
         <v>45</v>
@@ -7262,39 +7283,39 @@
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B506" t="s">
-        <v>599</v>
+        <v>45</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B507" t="s">
-        <v>599</v>
+        <v>45</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B508" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B509" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B510" t="s">
         <v>602</v>
@@ -7302,7 +7323,7 @@
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B511" t="s">
         <v>602</v>
@@ -7310,7 +7331,7 @@
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B512" t="s">
         <v>602</v>
@@ -7318,7 +7339,7 @@
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B513" t="s">
         <v>602</v>
@@ -7326,7 +7347,7 @@
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B514" t="s">
         <v>602</v>
@@ -7334,55 +7355,55 @@
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B515" t="s">
-        <v>13</v>
+        <v>602</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B516" t="s">
-        <v>13</v>
+        <v>602</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B517" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B518" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B519" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B520" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B521" t="s">
         <v>46</v>
@@ -7390,55 +7411,55 @@
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B522" t="s">
-        <v>617</v>
+        <v>46</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B523" t="s">
-        <v>617</v>
+        <v>46</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B524" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B525" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B526" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B527" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B528" t="s">
         <v>623</v>
@@ -7446,63 +7467,63 @@
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B529" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B530" t="s">
-        <v>11</v>
+        <v>623</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B531" t="s">
-        <v>11</v>
+        <v>627</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B532" t="s">
-        <v>631</v>
+        <v>11</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B533" t="s">
-        <v>631</v>
+        <v>11</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B534" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B535" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B536" t="s">
         <v>634</v>
@@ -7510,23 +7531,23 @@
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B537" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B538" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B539" t="s">
         <v>638</v>
@@ -7534,39 +7555,39 @@
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B540" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B541" t="s">
-        <v>40</v>
+        <v>638</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B542" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B543" t="s">
-        <v>645</v>
+        <v>40</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B544" t="s">
         <v>645</v>
@@ -7574,23 +7595,23 @@
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B545" t="s">
-        <v>19</v>
+        <v>645</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B546" t="s">
-        <v>19</v>
+        <v>645</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B547" t="s">
         <v>19</v>
@@ -7598,7 +7619,7 @@
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B548" t="s">
         <v>19</v>
@@ -7606,7 +7627,7 @@
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B549" t="s">
         <v>19</v>
@@ -7614,31 +7635,31 @@
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B550" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B551" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B552" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B553" t="s">
         <v>23</v>
@@ -7646,39 +7667,39 @@
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B554" t="s">
-        <v>658</v>
+        <v>23</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B555" t="s">
-        <v>658</v>
+        <v>23</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B556" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B557" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B558" t="s">
         <v>661</v>
@@ -7686,47 +7707,47 @@
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B559" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B560" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="B561" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="B562" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="B563" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B564" t="s">
         <v>671</v>
@@ -7734,23 +7755,23 @@
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B565" t="s">
-        <v>39</v>
+        <v>671</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B566" t="s">
-        <v>39</v>
+        <v>671</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B567" t="s">
         <v>39</v>
@@ -7758,7 +7779,7 @@
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B568" t="s">
         <v>39</v>
@@ -7766,23 +7787,23 @@
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B569" t="s">
-        <v>679</v>
+        <v>39</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="B570" t="s">
-        <v>679</v>
+        <v>39</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B571" t="s">
         <v>679</v>
@@ -7790,7 +7811,7 @@
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B572" t="s">
         <v>679</v>
@@ -7798,7 +7819,7 @@
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B573" t="s">
         <v>679</v>
@@ -7806,31 +7827,31 @@
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B574" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="B575" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="B576" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B577" t="s">
         <v>687</v>
@@ -7838,135 +7859,135 @@
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B578" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="B579" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="B580" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="B581" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="B582" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="B583" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="B584" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="B585" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B586" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="B587" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B588" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="B589" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="B590" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="B591" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="B592" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="B593" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="B594" t="s">
         <v>714</v>
@@ -7974,7 +7995,7 @@
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B595" t="s">
         <v>714</v>
@@ -7982,7 +8003,7 @@
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B596" t="s">
         <v>714</v>
@@ -7990,71 +8011,71 @@
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B597" t="s">
-        <v>32</v>
+        <v>714</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B598" t="s">
-        <v>32</v>
+        <v>714</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B599" t="s">
-        <v>722</v>
+        <v>32</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="B600" t="s">
-        <v>724</v>
+        <v>32</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="B601" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="B602" t="s">
-        <v>206</v>
+        <v>724</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B603" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="B604" t="s">
-        <v>728</v>
+        <v>206</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="B605" t="s">
         <v>728</v>
@@ -8062,39 +8083,39 @@
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B606" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="B607" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="B608" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B609" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="B610" t="s">
         <v>735</v>
@@ -8102,7 +8123,7 @@
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B611" t="s">
         <v>735</v>
@@ -8110,7 +8131,7 @@
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B612" t="s">
         <v>735</v>
@@ -8118,23 +8139,23 @@
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B613" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="B614" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="B615" t="s">
         <v>741</v>
@@ -8142,7 +8163,7 @@
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B616" t="s">
         <v>741</v>
@@ -8150,39 +8171,39 @@
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B617" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="B618" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="B619" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="B620" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="B621" t="s">
         <v>749</v>
@@ -8190,7 +8211,7 @@
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B622" t="s">
         <v>749</v>
@@ -8198,23 +8219,23 @@
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B623" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="B624" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="B625" t="s">
         <v>754</v>
@@ -8222,7 +8243,7 @@
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B626" t="s">
         <v>754</v>
@@ -8230,7 +8251,7 @@
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B627" t="s">
         <v>754</v>
@@ -8238,7 +8259,7 @@
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B628" t="s">
         <v>754</v>
@@ -8246,7 +8267,7 @@
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B629" t="s">
         <v>754</v>
@@ -8254,143 +8275,143 @@
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B630" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="B631" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="B632" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="B633" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="B634" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="B635" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="B636" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="B637" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="B638" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="B639" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="B640" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="B641" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="B642" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="B643" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="B644" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="B645" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="B646" t="s">
-        <v>34</v>
+        <v>786</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B647" t="s">
         <v>34</v>
@@ -8398,7 +8419,7 @@
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B648" t="s">
         <v>34</v>
@@ -8406,7 +8427,7 @@
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B649" t="s">
         <v>34</v>
@@ -8414,31 +8435,31 @@
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B650" t="s">
-        <v>793</v>
+        <v>34</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="B651" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="B652" t="s">
-        <v>7</v>
+        <v>793</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B653" t="s">
         <v>7</v>
@@ -8446,39 +8467,39 @@
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
-        <v>609</v>
+        <v>795</v>
       </c>
       <c r="B654" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B655" t="s">
-        <v>703</v>
+        <v>7</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
-        <v>798</v>
+        <v>609</v>
       </c>
       <c r="B656" t="s">
-        <v>799</v>
+        <v>13</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="B657" t="s">
-        <v>799</v>
+        <v>703</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="B658" t="s">
         <v>799</v>
@@ -8486,287 +8507,287 @@
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B659" t="s">
-        <v>271</v>
+        <v>799</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B660" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="B661" t="s">
-        <v>806</v>
+        <v>271</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="B662" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="B663" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="B664" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="B665" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="B666" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="B667" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="B668" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="B669" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="B670" t="s">
-        <v>519</v>
+        <v>818</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B671" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="B672" t="s">
-        <v>35</v>
+        <v>519</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B673" t="s">
-        <v>37</v>
+        <v>822</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B674" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B675" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B676" t="s">
-        <v>708</v>
+        <v>3</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B677" t="s">
-        <v>523</v>
+        <v>81</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B678" t="s">
-        <v>44</v>
+        <v>708</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B679" t="s">
-        <v>5</v>
+        <v>523</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B680" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B681" t="s">
-        <v>140</v>
+        <v>5</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B682" t="s">
-        <v>179</v>
+        <v>72</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B683" t="s">
-        <v>698</v>
+        <v>140</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B684" t="s">
-        <v>374</v>
+        <v>179</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B685" t="s">
-        <v>190</v>
+        <v>698</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B686" t="s">
-        <v>575</v>
+        <v>374</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B687" t="s">
-        <v>543</v>
+        <v>190</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B688" t="s">
-        <v>452</v>
+        <v>575</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B689" t="s">
-        <v>509</v>
+        <v>543</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B690" t="s">
-        <v>599</v>
+        <v>452</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B691" t="s">
-        <v>49</v>
+        <v>509</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B692" t="s">
-        <v>844</v>
+        <v>599</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B693" t="s">
-        <v>846</v>
+        <v>49</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="B694" t="s">
         <v>844</v>
@@ -8774,15 +8795,15 @@
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="B695" t="s">
-        <v>13</v>
+        <v>846</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B696" t="s">
         <v>844</v>
@@ -8790,15 +8811,15 @@
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B697" t="s">
-        <v>846</v>
+        <v>13</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B698" t="s">
         <v>844</v>
@@ -8806,343 +8827,343 @@
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B699" t="s">
-        <v>728</v>
+        <v>846</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B700" t="s">
-        <v>691</v>
+        <v>844</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B701" t="s">
-        <v>209</v>
+        <v>728</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B702" t="s">
-        <v>856</v>
+        <v>691</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B703" t="s">
-        <v>858</v>
+        <v>209</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="B704" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="B705" t="s">
-        <v>69</v>
+        <v>858</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
-        <v>755</v>
+        <v>859</v>
       </c>
       <c r="B706" t="s">
-        <v>754</v>
+        <v>860</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B707" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
-        <v>863</v>
+        <v>755</v>
       </c>
       <c r="B708" t="s">
-        <v>864</v>
+        <v>754</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="B709" t="s">
-        <v>617</v>
+        <v>45</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="B710" t="s">
-        <v>51</v>
+        <v>864</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B711" t="s">
-        <v>51</v>
+        <v>617</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B712" t="s">
-        <v>869</v>
+        <v>51</v>
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="B713" t="s">
-        <v>864</v>
+        <v>51</v>
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="B714" t="s">
-        <v>864</v>
+        <v>869</v>
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B715" t="s">
-        <v>732</v>
+        <v>864</v>
       </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B716" t="s">
-        <v>69</v>
+        <v>864</v>
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B717" t="s">
-        <v>3</v>
+        <v>732</v>
       </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B718" t="s">
-        <v>876</v>
+        <v>69</v>
       </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B719" t="s">
-        <v>878</v>
+        <v>3</v>
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="B720" t="s">
-        <v>818</v>
+        <v>876</v>
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="B721" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="B722" t="s">
-        <v>881</v>
+        <v>818</v>
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="B723" t="s">
-        <v>749</v>
+        <v>881</v>
       </c>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B724" t="s">
-        <v>856</v>
+        <v>881</v>
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B725" t="s">
-        <v>844</v>
+        <v>749</v>
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B726" t="s">
-        <v>76</v>
+        <v>856</v>
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B727" t="s">
-        <v>888</v>
+        <v>844</v>
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="B728" t="s">
-        <v>869</v>
+        <v>76</v>
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="B729" t="s">
-        <v>51</v>
+        <v>888</v>
       </c>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B730" t="s">
-        <v>881</v>
+        <v>869</v>
       </c>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B731" t="s">
-        <v>881</v>
+        <v>51</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B732" t="s">
-        <v>844</v>
+        <v>881</v>
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B733" t="s">
-        <v>69</v>
+        <v>881</v>
       </c>
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B734" t="s">
-        <v>881</v>
+        <v>844</v>
       </c>
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B735" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A736" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B736" t="s">
-        <v>7</v>
+        <v>881</v>
       </c>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A737" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B737" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A738" t="s">
-        <v>899</v>
+        <v>940</v>
       </c>
       <c r="B738" t="s">
-        <v>864</v>
+        <v>57</v>
       </c>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="B739" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="B740" t="s">
-        <v>479</v>
+        <v>51</v>
       </c>
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="B741" t="s">
         <v>864</v>
@@ -9150,229 +9171,254 @@
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="B742" t="s">
-        <v>881</v>
+        <v>69</v>
       </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="B743" t="s">
-        <v>115</v>
+        <v>479</v>
       </c>
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="B744" t="s">
-        <v>728</v>
+        <v>864</v>
       </c>
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="B745" t="s">
-        <v>190</v>
+        <v>881</v>
       </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="B746" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="B747" t="s">
-        <v>7</v>
+        <v>728</v>
       </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="B748" t="s">
-        <v>57</v>
+        <v>190</v>
       </c>
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="B749" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A750" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="B750" t="s">
-        <v>844</v>
+        <v>7</v>
       </c>
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="B751" t="s">
-        <v>153</v>
+        <v>57</v>
       </c>
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A752" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="B752" t="s">
-        <v>914</v>
+        <v>57</v>
       </c>
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="B753" t="s">
-        <v>881</v>
+        <v>844</v>
       </c>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="B754" t="s">
-        <v>881</v>
+        <v>153</v>
       </c>
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="B755" t="s">
-        <v>811</v>
+        <v>914</v>
       </c>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="B756" t="s">
-        <v>846</v>
+        <v>881</v>
       </c>
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="B757" t="s">
-        <v>64</v>
+        <v>881</v>
       </c>
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="B758" t="s">
-        <v>728</v>
+        <v>811</v>
       </c>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="B759" t="s">
-        <v>34</v>
+        <v>846</v>
       </c>
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A760" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="B760" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
-        <v>587</v>
+        <v>920</v>
       </c>
       <c r="B761" t="s">
-        <v>587</v>
+        <v>728</v>
       </c>
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A762" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B762" t="s">
-        <v>587</v>
+        <v>34</v>
       </c>
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A763" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B763" t="s">
-        <v>925</v>
+        <v>71</v>
       </c>
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A764" t="s">
-        <v>926</v>
+        <v>587</v>
       </c>
       <c r="B764" t="s">
-        <v>185</v>
+        <v>587</v>
       </c>
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A765" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="B765" t="s">
-        <v>54</v>
+        <v>587</v>
       </c>
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A766" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="B766" t="s">
-        <v>42</v>
+        <v>925</v>
       </c>
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A767" t="s">
-        <v>936</v>
+        <v>926</v>
       </c>
       <c r="B767" t="s">
-        <v>76</v>
+        <v>185</v>
       </c>
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A768" t="s">
-        <v>937</v>
+        <v>927</v>
       </c>
       <c r="B768" t="s">
-        <v>495</v>
+        <v>54</v>
       </c>
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A769" t="s">
+        <v>928</v>
+      </c>
+      <c r="B769" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A770" t="s">
+        <v>936</v>
+      </c>
+      <c r="B770" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A771" t="s">
+        <v>937</v>
+      </c>
+      <c r="B771" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A772" t="s">
         <v>938</v>
       </c>
-      <c r="B769" t="s">
+      <c r="B772" t="s">
         <v>869</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/interim/crosswalk.xlsx
+++ b/data/interim/crosswalk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/LocalWork/DataVisualizations/asbestos-dashboard/asbestos-dashboard-data/data/interim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADB4588-B700-5D41-9C62-858D9B5C2D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22829DC4-234F-FC43-B748-56020FA782E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="942">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="943">
   <si>
     <t>facility_name</t>
   </si>
@@ -2858,6 +2858,9 @@
   </si>
   <si>
     <t>Finletter Elementary School</t>
+  </si>
+  <si>
+    <t>richard r wright elementary school</t>
   </si>
 </sst>
 </file>
@@ -3229,10 +3232,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B772"/>
+  <dimension ref="A1:B773"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A723" zoomScale="139" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B738" sqref="B738"/>
+    <sheetView tabSelected="1" topLeftCell="A765" zoomScale="139" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A773" sqref="A773:B773"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9417,6 +9420,14 @@
         <v>869</v>
       </c>
     </row>
+    <row r="773" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A773" t="s">
+        <v>942</v>
+      </c>
+      <c r="B773" t="s">
+        <v>185</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/data/interim/crosswalk.xlsx
+++ b/data/interim/crosswalk.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/LocalWork/DataVisualizations/asbestos-dashboard/asbestos-dashboard-data/data/interim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22829DC4-234F-FC43-B748-56020FA782E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7608847A-3190-F140-B55B-A87AA13FEE56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="943">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1548" uniqueCount="944">
   <si>
     <t>facility_name</t>
   </si>
@@ -2861,6 +2861,9 @@
   </si>
   <si>
     <t>richard r wright elementary school</t>
+  </si>
+  <si>
+    <t>OLNEY HS</t>
   </si>
 </sst>
 </file>
@@ -3232,10 +3235,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B773"/>
+  <dimension ref="A1:B774"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A765" zoomScale="139" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A773" sqref="A773:B773"/>
+    <sheetView tabSelected="1" topLeftCell="A643" zoomScale="139" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B657" sqref="B657"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8494,7 +8497,7 @@
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
-        <v>797</v>
+        <v>943</v>
       </c>
       <c r="B657" t="s">
         <v>703</v>
@@ -8502,15 +8505,15 @@
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B658" t="s">
-        <v>799</v>
+        <v>703</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B659" t="s">
         <v>799</v>
@@ -8518,7 +8521,7 @@
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B660" t="s">
         <v>799</v>
@@ -8526,39 +8529,39 @@
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B661" t="s">
-        <v>271</v>
+        <v>799</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B662" t="s">
-        <v>804</v>
+        <v>271</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B663" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B664" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B665" t="s">
         <v>808</v>
@@ -8566,15 +8569,15 @@
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B666" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B667" t="s">
         <v>811</v>
@@ -8582,31 +8585,31 @@
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B668" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B669" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B670" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B671" t="s">
         <v>818</v>
@@ -8614,335 +8617,335 @@
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B672" t="s">
-        <v>519</v>
+        <v>818</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B673" t="s">
-        <v>822</v>
+        <v>519</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B674" t="s">
-        <v>35</v>
+        <v>822</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B675" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B676" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B677" t="s">
-        <v>81</v>
+        <v>3</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B678" t="s">
-        <v>708</v>
+        <v>81</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B679" t="s">
-        <v>523</v>
+        <v>708</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B680" t="s">
-        <v>44</v>
+        <v>523</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B681" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B682" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B683" t="s">
-        <v>140</v>
+        <v>72</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B684" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B685" t="s">
-        <v>698</v>
+        <v>179</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B686" t="s">
-        <v>374</v>
+        <v>698</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B687" t="s">
-        <v>190</v>
+        <v>374</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B688" t="s">
-        <v>575</v>
+        <v>190</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B689" t="s">
-        <v>543</v>
+        <v>575</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B690" t="s">
-        <v>452</v>
+        <v>543</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B691" t="s">
-        <v>509</v>
+        <v>452</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B692" t="s">
-        <v>599</v>
+        <v>509</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B693" t="s">
-        <v>49</v>
+        <v>599</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B694" t="s">
-        <v>844</v>
+        <v>49</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B695" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B696" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B697" t="s">
-        <v>13</v>
+        <v>844</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B698" t="s">
-        <v>844</v>
+        <v>13</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B699" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B700" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B701" t="s">
-        <v>728</v>
+        <v>844</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B702" t="s">
-        <v>691</v>
+        <v>728</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B703" t="s">
-        <v>209</v>
+        <v>691</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B704" t="s">
-        <v>856</v>
+        <v>209</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B705" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B706" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B707" t="s">
-        <v>69</v>
+        <v>860</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
-        <v>755</v>
+        <v>861</v>
       </c>
       <c r="B708" t="s">
-        <v>754</v>
+        <v>69</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
-        <v>862</v>
+        <v>755</v>
       </c>
       <c r="B709" t="s">
-        <v>45</v>
+        <v>754</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B710" t="s">
-        <v>864</v>
+        <v>45</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B711" t="s">
-        <v>617</v>
+        <v>864</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B712" t="s">
-        <v>51</v>
+        <v>617</v>
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B713" t="s">
         <v>51</v>
@@ -8950,23 +8953,23 @@
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B714" t="s">
-        <v>869</v>
+        <v>51</v>
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B715" t="s">
-        <v>864</v>
+        <v>869</v>
       </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B716" t="s">
         <v>864</v>
@@ -8974,63 +8977,63 @@
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B717" t="s">
-        <v>732</v>
+        <v>864</v>
       </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B718" t="s">
-        <v>69</v>
+        <v>732</v>
       </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B719" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B720" t="s">
-        <v>876</v>
+        <v>3</v>
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B721" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B722" t="s">
-        <v>818</v>
+        <v>878</v>
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B723" t="s">
-        <v>881</v>
+        <v>818</v>
       </c>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B724" t="s">
         <v>881</v>
@@ -9038,71 +9041,71 @@
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B725" t="s">
-        <v>749</v>
+        <v>881</v>
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B726" t="s">
-        <v>856</v>
+        <v>749</v>
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B727" t="s">
-        <v>844</v>
+        <v>856</v>
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B728" t="s">
-        <v>76</v>
+        <v>844</v>
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B729" t="s">
-        <v>888</v>
+        <v>76</v>
       </c>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B730" t="s">
-        <v>869</v>
+        <v>888</v>
       </c>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B731" t="s">
-        <v>51</v>
+        <v>869</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B732" t="s">
-        <v>881</v>
+        <v>51</v>
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B733" t="s">
         <v>881</v>
@@ -9110,39 +9113,39 @@
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B734" t="s">
-        <v>844</v>
+        <v>881</v>
       </c>
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B735" t="s">
-        <v>69</v>
+        <v>844</v>
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A736" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B736" t="s">
-        <v>881</v>
+        <v>69</v>
       </c>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A737" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B737" t="s">
-        <v>57</v>
+        <v>881</v>
       </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A738" t="s">
-        <v>940</v>
+        <v>896</v>
       </c>
       <c r="B738" t="s">
         <v>57</v>
@@ -9150,111 +9153,111 @@
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
-        <v>897</v>
+        <v>940</v>
       </c>
       <c r="B739" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B740" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B741" t="s">
-        <v>864</v>
+        <v>51</v>
       </c>
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B742" t="s">
-        <v>69</v>
+        <v>864</v>
       </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B743" t="s">
-        <v>479</v>
+        <v>69</v>
       </c>
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B744" t="s">
-        <v>864</v>
+        <v>479</v>
       </c>
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B745" t="s">
-        <v>881</v>
+        <v>864</v>
       </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B746" t="s">
-        <v>115</v>
+        <v>881</v>
       </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B747" t="s">
-        <v>728</v>
+        <v>115</v>
       </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B748" t="s">
-        <v>190</v>
+        <v>728</v>
       </c>
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B749" t="s">
-        <v>51</v>
+        <v>190</v>
       </c>
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A750" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B750" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B751" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A752" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B752" t="s">
         <v>57</v>
@@ -9262,39 +9265,39 @@
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B753" t="s">
-        <v>844</v>
+        <v>57</v>
       </c>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B754" t="s">
-        <v>153</v>
+        <v>844</v>
       </c>
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B755" t="s">
-        <v>914</v>
+        <v>153</v>
       </c>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B756" t="s">
-        <v>881</v>
+        <v>914</v>
       </c>
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B757" t="s">
         <v>881</v>
@@ -9302,63 +9305,63 @@
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B758" t="s">
-        <v>811</v>
+        <v>881</v>
       </c>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B759" t="s">
-        <v>846</v>
+        <v>811</v>
       </c>
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A760" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B760" t="s">
-        <v>64</v>
+        <v>846</v>
       </c>
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B761" t="s">
-        <v>728</v>
+        <v>64</v>
       </c>
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A762" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B762" t="s">
-        <v>34</v>
+        <v>728</v>
       </c>
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A763" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B763" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A764" t="s">
-        <v>587</v>
+        <v>922</v>
       </c>
       <c r="B764" t="s">
-        <v>587</v>
+        <v>71</v>
       </c>
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A765" t="s">
-        <v>923</v>
+        <v>587</v>
       </c>
       <c r="B765" t="s">
         <v>587</v>
@@ -9366,65 +9369,73 @@
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A766" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B766" t="s">
-        <v>925</v>
+        <v>587</v>
       </c>
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A767" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B767" t="s">
-        <v>185</v>
+        <v>925</v>
       </c>
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A768" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B768" t="s">
-        <v>54</v>
+        <v>185</v>
       </c>
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A769" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B769" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A770" t="s">
-        <v>936</v>
+        <v>928</v>
       </c>
       <c r="B770" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A771" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B771" t="s">
-        <v>495</v>
+        <v>76</v>
       </c>
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A772" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B772" t="s">
-        <v>869</v>
+        <v>495</v>
       </c>
     </row>
     <row r="773" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A773" t="s">
+        <v>938</v>
+      </c>
+      <c r="B773" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A774" t="s">
         <v>942</v>
       </c>
-      <c r="B773" t="s">
+      <c r="B774" t="s">
         <v>185</v>
       </c>
     </row>

--- a/data/interim/crosswalk.xlsx
+++ b/data/interim/crosswalk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/LocalWork/DataVisualizations/asbestos-dashboard/asbestos-dashboard-data/data/interim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7608847A-3190-F140-B55B-A87AA13FEE56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45234571-AE0C-E943-9825-DD8ED143C8E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1548" uniqueCount="944">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="945">
   <si>
     <t>facility_name</t>
   </si>
@@ -2864,6 +2864,9 @@
   </si>
   <si>
     <t>OLNEY HS</t>
+  </si>
+  <si>
+    <t>RANDOLPH CAREER &amp; TECHNICAL HS</t>
   </si>
 </sst>
 </file>
@@ -3235,10 +3238,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B774"/>
+  <dimension ref="A1:B775"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A643" zoomScale="139" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B657" sqref="B657"/>
+      <selection activeCell="A647" sqref="A647:B647"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8417,15 +8420,15 @@
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
-        <v>787</v>
+        <v>944</v>
       </c>
       <c r="B647" t="s">
-        <v>34</v>
+        <v>786</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B648" t="s">
         <v>34</v>
@@ -8433,7 +8436,7 @@
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B649" t="s">
         <v>34</v>
@@ -8441,7 +8444,7 @@
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B650" t="s">
         <v>34</v>
@@ -8449,7 +8452,7 @@
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B651" t="s">
         <v>34</v>
@@ -8457,23 +8460,23 @@
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B652" t="s">
-        <v>793</v>
+        <v>34</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B653" t="s">
-        <v>7</v>
+        <v>793</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B654" t="s">
         <v>7</v>
@@ -8481,7 +8484,7 @@
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B655" t="s">
         <v>7</v>
@@ -8489,23 +8492,23 @@
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
-        <v>609</v>
+        <v>796</v>
       </c>
       <c r="B656" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
-        <v>943</v>
+        <v>609</v>
       </c>
       <c r="B657" t="s">
-        <v>703</v>
+        <v>13</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
-        <v>797</v>
+        <v>943</v>
       </c>
       <c r="B658" t="s">
         <v>703</v>
@@ -8513,15 +8516,15 @@
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B659" t="s">
-        <v>799</v>
+        <v>703</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B660" t="s">
         <v>799</v>
@@ -8529,7 +8532,7 @@
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B661" t="s">
         <v>799</v>
@@ -8537,39 +8540,39 @@
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B662" t="s">
-        <v>271</v>
+        <v>799</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B663" t="s">
-        <v>804</v>
+        <v>271</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B664" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B665" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B666" t="s">
         <v>808</v>
@@ -8577,15 +8580,15 @@
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B667" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B668" t="s">
         <v>811</v>
@@ -8593,31 +8596,31 @@
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B669" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B670" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B671" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B672" t="s">
         <v>818</v>
@@ -8625,335 +8628,335 @@
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B673" t="s">
-        <v>519</v>
+        <v>818</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B674" t="s">
-        <v>822</v>
+        <v>519</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B675" t="s">
-        <v>35</v>
+        <v>822</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B676" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B677" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B678" t="s">
-        <v>81</v>
+        <v>3</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B679" t="s">
-        <v>708</v>
+        <v>81</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B680" t="s">
-        <v>523</v>
+        <v>708</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B681" t="s">
-        <v>44</v>
+        <v>523</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B682" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B683" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B684" t="s">
-        <v>140</v>
+        <v>72</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B685" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B686" t="s">
-        <v>698</v>
+        <v>179</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B687" t="s">
-        <v>374</v>
+        <v>698</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B688" t="s">
-        <v>190</v>
+        <v>374</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B689" t="s">
-        <v>575</v>
+        <v>190</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B690" t="s">
-        <v>543</v>
+        <v>575</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B691" t="s">
-        <v>452</v>
+        <v>543</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B692" t="s">
-        <v>509</v>
+        <v>452</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B693" t="s">
-        <v>599</v>
+        <v>509</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B694" t="s">
-        <v>49</v>
+        <v>599</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B695" t="s">
-        <v>844</v>
+        <v>49</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B696" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B697" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B698" t="s">
-        <v>13</v>
+        <v>844</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B699" t="s">
-        <v>844</v>
+        <v>13</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B700" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B701" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B702" t="s">
-        <v>728</v>
+        <v>844</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B703" t="s">
-        <v>691</v>
+        <v>728</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B704" t="s">
-        <v>209</v>
+        <v>691</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B705" t="s">
-        <v>856</v>
+        <v>209</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B706" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B707" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B708" t="s">
-        <v>69</v>
+        <v>860</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
-        <v>755</v>
+        <v>861</v>
       </c>
       <c r="B709" t="s">
-        <v>754</v>
+        <v>69</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
-        <v>862</v>
+        <v>755</v>
       </c>
       <c r="B710" t="s">
-        <v>45</v>
+        <v>754</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B711" t="s">
-        <v>864</v>
+        <v>45</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B712" t="s">
-        <v>617</v>
+        <v>864</v>
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B713" t="s">
-        <v>51</v>
+        <v>617</v>
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B714" t="s">
         <v>51</v>
@@ -8961,23 +8964,23 @@
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B715" t="s">
-        <v>869</v>
+        <v>51</v>
       </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B716" t="s">
-        <v>864</v>
+        <v>869</v>
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B717" t="s">
         <v>864</v>
@@ -8985,63 +8988,63 @@
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B718" t="s">
-        <v>732</v>
+        <v>864</v>
       </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B719" t="s">
-        <v>69</v>
+        <v>732</v>
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B720" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B721" t="s">
-        <v>876</v>
+        <v>3</v>
       </c>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B722" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B723" t="s">
-        <v>818</v>
+        <v>878</v>
       </c>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B724" t="s">
-        <v>881</v>
+        <v>818</v>
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B725" t="s">
         <v>881</v>
@@ -9049,71 +9052,71 @@
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B726" t="s">
-        <v>749</v>
+        <v>881</v>
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B727" t="s">
-        <v>856</v>
+        <v>749</v>
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B728" t="s">
-        <v>844</v>
+        <v>856</v>
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B729" t="s">
-        <v>76</v>
+        <v>844</v>
       </c>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B730" t="s">
-        <v>888</v>
+        <v>76</v>
       </c>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B731" t="s">
-        <v>869</v>
+        <v>888</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B732" t="s">
-        <v>51</v>
+        <v>869</v>
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B733" t="s">
-        <v>881</v>
+        <v>51</v>
       </c>
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B734" t="s">
         <v>881</v>
@@ -9121,39 +9124,39 @@
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B735" t="s">
-        <v>844</v>
+        <v>881</v>
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A736" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B736" t="s">
-        <v>69</v>
+        <v>844</v>
       </c>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A737" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B737" t="s">
-        <v>881</v>
+        <v>69</v>
       </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A738" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B738" t="s">
-        <v>57</v>
+        <v>881</v>
       </c>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
-        <v>940</v>
+        <v>896</v>
       </c>
       <c r="B739" t="s">
         <v>57</v>
@@ -9161,111 +9164,111 @@
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
-        <v>897</v>
+        <v>940</v>
       </c>
       <c r="B740" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B741" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B742" t="s">
-        <v>864</v>
+        <v>51</v>
       </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B743" t="s">
-        <v>69</v>
+        <v>864</v>
       </c>
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B744" t="s">
-        <v>479</v>
+        <v>69</v>
       </c>
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B745" t="s">
-        <v>864</v>
+        <v>479</v>
       </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B746" t="s">
-        <v>881</v>
+        <v>864</v>
       </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B747" t="s">
-        <v>115</v>
+        <v>881</v>
       </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B748" t="s">
-        <v>728</v>
+        <v>115</v>
       </c>
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B749" t="s">
-        <v>190</v>
+        <v>728</v>
       </c>
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A750" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B750" t="s">
-        <v>51</v>
+        <v>190</v>
       </c>
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B751" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A752" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B752" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B753" t="s">
         <v>57</v>
@@ -9273,39 +9276,39 @@
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B754" t="s">
-        <v>844</v>
+        <v>57</v>
       </c>
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B755" t="s">
-        <v>153</v>
+        <v>844</v>
       </c>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B756" t="s">
-        <v>914</v>
+        <v>153</v>
       </c>
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B757" t="s">
-        <v>881</v>
+        <v>914</v>
       </c>
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B758" t="s">
         <v>881</v>
@@ -9313,63 +9316,63 @@
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B759" t="s">
-        <v>811</v>
+        <v>881</v>
       </c>
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A760" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B760" t="s">
-        <v>846</v>
+        <v>811</v>
       </c>
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B761" t="s">
-        <v>64</v>
+        <v>846</v>
       </c>
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A762" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B762" t="s">
-        <v>728</v>
+        <v>64</v>
       </c>
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A763" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B763" t="s">
-        <v>34</v>
+        <v>728</v>
       </c>
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A764" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B764" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A765" t="s">
-        <v>587</v>
+        <v>922</v>
       </c>
       <c r="B765" t="s">
-        <v>587</v>
+        <v>71</v>
       </c>
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A766" t="s">
-        <v>923</v>
+        <v>587</v>
       </c>
       <c r="B766" t="s">
         <v>587</v>
@@ -9377,65 +9380,73 @@
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A767" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B767" t="s">
-        <v>925</v>
+        <v>587</v>
       </c>
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A768" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B768" t="s">
-        <v>185</v>
+        <v>925</v>
       </c>
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A769" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B769" t="s">
-        <v>54</v>
+        <v>185</v>
       </c>
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A770" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B770" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A771" t="s">
-        <v>936</v>
+        <v>928</v>
       </c>
       <c r="B771" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A772" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B772" t="s">
-        <v>495</v>
+        <v>76</v>
       </c>
     </row>
     <row r="773" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A773" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B773" t="s">
-        <v>869</v>
+        <v>495</v>
       </c>
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A774" t="s">
+        <v>938</v>
+      </c>
+      <c r="B774" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A775" t="s">
         <v>942</v>
       </c>
-      <c r="B774" t="s">
+      <c r="B775" t="s">
         <v>185</v>
       </c>
     </row>

--- a/data/interim/crosswalk.xlsx
+++ b/data/interim/crosswalk.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/LocalWork/DataVisualizations/asbestos-dashboard/asbestos-dashboard-data/data/interim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45234571-AE0C-E943-9825-DD8ED143C8E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D234DDE-20AF-C946-B409-A5E15BF3C720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="945">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="946">
   <si>
     <t>facility_name</t>
   </si>
@@ -2867,6 +2867,9 @@
   </si>
   <si>
     <t>RANDOLPH CAREER &amp; TECHNICAL HS</t>
+  </si>
+  <si>
+    <t>W.D. Kelley Elementary School</t>
   </si>
 </sst>
 </file>
@@ -3238,10 +3241,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B775"/>
+  <dimension ref="A1:B776"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A643" zoomScale="139" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A647" sqref="A647:B647"/>
+    <sheetView tabSelected="1" topLeftCell="A716" zoomScale="139" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A733" sqref="A733"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9087,7 +9090,7 @@
         <v>886</v>
       </c>
       <c r="B730" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.2">
@@ -9448,6 +9451,14 @@
       </c>
       <c r="B775" t="s">
         <v>185</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A776" t="s">
+        <v>945</v>
+      </c>
+      <c r="B776" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/data/interim/crosswalk.xlsx
+++ b/data/interim/crosswalk.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/LocalWork/DataVisualizations/asbestos-dashboard/asbestos-dashboard-data/data/interim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D234DDE-20AF-C946-B409-A5E15BF3C720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0526E678-EE2F-A147-91DD-3C630D065784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="946">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="948">
   <si>
     <t>facility_name</t>
   </si>
@@ -2870,6 +2870,12 @@
   </si>
   <si>
     <t>W.D. Kelley Elementary School</t>
+  </si>
+  <si>
+    <t>GIRARD ACADEMIC MUSIC PROGRAM (GAMP)</t>
+  </si>
+  <si>
+    <t>James G Blaine Elementary School</t>
   </si>
 </sst>
 </file>
@@ -3241,10 +3247,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B776"/>
+  <dimension ref="A1:B778"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A716" zoomScale="139" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A733" sqref="A733"/>
+    <sheetView tabSelected="1" topLeftCell="A769" zoomScale="139" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A777" sqref="A777:B778"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9461,6 +9467,22 @@
         <v>76</v>
       </c>
     </row>
+    <row r="777" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A777" t="s">
+        <v>946</v>
+      </c>
+      <c r="B777" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A778" t="s">
+        <v>947</v>
+      </c>
+      <c r="B778" t="s">
+        <v>115</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/data/interim/crosswalk.xlsx
+++ b/data/interim/crosswalk.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/LocalWork/DataVisualizations/asbestos-dashboard/asbestos-dashboard-data/data/interim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0526E678-EE2F-A147-91DD-3C630D065784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F0692D-9994-0A44-8B58-0014C2D0F9DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="949">
   <si>
     <t>facility_name</t>
   </si>
@@ -2876,6 +2876,9 @@
   </si>
   <si>
     <t>James G Blaine Elementary School</t>
+  </si>
+  <si>
+    <t>Philadelphia Military Academy at Elverson</t>
   </si>
 </sst>
 </file>
@@ -3247,10 +3250,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B778"/>
+  <dimension ref="A1:B779"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A769" zoomScale="139" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A777" sqref="A777:B778"/>
+    <sheetView tabSelected="1" topLeftCell="A242" zoomScale="139" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A256" sqref="A256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9483,6 +9486,14 @@
         <v>115</v>
       </c>
     </row>
+    <row r="779" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A779" t="s">
+        <v>948</v>
+      </c>
+      <c r="B779" t="s">
+        <v>728</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/data/interim/crosswalk.xlsx
+++ b/data/interim/crosswalk.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/LocalWork/DataVisualizations/asbestos-dashboard/asbestos-dashboard-data/data/interim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F0692D-9994-0A44-8B58-0014C2D0F9DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E1D994-58C0-6D4D-A586-17B88AC8DB18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="949">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="951">
   <si>
     <t>facility_name</t>
   </si>
@@ -2879,6 +2879,12 @@
   </si>
   <si>
     <t>Philadelphia Military Academy at Elverson</t>
+  </si>
+  <si>
+    <t>EW RHODES MS</t>
+  </si>
+  <si>
+    <t>Lindley Academy Charter School</t>
   </si>
 </sst>
 </file>
@@ -3250,10 +3256,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B779"/>
+  <dimension ref="A1:B781"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A242" zoomScale="139" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A256" sqref="A256"/>
+    <sheetView tabSelected="1" topLeftCell="A484" zoomScale="139" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A498" sqref="A498"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7240,7 +7246,7 @@
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>586</v>
+        <v>950</v>
       </c>
       <c r="B498" t="s">
         <v>587</v>
@@ -7248,15 +7254,15 @@
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B499" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B500" t="s">
         <v>589</v>
@@ -7264,7 +7270,7 @@
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B501" t="s">
         <v>589</v>
@@ -7272,7 +7278,7 @@
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B502" t="s">
         <v>589</v>
@@ -7280,7 +7286,7 @@
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B503" t="s">
         <v>589</v>
@@ -7288,7 +7294,7 @@
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B504" t="s">
         <v>589</v>
@@ -7296,15 +7302,15 @@
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B505" t="s">
-        <v>45</v>
+        <v>589</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B506" t="s">
         <v>45</v>
@@ -7312,7 +7318,7 @@
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B507" t="s">
         <v>45</v>
@@ -7320,15 +7326,15 @@
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B508" t="s">
-        <v>599</v>
+        <v>45</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B509" t="s">
         <v>599</v>
@@ -7336,15 +7342,15 @@
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B510" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B511" t="s">
         <v>602</v>
@@ -7352,7 +7358,7 @@
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B512" t="s">
         <v>602</v>
@@ -7360,7 +7366,7 @@
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B513" t="s">
         <v>602</v>
@@ -7368,7 +7374,7 @@
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B514" t="s">
         <v>602</v>
@@ -7376,7 +7382,7 @@
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B515" t="s">
         <v>602</v>
@@ -7384,7 +7390,7 @@
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B516" t="s">
         <v>602</v>
@@ -7392,15 +7398,15 @@
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B517" t="s">
-        <v>13</v>
+        <v>602</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B518" t="s">
         <v>13</v>
@@ -7408,15 +7414,15 @@
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B519" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B520" t="s">
         <v>67</v>
@@ -7424,15 +7430,15 @@
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B521" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B522" t="s">
         <v>46</v>
@@ -7440,7 +7446,7 @@
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B523" t="s">
         <v>46</v>
@@ -7448,15 +7454,15 @@
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B524" t="s">
-        <v>617</v>
+        <v>46</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B525" t="s">
         <v>617</v>
@@ -7464,15 +7470,15 @@
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B526" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B527" t="s">
         <v>620</v>
@@ -7480,15 +7486,15 @@
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B528" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B529" t="s">
         <v>623</v>
@@ -7496,7 +7502,7 @@
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B530" t="s">
         <v>623</v>
@@ -7504,23 +7510,23 @@
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B531" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B532" t="s">
-        <v>11</v>
+        <v>627</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B533" t="s">
         <v>11</v>
@@ -7528,15 +7534,15 @@
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B534" t="s">
-        <v>631</v>
+        <v>11</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B535" t="s">
         <v>631</v>
@@ -7544,15 +7550,15 @@
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B536" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B537" t="s">
         <v>634</v>
@@ -7560,7 +7566,7 @@
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B538" t="s">
         <v>634</v>
@@ -7568,15 +7574,15 @@
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B539" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B540" t="s">
         <v>638</v>
@@ -7584,7 +7590,7 @@
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B541" t="s">
         <v>638</v>
@@ -7592,31 +7598,31 @@
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B542" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B543" t="s">
-        <v>40</v>
+        <v>642</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B544" t="s">
-        <v>645</v>
+        <v>40</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B545" t="s">
         <v>645</v>
@@ -7624,7 +7630,7 @@
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B546" t="s">
         <v>645</v>
@@ -7632,15 +7638,15 @@
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B547" t="s">
-        <v>19</v>
+        <v>645</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B548" t="s">
         <v>19</v>
@@ -7648,7 +7654,7 @@
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B549" t="s">
         <v>19</v>
@@ -7656,7 +7662,7 @@
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B550" t="s">
         <v>19</v>
@@ -7664,7 +7670,7 @@
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B551" t="s">
         <v>19</v>
@@ -7672,23 +7678,23 @@
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B552" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B553" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B554" t="s">
         <v>23</v>
@@ -7696,7 +7702,7 @@
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B555" t="s">
         <v>23</v>
@@ -7704,15 +7710,15 @@
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B556" t="s">
-        <v>658</v>
+        <v>23</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B557" t="s">
         <v>658</v>
@@ -7720,15 +7726,15 @@
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B558" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B559" t="s">
         <v>661</v>
@@ -7736,7 +7742,7 @@
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B560" t="s">
         <v>661</v>
@@ -7744,39 +7750,39 @@
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B561" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B562" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B563" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B564" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B565" t="s">
         <v>671</v>
@@ -7784,7 +7790,7 @@
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B566" t="s">
         <v>671</v>
@@ -7792,15 +7798,15 @@
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B567" t="s">
-        <v>39</v>
+        <v>671</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B568" t="s">
         <v>39</v>
@@ -7808,7 +7814,7 @@
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B569" t="s">
         <v>39</v>
@@ -7816,7 +7822,7 @@
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B570" t="s">
         <v>39</v>
@@ -7824,15 +7830,15 @@
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B571" t="s">
-        <v>679</v>
+        <v>39</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B572" t="s">
         <v>679</v>
@@ -7840,7 +7846,7 @@
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B573" t="s">
         <v>679</v>
@@ -7848,7 +7854,7 @@
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B574" t="s">
         <v>679</v>
@@ -7856,7 +7862,7 @@
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B575" t="s">
         <v>679</v>
@@ -7864,23 +7870,23 @@
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B576" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B577" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B578" t="s">
         <v>687</v>
@@ -7888,7 +7894,7 @@
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B579" t="s">
         <v>687</v>
@@ -7896,15 +7902,15 @@
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B580" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B581" t="s">
         <v>691</v>
@@ -7912,39 +7918,39 @@
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B582" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B583" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B584" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B585" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B586" t="s">
         <v>700</v>
@@ -7952,23 +7958,23 @@
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B587" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B588" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B589" t="s">
         <v>705</v>
@@ -7976,15 +7982,15 @@
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B590" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B591" t="s">
         <v>708</v>
@@ -7992,15 +7998,15 @@
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B592" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B593" t="s">
         <v>711</v>
@@ -8008,15 +8014,15 @@
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B594" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B595" t="s">
         <v>714</v>
@@ -8024,7 +8030,7 @@
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B596" t="s">
         <v>714</v>
@@ -8032,7 +8038,7 @@
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B597" t="s">
         <v>714</v>
@@ -8040,7 +8046,7 @@
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B598" t="s">
         <v>714</v>
@@ -8048,15 +8054,15 @@
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B599" t="s">
-        <v>32</v>
+        <v>714</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B600" t="s">
         <v>32</v>
@@ -8064,23 +8070,23 @@
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B601" t="s">
-        <v>722</v>
+        <v>32</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B602" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B603" t="s">
         <v>724</v>
@@ -8088,23 +8094,23 @@
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B604" t="s">
-        <v>206</v>
+        <v>724</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B605" t="s">
-        <v>728</v>
+        <v>206</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B606" t="s">
         <v>728</v>
@@ -8112,7 +8118,7 @@
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B607" t="s">
         <v>728</v>
@@ -8120,15 +8126,15 @@
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B608" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B609" t="s">
         <v>732</v>
@@ -8136,15 +8142,15 @@
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B610" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B611" t="s">
         <v>735</v>
@@ -8152,7 +8158,7 @@
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B612" t="s">
         <v>735</v>
@@ -8160,7 +8166,7 @@
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B613" t="s">
         <v>735</v>
@@ -8168,7 +8174,7 @@
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B614" t="s">
         <v>735</v>
@@ -8176,15 +8182,15 @@
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B615" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B616" t="s">
         <v>741</v>
@@ -8192,7 +8198,7 @@
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B617" t="s">
         <v>741</v>
@@ -8200,7 +8206,7 @@
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B618" t="s">
         <v>741</v>
@@ -8208,15 +8214,15 @@
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B619" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B620" t="s">
         <v>746</v>
@@ -8224,15 +8230,15 @@
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B621" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B622" t="s">
         <v>749</v>
@@ -8240,7 +8246,7 @@
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B623" t="s">
         <v>749</v>
@@ -8248,7 +8254,7 @@
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B624" t="s">
         <v>749</v>
@@ -8256,15 +8262,15 @@
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B625" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B626" t="s">
         <v>754</v>
@@ -8272,7 +8278,7 @@
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B627" t="s">
         <v>754</v>
@@ -8280,7 +8286,7 @@
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B628" t="s">
         <v>754</v>
@@ -8288,7 +8294,7 @@
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B629" t="s">
         <v>754</v>
@@ -8296,7 +8302,7 @@
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B630" t="s">
         <v>754</v>
@@ -8304,7 +8310,7 @@
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B631" t="s">
         <v>754</v>
@@ -8312,15 +8318,15 @@
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B632" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B633" t="s">
         <v>762</v>
@@ -8328,47 +8334,47 @@
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B634" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B635" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B636" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B637" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B638" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B639" t="s">
         <v>773</v>
@@ -8376,23 +8382,23 @@
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B640" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B641" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B642" t="s">
         <v>778</v>
@@ -8400,23 +8406,23 @@
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B643" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B644" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B645" t="s">
         <v>783</v>
@@ -8424,15 +8430,15 @@
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B646" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
-        <v>944</v>
+        <v>785</v>
       </c>
       <c r="B647" t="s">
         <v>786</v>
@@ -8440,15 +8446,15 @@
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
-        <v>787</v>
+        <v>944</v>
       </c>
       <c r="B648" t="s">
-        <v>34</v>
+        <v>786</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B649" t="s">
         <v>34</v>
@@ -8456,7 +8462,7 @@
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B650" t="s">
         <v>34</v>
@@ -8464,7 +8470,7 @@
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B651" t="s">
         <v>34</v>
@@ -8472,7 +8478,7 @@
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B652" t="s">
         <v>34</v>
@@ -8480,23 +8486,23 @@
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B653" t="s">
-        <v>793</v>
+        <v>34</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B654" t="s">
-        <v>7</v>
+        <v>793</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B655" t="s">
         <v>7</v>
@@ -8504,7 +8510,7 @@
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B656" t="s">
         <v>7</v>
@@ -8512,23 +8518,23 @@
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
-        <v>609</v>
+        <v>796</v>
       </c>
       <c r="B657" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
-        <v>943</v>
+        <v>609</v>
       </c>
       <c r="B658" t="s">
-        <v>703</v>
+        <v>13</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
-        <v>797</v>
+        <v>943</v>
       </c>
       <c r="B659" t="s">
         <v>703</v>
@@ -8536,15 +8542,15 @@
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B660" t="s">
-        <v>799</v>
+        <v>703</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B661" t="s">
         <v>799</v>
@@ -8552,7 +8558,7 @@
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B662" t="s">
         <v>799</v>
@@ -8560,39 +8566,39 @@
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B663" t="s">
-        <v>271</v>
+        <v>799</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B664" t="s">
-        <v>804</v>
+        <v>271</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B665" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B666" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B667" t="s">
         <v>808</v>
@@ -8600,15 +8606,15 @@
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B668" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B669" t="s">
         <v>811</v>
@@ -8616,31 +8622,31 @@
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B670" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B671" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B672" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B673" t="s">
         <v>818</v>
@@ -8648,335 +8654,335 @@
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B674" t="s">
-        <v>519</v>
+        <v>818</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B675" t="s">
-        <v>822</v>
+        <v>519</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B676" t="s">
-        <v>35</v>
+        <v>822</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B677" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B678" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B679" t="s">
-        <v>81</v>
+        <v>3</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B680" t="s">
-        <v>708</v>
+        <v>81</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B681" t="s">
-        <v>523</v>
+        <v>708</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B682" t="s">
-        <v>44</v>
+        <v>523</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B683" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B684" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B685" t="s">
-        <v>140</v>
+        <v>72</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B686" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B687" t="s">
-        <v>698</v>
+        <v>179</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B688" t="s">
-        <v>374</v>
+        <v>698</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B689" t="s">
-        <v>190</v>
+        <v>374</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B690" t="s">
-        <v>575</v>
+        <v>190</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B691" t="s">
-        <v>543</v>
+        <v>575</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B692" t="s">
-        <v>452</v>
+        <v>543</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B693" t="s">
-        <v>509</v>
+        <v>452</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B694" t="s">
-        <v>599</v>
+        <v>509</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B695" t="s">
-        <v>49</v>
+        <v>599</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B696" t="s">
-        <v>844</v>
+        <v>49</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B697" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B698" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B699" t="s">
-        <v>13</v>
+        <v>844</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B700" t="s">
-        <v>844</v>
+        <v>13</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B701" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B702" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B703" t="s">
-        <v>728</v>
+        <v>844</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B704" t="s">
-        <v>691</v>
+        <v>728</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B705" t="s">
-        <v>209</v>
+        <v>691</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B706" t="s">
-        <v>856</v>
+        <v>209</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B707" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B708" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B709" t="s">
-        <v>69</v>
+        <v>860</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
-        <v>755</v>
+        <v>861</v>
       </c>
       <c r="B710" t="s">
-        <v>754</v>
+        <v>69</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
-        <v>862</v>
+        <v>755</v>
       </c>
       <c r="B711" t="s">
-        <v>45</v>
+        <v>754</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B712" t="s">
-        <v>864</v>
+        <v>45</v>
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B713" t="s">
-        <v>617</v>
+        <v>864</v>
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B714" t="s">
-        <v>51</v>
+        <v>617</v>
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B715" t="s">
         <v>51</v>
@@ -8984,23 +8990,23 @@
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B716" t="s">
-        <v>869</v>
+        <v>51</v>
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B717" t="s">
-        <v>864</v>
+        <v>869</v>
       </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B718" t="s">
         <v>864</v>
@@ -9008,63 +9014,63 @@
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B719" t="s">
-        <v>732</v>
+        <v>864</v>
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B720" t="s">
-        <v>69</v>
+        <v>732</v>
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B721" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B722" t="s">
-        <v>876</v>
+        <v>3</v>
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B723" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B724" t="s">
-        <v>818</v>
+        <v>878</v>
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B725" t="s">
-        <v>881</v>
+        <v>818</v>
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B726" t="s">
         <v>881</v>
@@ -9072,71 +9078,71 @@
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B727" t="s">
-        <v>749</v>
+        <v>881</v>
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B728" t="s">
-        <v>856</v>
+        <v>749</v>
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B729" t="s">
-        <v>844</v>
+        <v>856</v>
       </c>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B730" t="s">
-        <v>71</v>
+        <v>844</v>
       </c>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B731" t="s">
-        <v>888</v>
+        <v>71</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B732" t="s">
-        <v>869</v>
+        <v>888</v>
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B733" t="s">
-        <v>51</v>
+        <v>869</v>
       </c>
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B734" t="s">
-        <v>881</v>
+        <v>51</v>
       </c>
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B735" t="s">
         <v>881</v>
@@ -9144,39 +9150,39 @@
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A736" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B736" t="s">
-        <v>844</v>
+        <v>881</v>
       </c>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A737" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B737" t="s">
-        <v>69</v>
+        <v>844</v>
       </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A738" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B738" t="s">
-        <v>881</v>
+        <v>69</v>
       </c>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B739" t="s">
-        <v>57</v>
+        <v>881</v>
       </c>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
-        <v>940</v>
+        <v>896</v>
       </c>
       <c r="B740" t="s">
         <v>57</v>
@@ -9184,111 +9190,111 @@
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
-        <v>897</v>
+        <v>940</v>
       </c>
       <c r="B741" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B742" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B743" t="s">
-        <v>864</v>
+        <v>51</v>
       </c>
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B744" t="s">
-        <v>69</v>
+        <v>864</v>
       </c>
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B745" t="s">
-        <v>479</v>
+        <v>69</v>
       </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B746" t="s">
-        <v>864</v>
+        <v>479</v>
       </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B747" t="s">
-        <v>881</v>
+        <v>864</v>
       </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B748" t="s">
-        <v>115</v>
+        <v>881</v>
       </c>
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B749" t="s">
-        <v>728</v>
+        <v>115</v>
       </c>
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A750" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B750" t="s">
-        <v>190</v>
+        <v>728</v>
       </c>
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B751" t="s">
-        <v>51</v>
+        <v>190</v>
       </c>
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A752" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B752" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B753" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B754" t="s">
         <v>57</v>
@@ -9296,39 +9302,39 @@
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B755" t="s">
-        <v>844</v>
+        <v>57</v>
       </c>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B756" t="s">
-        <v>153</v>
+        <v>844</v>
       </c>
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B757" t="s">
-        <v>914</v>
+        <v>153</v>
       </c>
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B758" t="s">
-        <v>881</v>
+        <v>914</v>
       </c>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B759" t="s">
         <v>881</v>
@@ -9336,63 +9342,63 @@
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A760" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B760" t="s">
-        <v>811</v>
+        <v>881</v>
       </c>
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B761" t="s">
-        <v>846</v>
+        <v>811</v>
       </c>
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A762" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B762" t="s">
-        <v>64</v>
+        <v>846</v>
       </c>
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A763" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B763" t="s">
-        <v>728</v>
+        <v>64</v>
       </c>
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A764" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B764" t="s">
-        <v>34</v>
+        <v>728</v>
       </c>
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A765" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B765" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A766" t="s">
-        <v>587</v>
+        <v>922</v>
       </c>
       <c r="B766" t="s">
-        <v>587</v>
+        <v>71</v>
       </c>
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A767" t="s">
-        <v>923</v>
+        <v>587</v>
       </c>
       <c r="B767" t="s">
         <v>587</v>
@@ -9400,98 +9406,114 @@
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A768" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B768" t="s">
-        <v>925</v>
+        <v>587</v>
       </c>
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A769" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B769" t="s">
-        <v>185</v>
+        <v>925</v>
       </c>
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A770" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B770" t="s">
-        <v>54</v>
+        <v>185</v>
       </c>
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A771" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B771" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A772" t="s">
-        <v>936</v>
+        <v>928</v>
       </c>
       <c r="B772" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
     </row>
     <row r="773" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A773" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B773" t="s">
-        <v>495</v>
+        <v>76</v>
       </c>
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A774" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B774" t="s">
-        <v>869</v>
+        <v>495</v>
       </c>
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A775" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="B775" t="s">
-        <v>185</v>
+        <v>869</v>
       </c>
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A776" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="B776" t="s">
-        <v>76</v>
+        <v>185</v>
       </c>
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A777" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B777" t="s">
-        <v>708</v>
+        <v>76</v>
       </c>
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A778" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B778" t="s">
-        <v>115</v>
+        <v>708</v>
       </c>
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A779" t="s">
+        <v>947</v>
+      </c>
+      <c r="B779" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A780" t="s">
         <v>948</v>
       </c>
-      <c r="B779" t="s">
+      <c r="B780" t="s">
         <v>728</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A781" t="s">
+        <v>949</v>
+      </c>
+      <c r="B781" t="s">
+        <v>811</v>
       </c>
     </row>
   </sheetData>

--- a/data/interim/crosswalk.xlsx
+++ b/data/interim/crosswalk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/LocalWork/DataVisualizations/asbestos-dashboard/asbestos-dashboard-data/data/interim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E1D994-58C0-6D4D-A586-17B88AC8DB18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04F946B-5368-2946-9A29-176A961F25BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="951">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="952">
   <si>
     <t>facility_name</t>
   </si>
@@ -2885,6 +2885,9 @@
   </si>
   <si>
     <t>Lindley Academy Charter School</t>
+  </si>
+  <si>
+    <t>John L. Kinsey School Building 21</t>
   </si>
 </sst>
 </file>
@@ -3256,10 +3259,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B781"/>
+  <dimension ref="A1:B782"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A484" zoomScale="139" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A498" sqref="A498"/>
+    <sheetView tabSelected="1" topLeftCell="A769" zoomScale="139" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A783" sqref="A783:B783"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9516,6 +9519,14 @@
         <v>811</v>
       </c>
     </row>
+    <row r="782" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A782" t="s">
+        <v>951</v>
+      </c>
+      <c r="B782" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/data/interim/crosswalk.xlsx
+++ b/data/interim/crosswalk.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/LocalWork/DataVisualizations/asbestos-dashboard/asbestos-dashboard-data/data/interim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04F946B-5368-2946-9A29-176A961F25BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54809D6D-F618-BD49-9C77-11B185A1BA0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="952">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="953">
   <si>
     <t>facility_name</t>
   </si>
@@ -2888,6 +2888,9 @@
   </si>
   <si>
     <t>John L. Kinsey School Building 21</t>
+  </si>
+  <si>
+    <t>Fell D Newlin</t>
   </si>
 </sst>
 </file>
@@ -3259,10 +3262,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B782"/>
+  <dimension ref="A1:B783"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A769" zoomScale="139" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A783" sqref="A783:B783"/>
+    <sheetView tabSelected="1" topLeftCell="A726" zoomScale="139" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A742" sqref="A742"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9201,111 +9204,111 @@
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
-        <v>897</v>
+        <v>952</v>
       </c>
       <c r="B742" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B743" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B744" t="s">
-        <v>864</v>
+        <v>51</v>
       </c>
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B745" t="s">
-        <v>69</v>
+        <v>864</v>
       </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B746" t="s">
-        <v>479</v>
+        <v>69</v>
       </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B747" t="s">
-        <v>864</v>
+        <v>479</v>
       </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B748" t="s">
-        <v>881</v>
+        <v>864</v>
       </c>
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B749" t="s">
-        <v>115</v>
+        <v>881</v>
       </c>
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A750" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B750" t="s">
-        <v>728</v>
+        <v>115</v>
       </c>
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B751" t="s">
-        <v>190</v>
+        <v>728</v>
       </c>
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A752" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B752" t="s">
-        <v>51</v>
+        <v>190</v>
       </c>
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B753" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B754" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B755" t="s">
         <v>57</v>
@@ -9313,39 +9316,39 @@
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B756" t="s">
-        <v>844</v>
+        <v>57</v>
       </c>
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B757" t="s">
-        <v>153</v>
+        <v>844</v>
       </c>
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B758" t="s">
-        <v>914</v>
+        <v>153</v>
       </c>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B759" t="s">
-        <v>881</v>
+        <v>914</v>
       </c>
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A760" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B760" t="s">
         <v>881</v>
@@ -9353,63 +9356,63 @@
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B761" t="s">
-        <v>811</v>
+        <v>881</v>
       </c>
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A762" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B762" t="s">
-        <v>846</v>
+        <v>811</v>
       </c>
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A763" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B763" t="s">
-        <v>64</v>
+        <v>846</v>
       </c>
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A764" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B764" t="s">
-        <v>728</v>
+        <v>64</v>
       </c>
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A765" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B765" t="s">
-        <v>34</v>
+        <v>728</v>
       </c>
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A766" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B766" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A767" t="s">
-        <v>587</v>
+        <v>922</v>
       </c>
       <c r="B767" t="s">
-        <v>587</v>
+        <v>71</v>
       </c>
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A768" t="s">
-        <v>923</v>
+        <v>587</v>
       </c>
       <c r="B768" t="s">
         <v>587</v>
@@ -9417,113 +9420,121 @@
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A769" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B769" t="s">
-        <v>925</v>
+        <v>587</v>
       </c>
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A770" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B770" t="s">
-        <v>185</v>
+        <v>925</v>
       </c>
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A771" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B771" t="s">
-        <v>54</v>
+        <v>185</v>
       </c>
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A772" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B772" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="773" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A773" t="s">
-        <v>936</v>
+        <v>928</v>
       </c>
       <c r="B773" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A774" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B774" t="s">
-        <v>495</v>
+        <v>76</v>
       </c>
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A775" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B775" t="s">
-        <v>869</v>
+        <v>495</v>
       </c>
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A776" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="B776" t="s">
-        <v>185</v>
+        <v>869</v>
       </c>
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A777" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="B777" t="s">
-        <v>76</v>
+        <v>185</v>
       </c>
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A778" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B778" t="s">
-        <v>708</v>
+        <v>76</v>
       </c>
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A779" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B779" t="s">
-        <v>115</v>
+        <v>708</v>
       </c>
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A780" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B780" t="s">
-        <v>728</v>
+        <v>115</v>
       </c>
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A781" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B781" t="s">
-        <v>811</v>
+        <v>728</v>
       </c>
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A782" t="s">
+        <v>949</v>
+      </c>
+      <c r="B782" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A783" t="s">
         <v>951</v>
       </c>
-      <c r="B782" t="s">
+      <c r="B783" t="s">
         <v>23</v>
       </c>
     </row>

--- a/data/interim/crosswalk.xlsx
+++ b/data/interim/crosswalk.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/LocalWork/DataVisualizations/asbestos-dashboard/asbestos-dashboard-data/data/interim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54809D6D-F618-BD49-9C77-11B185A1BA0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA387B0-E4FE-2B4B-B729-EBE499A56BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="953">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="954">
   <si>
     <t>facility_name</t>
   </si>
@@ -2891,6 +2891,9 @@
   </si>
   <si>
     <t>Fell D Newlin</t>
+  </si>
+  <si>
+    <t>Spruance ES</t>
   </si>
 </sst>
 </file>
@@ -3262,10 +3265,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B783"/>
+  <dimension ref="A1:B784"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A726" zoomScale="139" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A742" sqref="A742"/>
+    <sheetView tabSelected="1" topLeftCell="A625" zoomScale="139" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A639" sqref="A639:B639"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8380,7 +8383,7 @@
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
-        <v>772</v>
+        <v>953</v>
       </c>
       <c r="B639" t="s">
         <v>773</v>
@@ -8388,7 +8391,7 @@
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B640" t="s">
         <v>773</v>
@@ -8396,23 +8399,23 @@
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B641" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B642" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B643" t="s">
         <v>778</v>
@@ -8420,23 +8423,23 @@
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B644" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B645" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B646" t="s">
         <v>783</v>
@@ -8444,15 +8447,15 @@
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B647" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
-        <v>944</v>
+        <v>785</v>
       </c>
       <c r="B648" t="s">
         <v>786</v>
@@ -8460,15 +8463,15 @@
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
-        <v>787</v>
+        <v>944</v>
       </c>
       <c r="B649" t="s">
-        <v>34</v>
+        <v>786</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B650" t="s">
         <v>34</v>
@@ -8476,7 +8479,7 @@
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B651" t="s">
         <v>34</v>
@@ -8484,7 +8487,7 @@
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B652" t="s">
         <v>34</v>
@@ -8492,7 +8495,7 @@
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B653" t="s">
         <v>34</v>
@@ -8500,23 +8503,23 @@
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B654" t="s">
-        <v>793</v>
+        <v>34</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B655" t="s">
-        <v>7</v>
+        <v>793</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B656" t="s">
         <v>7</v>
@@ -8524,7 +8527,7 @@
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B657" t="s">
         <v>7</v>
@@ -8532,23 +8535,23 @@
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
-        <v>609</v>
+        <v>796</v>
       </c>
       <c r="B658" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
-        <v>943</v>
+        <v>609</v>
       </c>
       <c r="B659" t="s">
-        <v>703</v>
+        <v>13</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
-        <v>797</v>
+        <v>943</v>
       </c>
       <c r="B660" t="s">
         <v>703</v>
@@ -8556,15 +8559,15 @@
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B661" t="s">
-        <v>799</v>
+        <v>703</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B662" t="s">
         <v>799</v>
@@ -8572,7 +8575,7 @@
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B663" t="s">
         <v>799</v>
@@ -8580,39 +8583,39 @@
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B664" t="s">
-        <v>271</v>
+        <v>799</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B665" t="s">
-        <v>804</v>
+        <v>271</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B666" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B667" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B668" t="s">
         <v>808</v>
@@ -8620,15 +8623,15 @@
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B669" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B670" t="s">
         <v>811</v>
@@ -8636,31 +8639,31 @@
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B671" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B672" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B673" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B674" t="s">
         <v>818</v>
@@ -8668,335 +8671,335 @@
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B675" t="s">
-        <v>519</v>
+        <v>818</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B676" t="s">
-        <v>822</v>
+        <v>519</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B677" t="s">
-        <v>35</v>
+        <v>822</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B678" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B679" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B680" t="s">
-        <v>81</v>
+        <v>3</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B681" t="s">
-        <v>708</v>
+        <v>81</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B682" t="s">
-        <v>523</v>
+        <v>708</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B683" t="s">
-        <v>44</v>
+        <v>523</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B684" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B685" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B686" t="s">
-        <v>140</v>
+        <v>72</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B687" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B688" t="s">
-        <v>698</v>
+        <v>179</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B689" t="s">
-        <v>374</v>
+        <v>698</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B690" t="s">
-        <v>190</v>
+        <v>374</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B691" t="s">
-        <v>575</v>
+        <v>190</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B692" t="s">
-        <v>543</v>
+        <v>575</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B693" t="s">
-        <v>452</v>
+        <v>543</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B694" t="s">
-        <v>509</v>
+        <v>452</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B695" t="s">
-        <v>599</v>
+        <v>509</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B696" t="s">
-        <v>49</v>
+        <v>599</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B697" t="s">
-        <v>844</v>
+        <v>49</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B698" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B699" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B700" t="s">
-        <v>13</v>
+        <v>844</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B701" t="s">
-        <v>844</v>
+        <v>13</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B702" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B703" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B704" t="s">
-        <v>728</v>
+        <v>844</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B705" t="s">
-        <v>691</v>
+        <v>728</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B706" t="s">
-        <v>209</v>
+        <v>691</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B707" t="s">
-        <v>856</v>
+        <v>209</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B708" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B709" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B710" t="s">
-        <v>69</v>
+        <v>860</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
-        <v>755</v>
+        <v>861</v>
       </c>
       <c r="B711" t="s">
-        <v>754</v>
+        <v>69</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
-        <v>862</v>
+        <v>755</v>
       </c>
       <c r="B712" t="s">
-        <v>45</v>
+        <v>754</v>
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B713" t="s">
-        <v>864</v>
+        <v>45</v>
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B714" t="s">
-        <v>617</v>
+        <v>864</v>
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B715" t="s">
-        <v>51</v>
+        <v>617</v>
       </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B716" t="s">
         <v>51</v>
@@ -9004,23 +9007,23 @@
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B717" t="s">
-        <v>869</v>
+        <v>51</v>
       </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B718" t="s">
-        <v>864</v>
+        <v>869</v>
       </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B719" t="s">
         <v>864</v>
@@ -9028,63 +9031,63 @@
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B720" t="s">
-        <v>732</v>
+        <v>864</v>
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B721" t="s">
-        <v>69</v>
+        <v>732</v>
       </c>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B722" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B723" t="s">
-        <v>876</v>
+        <v>3</v>
       </c>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B724" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B725" t="s">
-        <v>818</v>
+        <v>878</v>
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B726" t="s">
-        <v>881</v>
+        <v>818</v>
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B727" t="s">
         <v>881</v>
@@ -9092,71 +9095,71 @@
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B728" t="s">
-        <v>749</v>
+        <v>881</v>
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B729" t="s">
-        <v>856</v>
+        <v>749</v>
       </c>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B730" t="s">
-        <v>844</v>
+        <v>856</v>
       </c>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B731" t="s">
-        <v>71</v>
+        <v>844</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B732" t="s">
-        <v>888</v>
+        <v>71</v>
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B733" t="s">
-        <v>869</v>
+        <v>888</v>
       </c>
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B734" t="s">
-        <v>51</v>
+        <v>869</v>
       </c>
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B735" t="s">
-        <v>881</v>
+        <v>51</v>
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A736" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B736" t="s">
         <v>881</v>
@@ -9164,39 +9167,39 @@
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A737" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B737" t="s">
-        <v>844</v>
+        <v>881</v>
       </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A738" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B738" t="s">
-        <v>69</v>
+        <v>844</v>
       </c>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B739" t="s">
-        <v>881</v>
+        <v>69</v>
       </c>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B740" t="s">
-        <v>57</v>
+        <v>881</v>
       </c>
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
-        <v>940</v>
+        <v>896</v>
       </c>
       <c r="B741" t="s">
         <v>57</v>
@@ -9204,7 +9207,7 @@
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
-        <v>952</v>
+        <v>940</v>
       </c>
       <c r="B742" t="s">
         <v>57</v>
@@ -9212,111 +9215,111 @@
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
-        <v>897</v>
+        <v>952</v>
       </c>
       <c r="B743" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B744" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B745" t="s">
-        <v>864</v>
+        <v>51</v>
       </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B746" t="s">
-        <v>69</v>
+        <v>864</v>
       </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B747" t="s">
-        <v>479</v>
+        <v>69</v>
       </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B748" t="s">
-        <v>864</v>
+        <v>479</v>
       </c>
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B749" t="s">
-        <v>881</v>
+        <v>864</v>
       </c>
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A750" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B750" t="s">
-        <v>115</v>
+        <v>881</v>
       </c>
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B751" t="s">
-        <v>728</v>
+        <v>115</v>
       </c>
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A752" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B752" t="s">
-        <v>190</v>
+        <v>728</v>
       </c>
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B753" t="s">
-        <v>51</v>
+        <v>190</v>
       </c>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B754" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B755" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B756" t="s">
         <v>57</v>
@@ -9324,39 +9327,39 @@
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B757" t="s">
-        <v>844</v>
+        <v>57</v>
       </c>
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B758" t="s">
-        <v>153</v>
+        <v>844</v>
       </c>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B759" t="s">
-        <v>914</v>
+        <v>153</v>
       </c>
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A760" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B760" t="s">
-        <v>881</v>
+        <v>914</v>
       </c>
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B761" t="s">
         <v>881</v>
@@ -9364,63 +9367,63 @@
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A762" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B762" t="s">
-        <v>811</v>
+        <v>881</v>
       </c>
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A763" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B763" t="s">
-        <v>846</v>
+        <v>811</v>
       </c>
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A764" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B764" t="s">
-        <v>64</v>
+        <v>846</v>
       </c>
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A765" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B765" t="s">
-        <v>728</v>
+        <v>64</v>
       </c>
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A766" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B766" t="s">
-        <v>34</v>
+        <v>728</v>
       </c>
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A767" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B767" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A768" t="s">
-        <v>587</v>
+        <v>922</v>
       </c>
       <c r="B768" t="s">
-        <v>587</v>
+        <v>71</v>
       </c>
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A769" t="s">
-        <v>923</v>
+        <v>587</v>
       </c>
       <c r="B769" t="s">
         <v>587</v>
@@ -9428,113 +9431,121 @@
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A770" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B770" t="s">
-        <v>925</v>
+        <v>587</v>
       </c>
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A771" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B771" t="s">
-        <v>185</v>
+        <v>925</v>
       </c>
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A772" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B772" t="s">
-        <v>54</v>
+        <v>185</v>
       </c>
     </row>
     <row r="773" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A773" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B773" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A774" t="s">
-        <v>936</v>
+        <v>928</v>
       </c>
       <c r="B774" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A775" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B775" t="s">
-        <v>495</v>
+        <v>76</v>
       </c>
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A776" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B776" t="s">
-        <v>869</v>
+        <v>495</v>
       </c>
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A777" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="B777" t="s">
-        <v>185</v>
+        <v>869</v>
       </c>
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A778" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="B778" t="s">
-        <v>76</v>
+        <v>185</v>
       </c>
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A779" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B779" t="s">
-        <v>708</v>
+        <v>76</v>
       </c>
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A780" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B780" t="s">
-        <v>115</v>
+        <v>708</v>
       </c>
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A781" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B781" t="s">
-        <v>728</v>
+        <v>115</v>
       </c>
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A782" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B782" t="s">
-        <v>811</v>
+        <v>728</v>
       </c>
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A783" t="s">
+        <v>949</v>
+      </c>
+      <c r="B783" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A784" t="s">
         <v>951</v>
       </c>
-      <c r="B783" t="s">
+      <c r="B784" t="s">
         <v>23</v>
       </c>
     </row>

--- a/data/interim/crosswalk.xlsx
+++ b/data/interim/crosswalk.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/LocalWork/DataVisualizations/asbestos-dashboard/asbestos-dashboard-data/data/interim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA387B0-E4FE-2B4B-B729-EBE499A56BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324719AE-B683-7E42-8E90-1ADDD1657D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="954">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="959">
   <si>
     <t>facility_name</t>
   </si>
@@ -2894,6 +2894,21 @@
   </si>
   <si>
     <t>Spruance ES</t>
+  </si>
+  <si>
+    <t>Fredrick Douglas Mastery Charter Sch. AHERA</t>
+  </si>
+  <si>
+    <t>Frederick Douglass Mastery Charter School</t>
+  </si>
+  <si>
+    <t>Mastery Charter at Thomas</t>
+  </si>
+  <si>
+    <t>Mastery Charter School at Thomas Campus</t>
+  </si>
+  <si>
+    <t>Feltonville School</t>
   </si>
 </sst>
 </file>
@@ -3265,10 +3280,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B784"/>
+  <dimension ref="A1:B787"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A625" zoomScale="139" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A639" sqref="A639:B639"/>
+    <sheetView tabSelected="1" topLeftCell="A777" zoomScale="139" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A787" sqref="A787:B787"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9549,6 +9564,30 @@
         <v>23</v>
       </c>
     </row>
+    <row r="785" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A785" t="s">
+        <v>954</v>
+      </c>
+      <c r="B785" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A786" t="s">
+        <v>956</v>
+      </c>
+      <c r="B786" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A787" t="s">
+        <v>958</v>
+      </c>
+      <c r="B787" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
